--- a/QA/testcases/Pharmacy/Phar_Patient_App_Create_PCase_Positive-OK.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_Create_PCase_Positive-OK.xlsx
@@ -16,8 +16,6 @@
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -1317,9 +1315,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
@@ -1369,14 +1367,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -1400,14 +1390,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1415,10 +1397,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1431,7 +1422,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1452,14 +1443,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1469,15 +1452,30 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1492,14 +1490,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1534,19 +1532,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1558,55 +1562,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1624,7 +1598,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1636,67 +1682,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1708,13 +1706,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1782,21 +1780,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1831,6 +1814,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1841,15 +1848,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1867,13 +1865,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1885,130 +1883,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2096,12 +2094,12 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Sheet1"/>
+      <sheetName val="Xpath"/>
       <sheetName val="DataList"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2111,7 +2109,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Xpath"/>
+      <sheetName val="Sheet1"/>
       <sheetName val="DataList"/>
     </sheetNames>
     <sheetDataSet>
@@ -2162,36 +2160,6 @@
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="DataList"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="DataList"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2475,8 +2443,8 @@
   <sheetPr/>
   <dimension ref="A1:H176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H176"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4572,7 +4540,7 @@
         <v>19</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>225</v>
@@ -6195,22 +6163,22 @@
   </sheetData>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>[1]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10 C122 C124 C144 C146 C12:C14 C16:C26">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10 C122 C124 C144 C146 C12:C14 C16:C26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C11 C15 C123 C125 C145 C147 B1:B96 B98:B99 B101:B148 B175:B176 C2:C7 C117:C121 C139:C143">
+      <formula1/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45 C57 C80 C27:C33">
       <formula1>[3]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C11 C15 C123 C125 C145 C147 B1:B96 B98:B99 B101:B148 B175:B176 C2:C7 C117:C121 C139:C143">
-      <formula1>[7]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45 C57 C80 C27:C33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C77">
       <formula1>[4]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C77">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B149:B152 B153:B174">
       <formula1>[5]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B149:B152 B153:B174">
-      <formula1>[6]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QA/testcases/Pharmacy/Phar_Patient_App_Create_PCase_Positive-OK.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_Create_PCase_Positive-OK.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427">
   <si>
     <t>Step No</t>
   </si>
@@ -707,7 +707,10 @@
     <t>AGREE_CHECKBOX_STEP7</t>
   </si>
   <si>
-    <t>AGREE_SUBMIT_BUTTON</t>
+    <t>SikuliClick</t>
+  </si>
+  <si>
+    <t>AgreeTermsCons</t>
   </si>
   <si>
     <t>Click on AGREE and Submit</t>
@@ -1317,8 +1320,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1368,14 +1371,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1384,6 +1387,28 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1405,6 +1430,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1413,9 +1469,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1429,53 +1493,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1491,21 +1509,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1532,7 +1535,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1544,25 +1577,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1580,19 +1631,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1604,25 +1643,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1634,43 +1703,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1682,42 +1715,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1765,6 +1768,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1807,23 +1840,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1831,8 +1849,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1851,21 +1880,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1883,134 +1901,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2029,6 +2047,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2175,7 +2194,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="C1:C100" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="C1:C101" totalsRowShown="0">
   <tableColumns count="1">
     <tableColumn id="1" name="Actions"/>
   </tableColumns>
@@ -2444,7 +2463,7 @@
   <dimension ref="A1:H176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2453,7 +2472,7 @@
     <col min="2" max="2" width="24.2857142857143" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.42857142857143" style="4" customWidth="1"/>
     <col min="4" max="4" width="28.1428571428571" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.8571428571429" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.4285714285714" style="4" customWidth="1"/>
     <col min="6" max="6" width="87.7142857142857" style="4" customWidth="1"/>
     <col min="7" max="7" width="33.2857142857143" style="4" customWidth="1"/>
     <col min="8" max="8" width="15.7142857142857" style="4" customWidth="1"/>
@@ -4536,21 +4555,19 @@
       <c r="A97" s="9">
         <v>96</v>
       </c>
-      <c r="B97" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" s="10" t="s">
+      <c r="B97" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="E97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="F97" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H97" s="15"/>
     </row>
@@ -4567,10 +4584,10 @@
         <v>3</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H98" s="16"/>
     </row>
@@ -4585,14 +4602,14 @@
         <v>32</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E99" s="10"/>
       <c r="F99" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H99" s="15"/>
     </row>
@@ -4607,14 +4624,14 @@
         <v>32</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E100" s="8"/>
       <c r="F100" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H100" s="16"/>
     </row>
@@ -4645,16 +4662,16 @@
         <v>15</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H102" s="16"/>
     </row>
@@ -4669,16 +4686,16 @@
         <v>15</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H103" s="15"/>
     </row>
@@ -4693,7 +4710,7 @@
         <v>15</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E104" s="8">
         <v>9889656446</v>
@@ -4717,14 +4734,14 @@
         <v>15</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E105" s="10"/>
       <c r="F105" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H105" s="15"/>
     </row>
@@ -4753,20 +4770,20 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C107" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E107" s="10"/>
       <c r="F107" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H107" s="15"/>
     </row>
@@ -4775,20 +4792,20 @@
         <v>107</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E108" s="8"/>
       <c r="F108" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H108" s="16"/>
     </row>
@@ -4797,20 +4814,20 @@
         <v>108</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C109" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H109" s="15"/>
     </row>
@@ -4819,20 +4836,20 @@
         <v>109</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E110" s="8"/>
       <c r="F110" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H110" s="16"/>
     </row>
@@ -4841,20 +4858,20 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C111" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E111" s="10"/>
       <c r="F111" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H111" s="15"/>
     </row>
@@ -4863,20 +4880,20 @@
         <v>111</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E112" s="8"/>
       <c r="F112" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H112" s="16"/>
     </row>
@@ -4885,20 +4902,20 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C113" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E113" s="10"/>
       <c r="F113" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H113" s="15"/>
     </row>
@@ -4907,20 +4924,20 @@
         <v>113</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E114" s="8"/>
       <c r="F114" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H114" s="16"/>
     </row>
@@ -4935,14 +4952,14 @@
         <v>32</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E115" s="10"/>
       <c r="F115" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H115" s="15"/>
     </row>
@@ -5157,14 +5174,14 @@
         <v>32</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E126" s="8"/>
       <c r="F126" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H126" s="8"/>
     </row>
@@ -5179,14 +5196,14 @@
         <v>15</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E127" s="10"/>
       <c r="F127" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H127" s="10"/>
     </row>
@@ -5217,14 +5234,14 @@
         <v>32</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E129" s="10"/>
       <c r="F129" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H129" s="10"/>
     </row>
@@ -5239,16 +5256,16 @@
         <v>15</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H130" s="8"/>
     </row>
@@ -5263,16 +5280,16 @@
         <v>32</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H131" s="10"/>
     </row>
@@ -5281,22 +5298,22 @@
         <v>131</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H132" s="8"/>
     </row>
@@ -5315,10 +5332,10 @@
       </c>
       <c r="E133" s="10"/>
       <c r="F133" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H133" s="10"/>
     </row>
@@ -5347,7 +5364,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C135" s="10"/>
       <c r="D135" s="10"/>
@@ -5387,14 +5404,14 @@
         <v>15</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E137" s="10"/>
       <c r="F137" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H137" s="10"/>
     </row>
@@ -5609,14 +5626,14 @@
         <v>32</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E148" s="8"/>
       <c r="F148" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H148" s="8"/>
     </row>
@@ -5631,14 +5648,14 @@
         <v>15</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E149" s="10"/>
       <c r="F149" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H149" s="10"/>
     </row>
@@ -5669,14 +5686,14 @@
         <v>32</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E151" s="10"/>
       <c r="F151" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G151" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H151" s="10"/>
     </row>
@@ -5707,16 +5724,16 @@
         <v>32</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F153" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G153" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H153" s="10"/>
     </row>
@@ -5747,10 +5764,10 @@
       <c r="D155" s="12"/>
       <c r="E155" s="10"/>
       <c r="F155" s="10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G155" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H155" s="10"/>
     </row>
@@ -5765,7 +5782,7 @@
         <v>32</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E156" s="8"/>
       <c r="F156" s="8"/>
@@ -5783,7 +5800,7 @@
         <v>32</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E157" s="10"/>
       <c r="F157" s="10" t="s">
@@ -5805,7 +5822,7 @@
         <v>32</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E158" s="8"/>
       <c r="F158" s="8"/>
@@ -5823,7 +5840,7 @@
         <v>32</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E159" s="10"/>
       <c r="F159" s="10" t="s">
@@ -5845,7 +5862,7 @@
         <v>32</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E160" s="8">
         <v>200</v>
@@ -5865,7 +5882,7 @@
         <v>32</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E161" s="10"/>
       <c r="F161" s="10" t="s">
@@ -5903,10 +5920,10 @@
         <v>15</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F163" s="10"/>
       <c r="G163" s="10"/>
@@ -5917,22 +5934,22 @@
         <v>163</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C164" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G164" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H164" s="8"/>
     </row>
@@ -5947,7 +5964,7 @@
         <v>32</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E165" s="10"/>
       <c r="F165" s="10" t="s">
@@ -5985,7 +6002,7 @@
         <v>32</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
@@ -6003,7 +6020,7 @@
         <v>32</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E168" s="8"/>
       <c r="F168" s="8"/>
@@ -6021,7 +6038,7 @@
         <v>32</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E169" s="10"/>
       <c r="F169" s="10"/>
@@ -6049,16 +6066,16 @@
         <v>170</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C171" s="10"/>
       <c r="D171" s="12"/>
       <c r="E171" s="10"/>
       <c r="F171" s="10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G171" s="10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H171" s="10"/>
     </row>
@@ -6083,20 +6100,20 @@
         <v>172</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C173" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E173" s="10"/>
       <c r="F173" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G173" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H173" s="10"/>
     </row>
@@ -6105,20 +6122,20 @@
         <v>173</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C174" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E174" s="8"/>
       <c r="F174" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G174" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H174" s="8"/>
     </row>
@@ -6133,14 +6150,14 @@
         <v>32</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E175" s="10"/>
       <c r="F175" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G175" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H175" s="10"/>
     </row>
@@ -6190,10 +6207,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -6208,7 +6225,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6216,20 +6233,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -6240,20 +6257,20 @@
         <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -6261,47 +6278,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -6311,12 +6328,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -6326,55 +6343,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -6384,152 +6401,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -6539,204 +6556,204 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -6751,7 +6768,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>425</v>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/Pharmacy/Phar_Patient_App_Create_PCase_Positive-OK.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_Create_PCase_Positive-OK.xlsx
@@ -1318,10 +1318,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1371,7 +1371,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1392,9 +1392,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1402,13 +1401,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1424,7 +1416,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1432,7 +1424,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1445,9 +1437,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1469,24 +1468,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1501,14 +1508,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1535,7 +1535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1553,13 +1553,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1571,25 +1571,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1607,19 +1607,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1631,91 +1715,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1855,17 +1855,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1880,16 +1869,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1904,10 +1904,10 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1916,115 +1916,115 @@
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2463,7 +2463,7 @@
   <dimension ref="A1:H176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>

--- a/QA/testcases/Pharmacy/Phar_Patient_App_Create_PCase_Positive-OK.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_Create_PCase_Positive-OK.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425">
   <si>
     <t>Step No</t>
   </si>
@@ -401,16 +401,10 @@
     <t>APP_AUTHORIZE_FNAME</t>
   </si>
   <si>
-    <t>TestingBab</t>
-  </si>
-  <si>
     <t>Enter First  name</t>
   </si>
   <si>
     <t>APP_AUTHORIZE_LNAME</t>
-  </si>
-  <si>
-    <t>bab</t>
   </si>
   <si>
     <t>Enter Last name</t>
@@ -1318,8 +1312,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -1371,14 +1365,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1400,7 +1394,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1416,7 +1439,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1424,21 +1447,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1453,7 +1469,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1461,7 +1477,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1471,13 +1487,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1494,21 +1503,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1535,7 +1529,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1547,43 +1643,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1601,84 +1685,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1691,31 +1697,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1783,21 +1777,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1816,8 +1795,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1840,8 +1845,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1869,21 +1874,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1901,130 +1895,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2462,8 +2456,8 @@
   <sheetPr/>
   <dimension ref="A1:H176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3502,11 +3496,9 @@
       <c r="D48" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="8"/>
+      <c r="F48" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>124</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>27</v>
@@ -3524,13 +3516,11 @@
         <v>15</v>
       </c>
       <c r="D49" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>127</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>31</v>
@@ -3548,16 +3538,16 @@
         <v>32</v>
       </c>
       <c r="D50" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F50" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="G50" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>131</v>
       </c>
       <c r="H50" s="16"/>
     </row>
@@ -3572,16 +3562,16 @@
         <v>15</v>
       </c>
       <c r="D51" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F51" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="G51" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="H51" s="15"/>
     </row>
@@ -3596,13 +3586,13 @@
         <v>32</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>104</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>106</v>
@@ -3620,13 +3610,13 @@
         <v>15</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>108</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G53" s="10" t="s">
         <v>110</v>
@@ -3644,16 +3634,16 @@
         <v>15</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E54" s="8">
         <v>10001</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H54" s="16"/>
     </row>
@@ -3668,16 +3658,16 @@
         <v>15</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E55" s="10">
         <v>9789123456</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H55" s="15"/>
     </row>
@@ -3692,16 +3682,16 @@
         <v>15</v>
       </c>
       <c r="D56" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F56" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="G56" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="H56" s="16"/>
     </row>
@@ -3758,16 +3748,16 @@
         <v>32</v>
       </c>
       <c r="D59" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F59" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="G59" s="10" t="s">
         <v>151</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>153</v>
       </c>
       <c r="H59" s="15"/>
     </row>
@@ -3792,16 +3782,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="12"/>
       <c r="E61" s="10"/>
       <c r="F61" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H61" s="15"/>
     </row>
@@ -3816,16 +3806,16 @@
         <v>32</v>
       </c>
       <c r="D62" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="G62" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>160</v>
       </c>
       <c r="H62" s="16"/>
     </row>
@@ -3840,14 +3830,14 @@
         <v>15</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H63" s="15"/>
     </row>
@@ -3862,16 +3852,16 @@
         <v>32</v>
       </c>
       <c r="D64" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G64" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>166</v>
       </c>
       <c r="H64" s="16"/>
     </row>
@@ -3886,14 +3876,14 @@
         <v>15</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H65" s="15"/>
     </row>
@@ -3908,16 +3898,16 @@
         <v>15</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E66" s="8">
         <v>1235647899</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H66" s="16"/>
     </row>
@@ -3932,7 +3922,7 @@
         <v>32</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
@@ -3950,14 +3940,14 @@
         <v>32</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H68" s="16"/>
     </row>
@@ -3972,16 +3962,16 @@
         <v>15</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E69" s="10">
         <v>97890456789</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H69" s="15"/>
     </row>
@@ -3996,14 +3986,14 @@
         <v>32</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H70" s="16"/>
     </row>
@@ -4018,16 +4008,16 @@
         <v>32</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E71" s="10">
         <v>1230</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H71" s="15"/>
     </row>
@@ -4042,16 +4032,16 @@
         <v>32</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E72" s="8">
         <v>1550</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H72" s="16"/>
     </row>
@@ -4066,14 +4056,14 @@
         <v>32</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H73" s="15"/>
     </row>
@@ -4088,14 +4078,14 @@
         <v>32</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H74" s="16"/>
     </row>
@@ -4110,14 +4100,14 @@
         <v>32</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H75" s="15"/>
     </row>
@@ -4132,14 +4122,14 @@
         <v>32</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H76" s="16"/>
     </row>
@@ -4196,7 +4186,7 @@
         <v>32</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="10"/>
@@ -4256,16 +4246,16 @@
         <v>32</v>
       </c>
       <c r="D82" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F82" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="G82" s="8" t="s">
         <v>199</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>201</v>
       </c>
       <c r="H82" s="16"/>
     </row>
@@ -4290,16 +4280,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H84" s="16"/>
     </row>
@@ -4314,14 +4304,14 @@
         <v>32</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E85" s="10"/>
       <c r="F85" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H85" s="15"/>
     </row>
@@ -4336,14 +4326,14 @@
         <v>32</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H86" s="16"/>
     </row>
@@ -4358,16 +4348,16 @@
         <v>32</v>
       </c>
       <c r="D87" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F87" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="E87" s="10" t="s">
+      <c r="G87" s="10" t="s">
         <v>208</v>
-      </c>
-      <c r="F87" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>210</v>
       </c>
       <c r="H87" s="15"/>
     </row>
@@ -4376,16 +4366,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H88" s="16"/>
     </row>
@@ -4400,16 +4390,16 @@
         <v>15</v>
       </c>
       <c r="D89" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F89" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="E89" s="10" t="s">
+      <c r="G89" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="F89" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="G89" s="10" t="s">
-        <v>216</v>
       </c>
       <c r="H89" s="15"/>
     </row>
@@ -4424,16 +4414,16 @@
         <v>15</v>
       </c>
       <c r="D90" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F90" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="G90" s="8" t="s">
         <v>218</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="G90" s="8" t="s">
-        <v>220</v>
       </c>
       <c r="H90" s="16"/>
     </row>
@@ -4490,14 +4480,14 @@
         <v>32</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E93" s="10"/>
       <c r="F93" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H93" s="15"/>
     </row>
@@ -4528,7 +4518,7 @@
         <v>32</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E95" s="10"/>
       <c r="F95" s="10"/>
@@ -4556,18 +4546,18 @@
         <v>96</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
       <c r="E97" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="G97" s="10" t="s">
         <v>226</v>
-      </c>
-      <c r="F97" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="G97" s="10" t="s">
-        <v>228</v>
       </c>
       <c r="H97" s="15"/>
     </row>
@@ -4584,10 +4574,10 @@
         <v>3</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H98" s="16"/>
     </row>
@@ -4602,14 +4592,14 @@
         <v>32</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E99" s="10"/>
       <c r="F99" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H99" s="15"/>
     </row>
@@ -4624,14 +4614,14 @@
         <v>32</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E100" s="8"/>
       <c r="F100" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H100" s="16"/>
     </row>
@@ -4662,16 +4652,16 @@
         <v>15</v>
       </c>
       <c r="D102" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F102" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="G102" s="8" t="s">
         <v>238</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>240</v>
       </c>
       <c r="H102" s="16"/>
     </row>
@@ -4686,16 +4676,16 @@
         <v>15</v>
       </c>
       <c r="D103" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F103" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="E103" s="10" t="s">
+      <c r="G103" s="10" t="s">
         <v>242</v>
-      </c>
-      <c r="F103" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="G103" s="10" t="s">
-        <v>244</v>
       </c>
       <c r="H103" s="15"/>
     </row>
@@ -4710,16 +4700,16 @@
         <v>15</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E104" s="8">
         <v>9889656446</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H104" s="16"/>
     </row>
@@ -4734,14 +4724,14 @@
         <v>15</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E105" s="10"/>
       <c r="F105" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H105" s="15"/>
     </row>
@@ -4770,20 +4760,20 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C107" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E107" s="10"/>
       <c r="F107" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H107" s="15"/>
     </row>
@@ -4792,20 +4782,20 @@
         <v>107</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E108" s="8"/>
       <c r="F108" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H108" s="16"/>
     </row>
@@ -4814,20 +4804,20 @@
         <v>108</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C109" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H109" s="15"/>
     </row>
@@ -4836,20 +4826,20 @@
         <v>109</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E110" s="8"/>
       <c r="F110" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H110" s="16"/>
     </row>
@@ -4858,20 +4848,20 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C111" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E111" s="10"/>
       <c r="F111" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H111" s="15"/>
     </row>
@@ -4880,20 +4870,20 @@
         <v>111</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E112" s="8"/>
       <c r="F112" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H112" s="16"/>
     </row>
@@ -4902,20 +4892,20 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C113" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E113" s="10"/>
       <c r="F113" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H113" s="15"/>
     </row>
@@ -4924,20 +4914,20 @@
         <v>113</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E114" s="8"/>
       <c r="F114" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H114" s="16"/>
     </row>
@@ -4952,14 +4942,14 @@
         <v>32</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E115" s="10"/>
       <c r="F115" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H115" s="15"/>
     </row>
@@ -5174,14 +5164,14 @@
         <v>32</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E126" s="8"/>
       <c r="F126" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H126" s="8"/>
     </row>
@@ -5196,14 +5186,14 @@
         <v>15</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E127" s="10"/>
       <c r="F127" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H127" s="10"/>
     </row>
@@ -5234,14 +5224,14 @@
         <v>32</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E129" s="10"/>
       <c r="F129" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H129" s="10"/>
     </row>
@@ -5256,16 +5246,16 @@
         <v>15</v>
       </c>
       <c r="D130" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="F130" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="E130" s="8" t="s">
+      <c r="G130" s="8" t="s">
         <v>280</v>
-      </c>
-      <c r="F130" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="G130" s="8" t="s">
-        <v>282</v>
       </c>
       <c r="H130" s="8"/>
     </row>
@@ -5280,16 +5270,16 @@
         <v>32</v>
       </c>
       <c r="D131" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="F131" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="E131" s="10" t="s">
+      <c r="G131" s="10" t="s">
         <v>284</v>
-      </c>
-      <c r="F131" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="G131" s="10" t="s">
-        <v>286</v>
       </c>
       <c r="H131" s="10"/>
     </row>
@@ -5298,22 +5288,22 @@
         <v>131</v>
       </c>
       <c r="B132" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E132" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C132" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D132" s="11" t="s">
+      <c r="F132" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="E132" s="8" t="s">
+      <c r="G132" s="8" t="s">
         <v>289</v>
-      </c>
-      <c r="F132" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="G132" s="8" t="s">
-        <v>291</v>
       </c>
       <c r="H132" s="8"/>
     </row>
@@ -5332,10 +5322,10 @@
       </c>
       <c r="E133" s="10"/>
       <c r="F133" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H133" s="10"/>
     </row>
@@ -5364,7 +5354,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C135" s="10"/>
       <c r="D135" s="10"/>
@@ -5404,14 +5394,14 @@
         <v>15</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E137" s="10"/>
       <c r="F137" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H137" s="10"/>
     </row>
@@ -5626,14 +5616,14 @@
         <v>32</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E148" s="8"/>
       <c r="F148" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H148" s="8"/>
     </row>
@@ -5648,14 +5638,14 @@
         <v>15</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E149" s="10"/>
       <c r="F149" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H149" s="10"/>
     </row>
@@ -5686,14 +5676,14 @@
         <v>32</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E151" s="10"/>
       <c r="F151" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G151" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H151" s="10"/>
     </row>
@@ -5724,16 +5714,16 @@
         <v>32</v>
       </c>
       <c r="D153" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="E153" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="F153" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="E153" s="10" t="s">
+      <c r="G153" s="10" t="s">
         <v>305</v>
-      </c>
-      <c r="F153" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="G153" s="10" t="s">
-        <v>307</v>
       </c>
       <c r="H153" s="10"/>
     </row>
@@ -5758,16 +5748,16 @@
         <v>154</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C155" s="10"/>
       <c r="D155" s="12"/>
       <c r="E155" s="10"/>
       <c r="F155" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G155" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H155" s="10"/>
     </row>
@@ -5782,7 +5772,7 @@
         <v>32</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E156" s="8"/>
       <c r="F156" s="8"/>
@@ -5800,14 +5790,14 @@
         <v>32</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E157" s="10"/>
       <c r="F157" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G157" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H157" s="10"/>
     </row>
@@ -5822,7 +5812,7 @@
         <v>32</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E158" s="8"/>
       <c r="F158" s="8"/>
@@ -5840,14 +5830,14 @@
         <v>32</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E159" s="10"/>
       <c r="F159" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G159" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H159" s="10"/>
     </row>
@@ -5862,7 +5852,7 @@
         <v>32</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E160" s="8">
         <v>200</v>
@@ -5882,7 +5872,7 @@
         <v>32</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E161" s="10"/>
       <c r="F161" s="10" t="s">
@@ -5920,10 +5910,10 @@
         <v>15</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F163" s="10"/>
       <c r="G163" s="10"/>
@@ -5934,22 +5924,22 @@
         <v>163</v>
       </c>
       <c r="B164" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E164" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C164" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D164" s="11" t="s">
+      <c r="F164" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="E164" s="8" t="s">
+      <c r="G164" s="8" t="s">
         <v>289</v>
-      </c>
-      <c r="F164" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="G164" s="8" t="s">
-        <v>291</v>
       </c>
       <c r="H164" s="8"/>
     </row>
@@ -5964,7 +5954,7 @@
         <v>32</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E165" s="10"/>
       <c r="F165" s="10" t="s">
@@ -6002,7 +5992,7 @@
         <v>32</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
@@ -6020,7 +6010,7 @@
         <v>32</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E168" s="8"/>
       <c r="F168" s="8"/>
@@ -6038,7 +6028,7 @@
         <v>32</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E169" s="10"/>
       <c r="F169" s="10"/>
@@ -6066,16 +6056,16 @@
         <v>170</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C171" s="10"/>
       <c r="D171" s="12"/>
       <c r="E171" s="10"/>
       <c r="F171" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G171" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H171" s="10"/>
     </row>
@@ -6100,20 +6090,20 @@
         <v>172</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C173" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E173" s="10"/>
       <c r="F173" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G173" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H173" s="10"/>
     </row>
@@ -6122,20 +6112,20 @@
         <v>173</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C174" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E174" s="8"/>
       <c r="F174" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G174" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H174" s="8"/>
     </row>
@@ -6150,14 +6140,14 @@
         <v>32</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E175" s="10"/>
       <c r="F175" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G175" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H175" s="10"/>
     </row>
@@ -6225,7 +6215,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6233,20 +6223,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -6257,20 +6247,20 @@
         <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -6278,47 +6268,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>339</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -6328,12 +6318,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -6343,55 +6333,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -6401,359 +6391,359 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -6768,12 +6758,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/Pharmacy/Phar_Patient_App_Create_PCase_Positive-OK.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_Create_PCase_Positive-OK.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428">
   <si>
     <t>Step No</t>
   </si>
@@ -101,7 +101,7 @@
     <t>DOB link clicked</t>
   </si>
   <si>
-    <t>TypeDynamicAlpha</t>
+    <t>TypeDynamicValue</t>
   </si>
   <si>
     <t>FIRST_NAME_FIELD</t>
@@ -230,9 +230,6 @@
     <t>Wait for page to load</t>
   </si>
   <si>
-    <t>TypeDynamicValue</t>
-  </si>
-  <si>
     <t>PATIENT_MIDDLE_NAME</t>
   </si>
   <si>
@@ -326,6 +323,9 @@
     <t>CONTACT_ADDRESS_LINE1</t>
   </si>
   <si>
+    <t>S</t>
+  </si>
+  <si>
     <t>Enter Add1</t>
   </si>
   <si>
@@ -401,12 +401,18 @@
     <t>APP_AUTHORIZE_FNAME</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>Enter First  name</t>
   </si>
   <si>
     <t>APP_AUTHORIZE_LNAME</t>
   </si>
   <si>
+    <t>L</t>
+  </si>
+  <si>
     <t>Enter Last name</t>
   </si>
   <si>
@@ -512,6 +518,9 @@
     <t>APP_INS_NUMBER</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Enter Policy number</t>
   </si>
   <si>
@@ -701,610 +710,610 @@
     <t>AGREE_CHECKBOX_STEP7</t>
   </si>
   <si>
+    <t>AGREE_SUBMIT_BUTTON</t>
+  </si>
+  <si>
+    <t>Click on AGREE and Submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Button clicked </t>
+  </si>
+  <si>
+    <t>Wait for popup</t>
+  </si>
+  <si>
+    <t>Popup loaded</t>
+  </si>
+  <si>
+    <t>PATIENT_AGREE_CHECKBOX</t>
+  </si>
+  <si>
+    <t>Check agree box</t>
+  </si>
+  <si>
+    <t>Agree box checked</t>
+  </si>
+  <si>
+    <t>AGREE_BUTTON</t>
+  </si>
+  <si>
+    <t>Click Agree button</t>
+  </si>
+  <si>
+    <t>Agree button clicked</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>Enter Signature</t>
+  </si>
+  <si>
+    <t>Signature entered</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE_NAME</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Enter Name</t>
+  </si>
+  <si>
+    <t>Name entered</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE_PHONE</t>
+  </si>
+  <si>
+    <t>SIGN_SUBMIT</t>
+  </si>
+  <si>
+    <t>Click Sign and submit button</t>
+  </si>
+  <si>
+    <t>Sign and submit button clicked</t>
+  </si>
+  <si>
+    <t>GetText</t>
+  </si>
+  <si>
+    <t>SUBMIT_PATIENT_NAME</t>
+  </si>
+  <si>
+    <t>Get Patient Name</t>
+  </si>
+  <si>
+    <t>Retrieved succussfully</t>
+  </si>
+  <si>
+    <t>SUBMIT_FUND_NAME</t>
+  </si>
+  <si>
+    <t>Get Fund Name</t>
+  </si>
+  <si>
+    <t>SUBMIT_AWARD_PERIOD_FROM</t>
+  </si>
+  <si>
+    <t>Get award period from</t>
+  </si>
+  <si>
+    <t>SUBMIT_AWARD_PERIOD_TO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get award period to </t>
+  </si>
+  <si>
+    <t>SUBMIT_CARDHOLDER</t>
+  </si>
+  <si>
+    <t>Get cardholder</t>
+  </si>
+  <si>
+    <t>SUBMIT_BIN</t>
+  </si>
+  <si>
+    <t>Get BIN</t>
+  </si>
+  <si>
+    <t>SUBMIT_PCN</t>
+  </si>
+  <si>
+    <t>Get PCN</t>
+  </si>
+  <si>
+    <t>SUBMIT_GROUP</t>
+  </si>
+  <si>
+    <t>Get group</t>
+  </si>
+  <si>
+    <t>RETURN_HOME</t>
+  </si>
+  <si>
+    <t>Click on return home</t>
+  </si>
+  <si>
+    <t>Return home clicked</t>
+  </si>
+  <si>
+    <t>HOME_ACTIONS</t>
+  </si>
+  <si>
+    <t>Click on Actions</t>
+  </si>
+  <si>
+    <t>Actions clicked</t>
+  </si>
+  <si>
+    <t>ACTION_PROVIDER_UPLOAD_DOCS</t>
+  </si>
+  <si>
+    <t>Click on View Correspondence/Upload Document</t>
+  </si>
+  <si>
+    <t>Clicked View Correspondence/Upload Document</t>
+  </si>
+  <si>
+    <t>UPLOAD_DOCUMENTS_BUTTON</t>
+  </si>
+  <si>
+    <t>Click on Upload button</t>
+  </si>
+  <si>
+    <t>Uplod document button clicked</t>
+  </si>
+  <si>
+    <t>UDPLOAD_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>_Desc</t>
+  </si>
+  <si>
+    <t>Type Description</t>
+  </si>
+  <si>
+    <t>Description entered</t>
+  </si>
+  <si>
+    <t>UPLOAD_SELECT_CATEGORY</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Select File</t>
+  </si>
+  <si>
+    <t>File selected</t>
+  </si>
+  <si>
+    <t>TypeUpload</t>
+  </si>
+  <si>
+    <t>UPLOAD_FILE</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>Upload a file</t>
+  </si>
+  <si>
+    <t>File uploaded</t>
+  </si>
+  <si>
+    <t>Click Submit button</t>
+  </si>
+  <si>
+    <t>Submit button clicked</t>
+  </si>
+  <si>
+    <t>AlertOk</t>
+  </si>
+  <si>
+    <t>BACK_BUTTON</t>
+  </si>
+  <si>
+    <t>Click back button</t>
+  </si>
+  <si>
+    <t>Back button clicked</t>
+  </si>
+  <si>
+    <t>PROVIDER_EXPENDITURE</t>
+  </si>
+  <si>
+    <t>Click on Expenditure</t>
+  </si>
+  <si>
+    <t>Clicked Expenditure</t>
+  </si>
+  <si>
+    <t>CREATE_EXPENDITURE</t>
+  </si>
+  <si>
+    <t>Click Create expenditure</t>
+  </si>
+  <si>
+    <t>Create Expenditure clicked</t>
+  </si>
+  <si>
+    <t>EXPE_TYPE_OF_SERVICE</t>
+  </si>
+  <si>
+    <t>con</t>
+  </si>
+  <si>
+    <t>Type search type of service</t>
+  </si>
+  <si>
+    <t>Type of service entered</t>
+  </si>
+  <si>
+    <t>Select type of service</t>
+  </si>
+  <si>
+    <t>Type of service selected</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_FROM</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_FROM_DATE</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_TO</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_TO_DATE</t>
+  </si>
+  <si>
+    <t>EXPE_AMOUNT_SUBMITTED</t>
+  </si>
+  <si>
+    <t>EXPE_NEXT_BUTTON</t>
+  </si>
+  <si>
+    <t>EXPE_SIGN_SUBMIT</t>
+  </si>
+  <si>
+    <t>EXPE_ELECTRONIC_SIGN</t>
+  </si>
+  <si>
+    <t>Click ok to Pcase alert</t>
+  </si>
+  <si>
+    <t>Pcase alert clicked</t>
+  </si>
+  <si>
+    <t>POE_ID</t>
+  </si>
+  <si>
+    <t>Get POE ID</t>
+  </si>
+  <si>
+    <t>POE id retrieved</t>
+  </si>
+  <si>
+    <t>VerifyElementIsPresent</t>
+  </si>
+  <si>
+    <t>SUBMITTED_EXPENDITURES</t>
+  </si>
+  <si>
+    <t>Verify Submitted expenditures</t>
+  </si>
+  <si>
+    <t>Verified</t>
+  </si>
+  <si>
+    <t>PATIENT_LOGOUT</t>
+  </si>
+  <si>
+    <t>Click on logout</t>
+  </si>
+  <si>
+    <t>Logout successfully</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>GetUrl</t>
+  </si>
+  <si>
+    <t>ByName</t>
+  </si>
+  <si>
+    <t>NavigateToURL</t>
+  </si>
+  <si>
+    <t>ByOrName</t>
+  </si>
+  <si>
+    <t>WaitTime</t>
+  </si>
+  <si>
+    <t>ByLinkText</t>
+  </si>
+  <si>
+    <t>Maximize</t>
+  </si>
+  <si>
+    <t>ByTagName</t>
+  </si>
+  <si>
+    <t>ByClassName</t>
+  </si>
+  <si>
+    <t>ActionClick</t>
+  </si>
+  <si>
+    <t>ByCssSelector</t>
+  </si>
+  <si>
+    <t>JsClick</t>
+  </si>
+  <si>
+    <t>Normal Xpath</t>
+  </si>
+  <si>
+    <t>ByPartialLinkText</t>
+  </si>
+  <si>
+    <t>DoubleClick</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>ClickAt</t>
+  </si>
+  <si>
+    <t>ClickAndHold</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>ClearAndType</t>
+  </si>
+  <si>
+    <t>ActionType</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>MouseOver</t>
+  </si>
+  <si>
+    <t>MouseOverAndClick</t>
+  </si>
+  <si>
+    <t>GetAttribute</t>
+  </si>
+  <si>
+    <t>GetCount</t>
+  </si>
+  <si>
+    <t>GetCurrentURL</t>
+  </si>
+  <si>
+    <t>SelectCheckBox</t>
+  </si>
+  <si>
+    <t>SelectByIndex</t>
+  </si>
+  <si>
+    <t>SelectByValue</t>
+  </si>
+  <si>
+    <t>DeSelectCheckBox</t>
+  </si>
+  <si>
+    <t>DeSelectByIndex</t>
+  </si>
+  <si>
+    <t>DeSelectByValue</t>
+  </si>
+  <si>
+    <t>DeSelectByVisibleText</t>
+  </si>
+  <si>
+    <t>SwitchFrameByName</t>
+  </si>
+  <si>
+    <t>SwitchFrameByIndex</t>
+  </si>
+  <si>
+    <t>SwitchFrameByXpath</t>
+  </si>
+  <si>
+    <t>SwitchFrame</t>
+  </si>
+  <si>
+    <t>SwitchToDefaultFrame</t>
+  </si>
+  <si>
+    <t>Refresh</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>DismissAlert</t>
+  </si>
+  <si>
+    <t>AlertDismiss</t>
+  </si>
+  <si>
+    <t>PromptBox</t>
+  </si>
+  <si>
+    <t>GenerateAlert</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>GetWindowHandle</t>
+  </si>
+  <si>
+    <t>SwitchToDefaultWindow</t>
+  </si>
+  <si>
+    <t>SwitchToDefaultContent</t>
+  </si>
+  <si>
+    <t>GetAutoIt</t>
+  </si>
+  <si>
+    <t>ScrollDown</t>
+  </si>
+  <si>
+    <t>ScrollUp</t>
+  </si>
+  <si>
+    <t>ScrollBottom</t>
+  </si>
+  <si>
+    <t>KeyboardPageUp</t>
+  </si>
+  <si>
+    <t>KeyboardPageDown</t>
+  </si>
+  <si>
+    <t>KeyboardEnd</t>
+  </si>
+  <si>
+    <t>KeyboardTab</t>
+  </si>
+  <si>
+    <t>PageMaximize</t>
+  </si>
+  <si>
+    <t>KeyboardArrowUp</t>
+  </si>
+  <si>
+    <t>KeyboardArrowDown</t>
+  </si>
+  <si>
+    <t>KeyboardArrowLeft</t>
+  </si>
+  <si>
+    <t>KeyboardArrowRight</t>
+  </si>
+  <si>
+    <t>Drag</t>
+  </si>
+  <si>
+    <t>Drop</t>
+  </si>
+  <si>
+    <t>VerifyElementIsSelected</t>
+  </si>
+  <si>
+    <t>VerifyElementIsNotPresent</t>
+  </si>
+  <si>
+    <t>VerifyElementIsEnable</t>
+  </si>
+  <si>
+    <t>WaitUntilVisibilityOfElement</t>
+  </si>
+  <si>
+    <t>WaitUntilInvisibilityOfElement</t>
+  </si>
+  <si>
+    <t>VerifyTextIsPresent</t>
+  </si>
+  <si>
+    <t>WaitUntilTextToBeNotPresent</t>
+  </si>
+  <si>
+    <t>WaitUntilTextToBePresent</t>
+  </si>
+  <si>
+    <t>WaitUntilElementToBeClickable</t>
+  </si>
+  <si>
+    <t>WaitUntilElementToBeSelected</t>
+  </si>
+  <si>
+    <t>TextToBePresentInElementValue</t>
+  </si>
+  <si>
+    <t>WaitForElementPresent</t>
+  </si>
+  <si>
+    <t>WaitForElementNotPresent</t>
+  </si>
+  <si>
+    <t>CheckTwoString</t>
+  </si>
+  <si>
+    <t>DeleteAllCookies</t>
+  </si>
+  <si>
+    <t>TakeScreeShot</t>
+  </si>
+  <si>
+    <t>Highlight</t>
+  </si>
+  <si>
+    <t>NewTab</t>
+  </si>
+  <si>
+    <t>CloseTab</t>
+  </si>
+  <si>
+    <t>SendHttpPost</t>
+  </si>
+  <si>
+    <t>SplitAndOpenURL</t>
+  </si>
+  <si>
+    <t>WaitForAjaxQuery</t>
+  </si>
+  <si>
+    <t>TypeUsingReference</t>
+  </si>
+  <si>
+    <t>CurrentWindowName</t>
+  </si>
+  <si>
+    <t>GetSecondWindowHandle</t>
+  </si>
+  <si>
+    <t>SwitchParticularWindow</t>
+  </si>
+  <si>
+    <t>TypeDynamicValueReuse</t>
+  </si>
+  <si>
+    <t>PatientLogin</t>
+  </si>
+  <si>
+    <t>PortalSelection</t>
+  </si>
+  <si>
+    <t>PatientSSN</t>
+  </si>
+  <si>
+    <t>ProviderLogin</t>
+  </si>
+  <si>
     <t>SikuliClick</t>
-  </si>
-  <si>
-    <t>AgreeTermsCons</t>
-  </si>
-  <si>
-    <t>Click on AGREE and Submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Button clicked </t>
-  </si>
-  <si>
-    <t>Wait for popup</t>
-  </si>
-  <si>
-    <t>Popup loaded</t>
-  </si>
-  <si>
-    <t>PATIENT_AGREE_CHECKBOX</t>
-  </si>
-  <si>
-    <t>Check agree box</t>
-  </si>
-  <si>
-    <t>Agree box checked</t>
-  </si>
-  <si>
-    <t>AGREE_BUTTON</t>
-  </si>
-  <si>
-    <t>Click Agree button</t>
-  </si>
-  <si>
-    <t>Agree button clicked</t>
-  </si>
-  <si>
-    <t>E_SIGNATURE</t>
-  </si>
-  <si>
-    <t>sign</t>
-  </si>
-  <si>
-    <t>Enter Signature</t>
-  </si>
-  <si>
-    <t>Signature entered</t>
-  </si>
-  <si>
-    <t>E_SIGNATURE_NAME</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Enter Name</t>
-  </si>
-  <si>
-    <t>Name entered</t>
-  </si>
-  <si>
-    <t>E_SIGNATURE_PHONE</t>
-  </si>
-  <si>
-    <t>SIGN_SUBMIT</t>
-  </si>
-  <si>
-    <t>Click Sign and submit button</t>
-  </si>
-  <si>
-    <t>Sign and submit button clicked</t>
-  </si>
-  <si>
-    <t>GetText</t>
-  </si>
-  <si>
-    <t>SUBMIT_PATIENT_NAME</t>
-  </si>
-  <si>
-    <t>Get Patient Name</t>
-  </si>
-  <si>
-    <t>Retrieved succussfully</t>
-  </si>
-  <si>
-    <t>SUBMIT_FUND_NAME</t>
-  </si>
-  <si>
-    <t>Get Fund Name</t>
-  </si>
-  <si>
-    <t>SUBMIT_AWARD_PERIOD_FROM</t>
-  </si>
-  <si>
-    <t>Get award period from</t>
-  </si>
-  <si>
-    <t>SUBMIT_AWARD_PERIOD_TO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get award period to </t>
-  </si>
-  <si>
-    <t>SUBMIT_CARDHOLDER</t>
-  </si>
-  <si>
-    <t>Get cardholder</t>
-  </si>
-  <si>
-    <t>SUBMIT_BIN</t>
-  </si>
-  <si>
-    <t>Get BIN</t>
-  </si>
-  <si>
-    <t>SUBMIT_PCN</t>
-  </si>
-  <si>
-    <t>Get PCN</t>
-  </si>
-  <si>
-    <t>SUBMIT_GROUP</t>
-  </si>
-  <si>
-    <t>Get group</t>
-  </si>
-  <si>
-    <t>RETURN_HOME</t>
-  </si>
-  <si>
-    <t>Click on return home</t>
-  </si>
-  <si>
-    <t>Return home clicked</t>
-  </si>
-  <si>
-    <t>HOME_ACTIONS</t>
-  </si>
-  <si>
-    <t>Click on Actions</t>
-  </si>
-  <si>
-    <t>Actions clicked</t>
-  </si>
-  <si>
-    <t>ACTION_PROVIDER_UPLOAD_DOCS</t>
-  </si>
-  <si>
-    <t>Click on View Correspondence/Upload Document</t>
-  </si>
-  <si>
-    <t>Clicked View Correspondence/Upload Document</t>
-  </si>
-  <si>
-    <t>UPLOAD_DOCUMENTS_BUTTON</t>
-  </si>
-  <si>
-    <t>Click on Upload button</t>
-  </si>
-  <si>
-    <t>Uplod document button clicked</t>
-  </si>
-  <si>
-    <t>UDPLOAD_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>_Desc</t>
-  </si>
-  <si>
-    <t>Type Description</t>
-  </si>
-  <si>
-    <t>Description entered</t>
-  </si>
-  <si>
-    <t>UPLOAD_SELECT_CATEGORY</t>
-  </si>
-  <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>Select File</t>
-  </si>
-  <si>
-    <t>File selected</t>
-  </si>
-  <si>
-    <t>TypeUpload</t>
-  </si>
-  <si>
-    <t>UPLOAD_FILE</t>
-  </si>
-  <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <t>Upload a file</t>
-  </si>
-  <si>
-    <t>File uploaded</t>
-  </si>
-  <si>
-    <t>Click Submit button</t>
-  </si>
-  <si>
-    <t>Submit button clicked</t>
-  </si>
-  <si>
-    <t>AlertOk</t>
-  </si>
-  <si>
-    <t>BACK_BUTTON</t>
-  </si>
-  <si>
-    <t>Click back button</t>
-  </si>
-  <si>
-    <t>Back button clicked</t>
-  </si>
-  <si>
-    <t>PROVIDER_EXPENDITURE</t>
-  </si>
-  <si>
-    <t>Click on Expenditure</t>
-  </si>
-  <si>
-    <t>Clicked Expenditure</t>
-  </si>
-  <si>
-    <t>CREATE_EXPENDITURE</t>
-  </si>
-  <si>
-    <t>Click Create expenditure</t>
-  </si>
-  <si>
-    <t>Create Expenditure clicked</t>
-  </si>
-  <si>
-    <t>EXPE_TYPE_OF_SERVICE</t>
-  </si>
-  <si>
-    <t>con</t>
-  </si>
-  <si>
-    <t>Type search type of service</t>
-  </si>
-  <si>
-    <t>Type of service entered</t>
-  </si>
-  <si>
-    <t>Select type of service</t>
-  </si>
-  <si>
-    <t>Type of service selected</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_FROM</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_FROM_DATE</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_TO</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_TO_DATE</t>
-  </si>
-  <si>
-    <t>EXPE_AMOUNT_SUBMITTED</t>
-  </si>
-  <si>
-    <t>EXPE_NEXT_BUTTON</t>
-  </si>
-  <si>
-    <t>EXPE_SIGN_SUBMIT</t>
-  </si>
-  <si>
-    <t>EXPE_ELECTRONIC_SIGN</t>
-  </si>
-  <si>
-    <t>Click ok to Pcase alert</t>
-  </si>
-  <si>
-    <t>Pcase alert clicked</t>
-  </si>
-  <si>
-    <t>POE_ID</t>
-  </si>
-  <si>
-    <t>Get POE ID</t>
-  </si>
-  <si>
-    <t>POE id retrieved</t>
-  </si>
-  <si>
-    <t>VerifyElementIsPresent</t>
-  </si>
-  <si>
-    <t>SUBMITTED_EXPENDITURES</t>
-  </si>
-  <si>
-    <t>Verify Submitted expenditures</t>
-  </si>
-  <si>
-    <t>Verified</t>
-  </si>
-  <si>
-    <t>PATIENT_LOGOUT</t>
-  </si>
-  <si>
-    <t>Click on logout</t>
-  </si>
-  <si>
-    <t>Logout successfully</t>
-  </si>
-  <si>
-    <t>Actions</t>
-  </si>
-  <si>
-    <t>GetUrl</t>
-  </si>
-  <si>
-    <t>ByName</t>
-  </si>
-  <si>
-    <t>NavigateToURL</t>
-  </si>
-  <si>
-    <t>ByOrName</t>
-  </si>
-  <si>
-    <t>WaitTime</t>
-  </si>
-  <si>
-    <t>ByLinkText</t>
-  </si>
-  <si>
-    <t>Maximize</t>
-  </si>
-  <si>
-    <t>ByTagName</t>
-  </si>
-  <si>
-    <t>ByClassName</t>
-  </si>
-  <si>
-    <t>ActionClick</t>
-  </si>
-  <si>
-    <t>ByCssSelector</t>
-  </si>
-  <si>
-    <t>JsClick</t>
-  </si>
-  <si>
-    <t>Normal Xpath</t>
-  </si>
-  <si>
-    <t>ByPartialLinkText</t>
-  </si>
-  <si>
-    <t>DoubleClick</t>
-  </si>
-  <si>
-    <t>Xpath</t>
-  </si>
-  <si>
-    <t>ClickAt</t>
-  </si>
-  <si>
-    <t>ClickAndHold</t>
-  </si>
-  <si>
-    <t>Clear</t>
-  </si>
-  <si>
-    <t>ClearAndType</t>
-  </si>
-  <si>
-    <t>ActionType</t>
-  </si>
-  <si>
-    <t>Submit</t>
-  </si>
-  <si>
-    <t>MouseOver</t>
-  </si>
-  <si>
-    <t>MouseOverAndClick</t>
-  </si>
-  <si>
-    <t>GetAttribute</t>
-  </si>
-  <si>
-    <t>GetCount</t>
-  </si>
-  <si>
-    <t>GetCurrentURL</t>
-  </si>
-  <si>
-    <t>SelectCheckBox</t>
-  </si>
-  <si>
-    <t>SelectByIndex</t>
-  </si>
-  <si>
-    <t>SelectByValue</t>
-  </si>
-  <si>
-    <t>DeSelectCheckBox</t>
-  </si>
-  <si>
-    <t>DeSelectByIndex</t>
-  </si>
-  <si>
-    <t>DeSelectByValue</t>
-  </si>
-  <si>
-    <t>DeSelectByVisibleText</t>
-  </si>
-  <si>
-    <t>SwitchFrameByName</t>
-  </si>
-  <si>
-    <t>SwitchFrameByIndex</t>
-  </si>
-  <si>
-    <t>SwitchFrameByXpath</t>
-  </si>
-  <si>
-    <t>SwitchFrame</t>
-  </si>
-  <si>
-    <t>SwitchToDefaultFrame</t>
-  </si>
-  <si>
-    <t>Refresh</t>
-  </si>
-  <si>
-    <t>Back</t>
-  </si>
-  <si>
-    <t>Forward</t>
-  </si>
-  <si>
-    <t>DismissAlert</t>
-  </si>
-  <si>
-    <t>AlertDismiss</t>
-  </si>
-  <si>
-    <t>PromptBox</t>
-  </si>
-  <si>
-    <t>GenerateAlert</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>GetWindowHandle</t>
-  </si>
-  <si>
-    <t>SwitchToDefaultWindow</t>
-  </si>
-  <si>
-    <t>SwitchToDefaultContent</t>
-  </si>
-  <si>
-    <t>GetAutoIt</t>
-  </si>
-  <si>
-    <t>ScrollDown</t>
-  </si>
-  <si>
-    <t>ScrollUp</t>
-  </si>
-  <si>
-    <t>ScrollBottom</t>
-  </si>
-  <si>
-    <t>KeyboardPageUp</t>
-  </si>
-  <si>
-    <t>KeyboardPageDown</t>
-  </si>
-  <si>
-    <t>KeyboardEnd</t>
-  </si>
-  <si>
-    <t>KeyboardTab</t>
-  </si>
-  <si>
-    <t>PageMaximize</t>
-  </si>
-  <si>
-    <t>KeyboardArrowUp</t>
-  </si>
-  <si>
-    <t>KeyboardArrowDown</t>
-  </si>
-  <si>
-    <t>KeyboardArrowLeft</t>
-  </si>
-  <si>
-    <t>KeyboardArrowRight</t>
-  </si>
-  <si>
-    <t>Drag</t>
-  </si>
-  <si>
-    <t>Drop</t>
-  </si>
-  <si>
-    <t>VerifyElementIsSelected</t>
-  </si>
-  <si>
-    <t>VerifyElementIsNotPresent</t>
-  </si>
-  <si>
-    <t>VerifyElementIsEnable</t>
-  </si>
-  <si>
-    <t>WaitUntilVisibilityOfElement</t>
-  </si>
-  <si>
-    <t>WaitUntilInvisibilityOfElement</t>
-  </si>
-  <si>
-    <t>VerifyTextIsPresent</t>
-  </si>
-  <si>
-    <t>WaitUntilTextToBeNotPresent</t>
-  </si>
-  <si>
-    <t>WaitUntilTextToBePresent</t>
-  </si>
-  <si>
-    <t>WaitUntilElementToBeClickable</t>
-  </si>
-  <si>
-    <t>WaitUntilElementToBeSelected</t>
-  </si>
-  <si>
-    <t>TextToBePresentInElementValue</t>
-  </si>
-  <si>
-    <t>WaitForElementPresent</t>
-  </si>
-  <si>
-    <t>WaitForElementNotPresent</t>
-  </si>
-  <si>
-    <t>CheckTwoString</t>
-  </si>
-  <si>
-    <t>DeleteAllCookies</t>
-  </si>
-  <si>
-    <t>TakeScreeShot</t>
-  </si>
-  <si>
-    <t>Highlight</t>
-  </si>
-  <si>
-    <t>NewTab</t>
-  </si>
-  <si>
-    <t>CloseTab</t>
-  </si>
-  <si>
-    <t>SendHttpPost</t>
-  </si>
-  <si>
-    <t>SplitAndOpenURL</t>
-  </si>
-  <si>
-    <t>WaitForAjaxQuery</t>
-  </si>
-  <si>
-    <t>TypeUsingReference</t>
-  </si>
-  <si>
-    <t>CurrentWindowName</t>
-  </si>
-  <si>
-    <t>GetSecondWindowHandle</t>
-  </si>
-  <si>
-    <t>SwitchParticularWindow</t>
-  </si>
-  <si>
-    <t>TypeDynamicValueReuse</t>
-  </si>
-  <si>
-    <t>PatientLogin</t>
-  </si>
-  <si>
-    <t>PortalSelection</t>
-  </si>
-  <si>
-    <t>PatientSSN</t>
-  </si>
-  <si>
-    <t>ProviderLogin</t>
   </si>
 </sst>
 </file>
@@ -1312,10 +1321,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1372,7 +1381,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1387,7 +1404,77 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1395,20 +1482,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1423,76 +1496,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1529,7 +1538,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1541,7 +1592,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1553,13 +1664,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1583,133 +1712,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1795,19 +1804,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1827,25 +1849,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1854,8 +1863,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1877,7 +1886,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1895,134 +1904,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2042,6 +2051,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2456,8 +2466,8 @@
   <sheetPr/>
   <dimension ref="A1:H176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="B168" sqref="B168"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2609,7 +2619,7 @@
       <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -3000,16 +3010,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -3026,16 +3036,16 @@
         <v>32</v>
       </c>
       <c r="D27" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="F27" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="G27" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="H27" s="10"/>
     </row>
@@ -3050,16 +3060,16 @@
         <v>32</v>
       </c>
       <c r="D28" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="F28" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="G28" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="H28" s="8"/>
     </row>
@@ -3074,16 +3084,16 @@
         <v>32</v>
       </c>
       <c r="D29" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="F29" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="G29" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="H29" s="10"/>
     </row>
@@ -3098,16 +3108,16 @@
         <v>32</v>
       </c>
       <c r="D30" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="F30" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="G30" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="H30" s="8"/>
     </row>
@@ -3122,16 +3132,16 @@
         <v>32</v>
       </c>
       <c r="D31" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="F31" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="G31" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>88</v>
       </c>
       <c r="H31" s="10"/>
     </row>
@@ -3150,7 +3160,7 @@
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>56</v>
@@ -3168,14 +3178,14 @@
         <v>15</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="H33" s="10"/>
     </row>
@@ -3210,16 +3220,16 @@
         <v>32</v>
       </c>
       <c r="D35" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="F35" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="G35" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>96</v>
       </c>
       <c r="H35" s="15"/>
     </row>
@@ -3228,15 +3238,17 @@
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E36" s="8"/>
       <c r="F36" s="8" t="s">
         <v>98</v>
       </c>
@@ -3250,7 +3262,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>15</v>
@@ -3258,7 +3270,9 @@
       <c r="D37" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E37" s="10"/>
+      <c r="E37" s="10" t="s">
+        <v>97</v>
+      </c>
       <c r="F37" s="10" t="s">
         <v>101</v>
       </c>
@@ -3434,14 +3448,14 @@
         <v>15</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G45" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="H45" s="15"/>
     </row>
@@ -3488,7 +3502,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>15</v>
@@ -3496,9 +3510,11 @@
       <c r="D48" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="8"/>
+      <c r="E48" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="F48" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>27</v>
@@ -3510,17 +3526,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E49" s="10"/>
+        <v>125</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="F49" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>31</v>
@@ -3538,16 +3556,16 @@
         <v>32</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H50" s="16"/>
     </row>
@@ -3556,22 +3574,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H51" s="15"/>
     </row>
@@ -3586,13 +3604,13 @@
         <v>32</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>104</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>106</v>
@@ -3610,13 +3628,13 @@
         <v>15</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>108</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G53" s="10" t="s">
         <v>110</v>
@@ -3634,16 +3652,16 @@
         <v>15</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E54" s="8">
         <v>10001</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H54" s="16"/>
     </row>
@@ -3658,16 +3676,16 @@
         <v>15</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E55" s="10">
         <v>9789123456</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H55" s="15"/>
     </row>
@@ -3676,22 +3694,22 @@
         <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H56" s="16"/>
     </row>
@@ -3706,14 +3724,14 @@
         <v>15</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G57" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="H57" s="15"/>
     </row>
@@ -3748,16 +3766,16 @@
         <v>32</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H59" s="15"/>
     </row>
@@ -3782,16 +3800,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="12"/>
       <c r="E61" s="10"/>
       <c r="F61" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H61" s="15"/>
     </row>
@@ -3806,16 +3824,16 @@
         <v>32</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H62" s="16"/>
     </row>
@@ -3824,20 +3842,22 @@
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="E63" s="10"/>
+        <v>161</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>162</v>
+      </c>
       <c r="F63" s="10" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H63" s="15"/>
     </row>
@@ -3852,16 +3872,16 @@
         <v>32</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H64" s="16"/>
     </row>
@@ -3870,20 +3890,22 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E65" s="10"/>
+        <v>168</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>97</v>
+      </c>
       <c r="F65" s="10" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H65" s="15"/>
     </row>
@@ -3898,16 +3920,16 @@
         <v>15</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E66" s="8">
         <v>1235647899</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H66" s="16"/>
     </row>
@@ -3922,7 +3944,7 @@
         <v>32</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
@@ -3940,14 +3962,14 @@
         <v>32</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H68" s="16"/>
     </row>
@@ -3962,16 +3984,16 @@
         <v>15</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E69" s="10">
         <v>97890456789</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H69" s="15"/>
     </row>
@@ -3986,14 +4008,14 @@
         <v>32</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="8" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H70" s="16"/>
     </row>
@@ -4008,16 +4030,16 @@
         <v>32</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E71" s="10">
         <v>1230</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H71" s="15"/>
     </row>
@@ -4032,16 +4054,16 @@
         <v>32</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E72" s="8">
         <v>1550</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H72" s="16"/>
     </row>
@@ -4056,14 +4078,14 @@
         <v>32</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="10" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H73" s="15"/>
     </row>
@@ -4078,14 +4100,14 @@
         <v>32</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="17" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H74" s="16"/>
     </row>
@@ -4100,14 +4122,14 @@
         <v>32</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H75" s="15"/>
     </row>
@@ -4122,14 +4144,14 @@
         <v>32</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="17" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H76" s="16"/>
     </row>
@@ -4144,14 +4166,14 @@
         <v>15</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G77" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="H77" s="15"/>
     </row>
@@ -4186,7 +4208,7 @@
         <v>32</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="10"/>
@@ -4204,14 +4226,14 @@
         <v>15</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G80" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="H80" s="16"/>
     </row>
@@ -4246,16 +4268,16 @@
         <v>32</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H82" s="16"/>
     </row>
@@ -4280,16 +4302,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H84" s="16"/>
     </row>
@@ -4304,14 +4326,14 @@
         <v>32</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E85" s="10"/>
       <c r="F85" s="10" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H85" s="15"/>
     </row>
@@ -4326,14 +4348,14 @@
         <v>32</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H86" s="16"/>
     </row>
@@ -4348,16 +4370,16 @@
         <v>32</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H87" s="15"/>
     </row>
@@ -4366,16 +4388,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H88" s="16"/>
     </row>
@@ -4390,16 +4412,16 @@
         <v>15</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H89" s="15"/>
     </row>
@@ -4414,16 +4436,16 @@
         <v>15</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H90" s="16"/>
     </row>
@@ -4438,14 +4460,14 @@
         <v>15</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E91" s="10"/>
       <c r="F91" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G91" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="G91" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="H91" s="15"/>
     </row>
@@ -4480,14 +4502,14 @@
         <v>32</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E93" s="10"/>
       <c r="F93" s="10" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H93" s="15"/>
     </row>
@@ -4518,7 +4540,7 @@
         <v>32</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E95" s="10"/>
       <c r="F95" s="10"/>
@@ -4546,18 +4568,20 @@
         <v>96</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10" t="s">
-        <v>224</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="E97" s="10"/>
       <c r="F97" s="10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H97" s="15"/>
     </row>
@@ -4574,10 +4598,10 @@
         <v>3</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H98" s="16"/>
     </row>
@@ -4592,14 +4616,14 @@
         <v>32</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E99" s="10"/>
       <c r="F99" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H99" s="15"/>
     </row>
@@ -4614,14 +4638,14 @@
         <v>32</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E100" s="8"/>
       <c r="F100" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H100" s="16"/>
     </row>
@@ -4646,22 +4670,22 @@
         <v>101</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H102" s="16"/>
     </row>
@@ -4670,22 +4694,22 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C103" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H103" s="15"/>
     </row>
@@ -4700,16 +4724,16 @@
         <v>15</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E104" s="8">
         <v>9889656446</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H104" s="16"/>
     </row>
@@ -4724,14 +4748,14 @@
         <v>15</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E105" s="10"/>
       <c r="F105" s="10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H105" s="15"/>
     </row>
@@ -4751,7 +4775,7 @@
         <v>12</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H106" s="16"/>
     </row>
@@ -4760,20 +4784,20 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C107" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E107" s="10"/>
       <c r="F107" s="10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H107" s="15"/>
     </row>
@@ -4782,20 +4806,20 @@
         <v>107</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E108" s="8"/>
       <c r="F108" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="G108" s="8" t="s">
         <v>252</v>
-      </c>
-      <c r="G108" s="8" t="s">
-        <v>250</v>
       </c>
       <c r="H108" s="16"/>
     </row>
@@ -4804,20 +4828,20 @@
         <v>108</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C109" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="10" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H109" s="15"/>
     </row>
@@ -4826,20 +4850,20 @@
         <v>109</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E110" s="8"/>
       <c r="F110" s="8" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H110" s="16"/>
     </row>
@@ -4848,20 +4872,20 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C111" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E111" s="10"/>
       <c r="F111" s="10" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H111" s="15"/>
     </row>
@@ -4870,20 +4894,20 @@
         <v>111</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E112" s="8"/>
       <c r="F112" s="8" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H112" s="16"/>
     </row>
@@ -4892,20 +4916,20 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C113" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E113" s="10"/>
       <c r="F113" s="10" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H113" s="15"/>
     </row>
@@ -4914,20 +4938,20 @@
         <v>113</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E114" s="8"/>
       <c r="F114" s="8" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H114" s="16"/>
     </row>
@@ -4942,14 +4966,14 @@
         <v>32</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E115" s="10"/>
       <c r="F115" s="10" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H115" s="15"/>
     </row>
@@ -5164,14 +5188,14 @@
         <v>32</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E126" s="8"/>
       <c r="F126" s="8" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H126" s="8"/>
     </row>
@@ -5186,14 +5210,14 @@
         <v>15</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E127" s="10"/>
       <c r="F127" s="10" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H127" s="10"/>
     </row>
@@ -5224,14 +5248,14 @@
         <v>32</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E129" s="10"/>
       <c r="F129" s="10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H129" s="10"/>
     </row>
@@ -5240,22 +5264,22 @@
         <v>129</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H130" s="8"/>
     </row>
@@ -5270,16 +5294,16 @@
         <v>32</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H131" s="10"/>
     </row>
@@ -5288,22 +5312,22 @@
         <v>131</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H132" s="8"/>
     </row>
@@ -5322,10 +5346,10 @@
       </c>
       <c r="E133" s="10"/>
       <c r="F133" s="10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H133" s="10"/>
     </row>
@@ -5354,7 +5378,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C135" s="10"/>
       <c r="D135" s="10"/>
@@ -5394,14 +5418,14 @@
         <v>15</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E137" s="10"/>
       <c r="F137" s="10" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H137" s="10"/>
     </row>
@@ -5616,14 +5640,14 @@
         <v>32</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E148" s="8"/>
       <c r="F148" s="8" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H148" s="8"/>
     </row>
@@ -5638,14 +5662,14 @@
         <v>15</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E149" s="10"/>
       <c r="F149" s="10" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H149" s="10"/>
     </row>
@@ -5676,14 +5700,14 @@
         <v>32</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E151" s="10"/>
       <c r="F151" s="10" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G151" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H151" s="10"/>
     </row>
@@ -5714,16 +5738,16 @@
         <v>32</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F153" s="10" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G153" s="10" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H153" s="10"/>
     </row>
@@ -5748,16 +5772,16 @@
         <v>154</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C155" s="10"/>
       <c r="D155" s="12"/>
       <c r="E155" s="10"/>
       <c r="F155" s="10" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G155" s="10" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H155" s="10"/>
     </row>
@@ -5772,7 +5796,7 @@
         <v>32</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E156" s="8"/>
       <c r="F156" s="8"/>
@@ -5790,14 +5814,14 @@
         <v>32</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E157" s="10"/>
       <c r="F157" s="10" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G157" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H157" s="10"/>
     </row>
@@ -5812,7 +5836,7 @@
         <v>32</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E158" s="8"/>
       <c r="F158" s="8"/>
@@ -5830,14 +5854,14 @@
         <v>32</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E159" s="10"/>
       <c r="F159" s="10" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G159" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H159" s="10"/>
     </row>
@@ -5852,7 +5876,7 @@
         <v>32</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E160" s="8">
         <v>200</v>
@@ -5872,14 +5896,14 @@
         <v>32</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E161" s="10"/>
       <c r="F161" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G161" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="G161" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="H161" s="10"/>
     </row>
@@ -5904,16 +5928,16 @@
         <v>162</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C163" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F163" s="10"/>
       <c r="G163" s="10"/>
@@ -5924,22 +5948,22 @@
         <v>163</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C164" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G164" s="8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H164" s="8"/>
     </row>
@@ -5954,14 +5978,14 @@
         <v>32</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E165" s="10"/>
       <c r="F165" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G165" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="G165" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="H165" s="10"/>
     </row>
@@ -5992,7 +6016,7 @@
         <v>32</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
@@ -6004,15 +6028,17 @@
         <v>167</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C168" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="E168" s="8"/>
+        <v>317</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="F168" s="8"/>
       <c r="G168" s="8"/>
       <c r="H168" s="8"/>
@@ -6028,7 +6054,7 @@
         <v>32</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E169" s="10"/>
       <c r="F169" s="10"/>
@@ -6056,16 +6082,16 @@
         <v>170</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C171" s="10"/>
       <c r="D171" s="12"/>
       <c r="E171" s="10"/>
       <c r="F171" s="10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G171" s="10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H171" s="10"/>
     </row>
@@ -6090,20 +6116,20 @@
         <v>172</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C173" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E173" s="10"/>
       <c r="F173" s="10" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G173" s="10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H173" s="10"/>
     </row>
@@ -6112,20 +6138,20 @@
         <v>173</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C174" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E174" s="8"/>
       <c r="F174" s="8" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G174" s="8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H174" s="8"/>
     </row>
@@ -6140,14 +6166,14 @@
         <v>32</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E175" s="10"/>
       <c r="F175" s="10" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G175" s="10" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H175" s="10"/>
     </row>
@@ -6172,11 +6198,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B7 C9 C11 C15 C123 C125 C145 C147 B1:B5 B8:B96 B98:B99 B101:B148 B175:B176 C2:C7 C117:C121 C139:C143">
+      <formula1/>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10 C122 C124 C144 C146 C12:C14 C16:C26">
       <formula1>[2]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C11 C15 C123 C125 C145 C147 B1:B96 B98:B99 B101:B148 B175:B176 C2:C7 C117:C121 C139:C143">
-      <formula1/>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45 C57 C80 C27:C33">
       <formula1>[3]DataList!#REF!</formula1>
@@ -6215,7 +6241,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6223,20 +6249,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -6247,20 +6273,20 @@
         <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C6" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -6268,47 +6294,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C8" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C10" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C11" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -6318,70 +6344,70 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -6391,359 +6417,359 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -6758,12 +6784,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>223</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/Pharmacy/Phar_Patient_App_Create_PCase_Positive-OK.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_Create_PCase_Positive-OK.xlsx
@@ -710,6 +710,12 @@
     <t>AGREE_CHECKBOX_STEP7</t>
   </si>
   <si>
+    <t>JsClick</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
     <t>AGREE_SUBMIT_BUTTON</t>
   </si>
   <si>
@@ -1058,9 +1064,6 @@
     <t>ByCssSelector</t>
   </si>
   <si>
-    <t>JsClick</t>
-  </si>
-  <si>
     <t>Normal Xpath</t>
   </si>
   <si>
@@ -1068,9 +1071,6 @@
   </si>
   <si>
     <t>DoubleClick</t>
-  </si>
-  <si>
-    <t>Xpath</t>
   </si>
   <si>
     <t>ClickAt</t>
@@ -1322,9 +1322,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1374,55 +1374,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1442,8 +1396,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1465,9 +1496,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1482,36 +1512,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1538,43 +1538,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1586,13 +1562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1622,7 +1592,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1634,37 +1634,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1676,13 +1646,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1694,19 +1706,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1718,7 +1718,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1786,6 +1786,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1801,24 +1834,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1830,6 +1845,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1851,48 +1877,22 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1904,130 +1904,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2466,8 +2466,8 @@
   <sheetPr/>
   <dimension ref="A1:H176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="E172" sqref="E172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4568,20 +4568,20 @@
         <v>96</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E97" s="10"/>
       <c r="F97" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H97" s="15"/>
     </row>
@@ -4598,10 +4598,10 @@
         <v>3</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H98" s="16"/>
     </row>
@@ -4616,14 +4616,14 @@
         <v>32</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E99" s="10"/>
       <c r="F99" s="10" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H99" s="15"/>
     </row>
@@ -4638,14 +4638,14 @@
         <v>32</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E100" s="8"/>
       <c r="F100" s="8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H100" s="16"/>
     </row>
@@ -4676,16 +4676,16 @@
         <v>15</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H102" s="16"/>
     </row>
@@ -4700,16 +4700,16 @@
         <v>15</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H103" s="15"/>
     </row>
@@ -4724,7 +4724,7 @@
         <v>15</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E104" s="8">
         <v>9889656446</v>
@@ -4748,14 +4748,14 @@
         <v>15</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E105" s="10"/>
       <c r="F105" s="10" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H105" s="15"/>
     </row>
@@ -4784,20 +4784,20 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C107" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E107" s="10"/>
       <c r="F107" s="10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H107" s="15"/>
     </row>
@@ -4806,20 +4806,20 @@
         <v>107</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E108" s="8"/>
       <c r="F108" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G108" s="8" t="s">
         <v>254</v>
-      </c>
-      <c r="G108" s="8" t="s">
-        <v>252</v>
       </c>
       <c r="H108" s="16"/>
     </row>
@@ -4828,20 +4828,20 @@
         <v>108</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C109" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="10" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H109" s="15"/>
     </row>
@@ -4850,20 +4850,20 @@
         <v>109</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E110" s="8"/>
       <c r="F110" s="8" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H110" s="16"/>
     </row>
@@ -4872,20 +4872,20 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C111" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E111" s="10"/>
       <c r="F111" s="10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H111" s="15"/>
     </row>
@@ -4894,20 +4894,20 @@
         <v>111</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E112" s="8"/>
       <c r="F112" s="8" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H112" s="16"/>
     </row>
@@ -4916,20 +4916,20 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C113" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E113" s="10"/>
       <c r="F113" s="10" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H113" s="15"/>
     </row>
@@ -4938,20 +4938,20 @@
         <v>113</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E114" s="8"/>
       <c r="F114" s="8" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H114" s="16"/>
     </row>
@@ -4966,14 +4966,14 @@
         <v>32</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E115" s="10"/>
       <c r="F115" s="10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H115" s="15"/>
     </row>
@@ -5188,14 +5188,14 @@
         <v>32</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E126" s="8"/>
       <c r="F126" s="8" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H126" s="8"/>
     </row>
@@ -5210,14 +5210,14 @@
         <v>15</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E127" s="10"/>
       <c r="F127" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H127" s="10"/>
     </row>
@@ -5248,14 +5248,14 @@
         <v>32</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E129" s="10"/>
       <c r="F129" s="10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H129" s="10"/>
     </row>
@@ -5270,16 +5270,16 @@
         <v>15</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H130" s="8"/>
     </row>
@@ -5294,16 +5294,16 @@
         <v>32</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H131" s="10"/>
     </row>
@@ -5312,22 +5312,22 @@
         <v>131</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H132" s="8"/>
     </row>
@@ -5346,10 +5346,10 @@
       </c>
       <c r="E133" s="10"/>
       <c r="F133" s="10" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H133" s="10"/>
     </row>
@@ -5363,7 +5363,7 @@
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
       <c r="E134" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F134" s="8" t="s">
         <v>12</v>
@@ -5378,7 +5378,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C135" s="10"/>
       <c r="D135" s="10"/>
@@ -5397,7 +5397,7 @@
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
       <c r="E136" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F136" s="8" t="s">
         <v>12</v>
@@ -5418,14 +5418,14 @@
         <v>15</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E137" s="10"/>
       <c r="F137" s="10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H137" s="10"/>
     </row>
@@ -5640,14 +5640,14 @@
         <v>32</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E148" s="8"/>
       <c r="F148" s="8" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H148" s="8"/>
     </row>
@@ -5662,14 +5662,14 @@
         <v>15</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E149" s="10"/>
       <c r="F149" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H149" s="10"/>
     </row>
@@ -5700,14 +5700,14 @@
         <v>32</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E151" s="10"/>
       <c r="F151" s="10" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G151" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H151" s="10"/>
     </row>
@@ -5738,16 +5738,16 @@
         <v>32</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F153" s="10" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G153" s="10" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H153" s="10"/>
     </row>
@@ -5778,10 +5778,10 @@
       <c r="D155" s="12"/>
       <c r="E155" s="10"/>
       <c r="F155" s="10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G155" s="10" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H155" s="10"/>
     </row>
@@ -5796,7 +5796,7 @@
         <v>32</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E156" s="8"/>
       <c r="F156" s="8"/>
@@ -5814,7 +5814,7 @@
         <v>32</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E157" s="10"/>
       <c r="F157" s="10" t="s">
@@ -5836,7 +5836,7 @@
         <v>32</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E158" s="8"/>
       <c r="F158" s="8"/>
@@ -5854,7 +5854,7 @@
         <v>32</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E159" s="10"/>
       <c r="F159" s="10" t="s">
@@ -5876,7 +5876,7 @@
         <v>32</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E160" s="8">
         <v>200</v>
@@ -5896,7 +5896,7 @@
         <v>32</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E161" s="10"/>
       <c r="F161" s="10" t="s">
@@ -5934,10 +5934,10 @@
         <v>15</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F163" s="10"/>
       <c r="G163" s="10"/>
@@ -5948,22 +5948,22 @@
         <v>163</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C164" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G164" s="8" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H164" s="8"/>
     </row>
@@ -5978,7 +5978,7 @@
         <v>32</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E165" s="10"/>
       <c r="F165" s="10" t="s">
@@ -6016,7 +6016,7 @@
         <v>32</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
@@ -6034,7 +6034,7 @@
         <v>32</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E168" s="8" t="s">
         <v>97</v>
@@ -6054,7 +6054,7 @@
         <v>32</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E169" s="10"/>
       <c r="F169" s="10"/>
@@ -6082,16 +6082,16 @@
         <v>170</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C171" s="10"/>
       <c r="D171" s="12"/>
       <c r="E171" s="10"/>
       <c r="F171" s="10" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G171" s="10" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H171" s="10"/>
     </row>
@@ -6116,20 +6116,20 @@
         <v>172</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C173" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E173" s="10"/>
       <c r="F173" s="10" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G173" s="10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H173" s="10"/>
     </row>
@@ -6138,20 +6138,20 @@
         <v>173</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C174" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E174" s="8"/>
       <c r="F174" s="8" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G174" s="8" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H174" s="8"/>
     </row>
@@ -6166,14 +6166,14 @@
         <v>32</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E175" s="10"/>
       <c r="F175" s="10" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G175" s="10" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H175" s="10"/>
     </row>
@@ -6225,8 +6225,8 @@
   <sheetPr/>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -6241,7 +6241,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6249,20 +6249,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -6273,20 +6273,20 @@
         <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C6" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -6294,34 +6294,34 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C8" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>342</v>
+        <v>226</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>346</v>
+        <v>227</v>
       </c>
       <c r="C11" t="s">
         <v>347</v>
@@ -6374,7 +6374,7 @@
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="3:3">
@@ -6387,7 +6387,7 @@
         <v>356</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="3:3">
@@ -6477,7 +6477,7 @@
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="3:3">
@@ -6607,7 +6607,7 @@
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68" spans="3:3">
@@ -6630,7 +6630,7 @@
         <v>400</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72" spans="3:3">
@@ -6643,7 +6643,7 @@
         <v>402</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="74" spans="3:3">
@@ -6671,7 +6671,7 @@
         <v>407</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="79" spans="3:4">
@@ -6679,7 +6679,7 @@
         <v>408</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="80" spans="3:3">
@@ -6769,7 +6769,7 @@
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="98" spans="3:3">

--- a/QA/testcases/Pharmacy/Phar_Patient_App_Create_PCase_Positive-OK.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_Create_PCase_Positive-OK.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27465" windowHeight="13650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27465" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="DataList" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -23,14 +23,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Rewards" type="5" background="1" refreshedVersion="2" saveData="1">
+  <connection id="1" name="Rewards" type="5" refreshedVersion="2" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;Password=&quot;&quot;;User ID=Admin;Data Source=C:\Framework\testcase\Crowd\Rewards.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Database Password=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False" command="DataList$" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="428">
   <si>
     <t>Step No</t>
   </si>
@@ -1319,14 +1319,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1372,152 +1366,8 @@
       <name val="Helvetica"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1532,198 +1382,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1733,29 +1397,29 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399884029663991"/>
+        <color theme="4" tint="0.39985351115451523"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.399884029663991"/>
+        <color theme="4" tint="0.39985351115451523"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.399884029663991"/>
+        <color theme="4" tint="0.39985351115451523"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399884029663991"/>
+        <color theme="4" tint="0.39985351115451523"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1763,273 +1427,31 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2053,57 +1475,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2114,7 +1489,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Xpath"/>
@@ -2129,7 +1504,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2144,7 +1519,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2159,7 +1534,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2174,15 +1549,15 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
       <sheetName val="DataList"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2458,29 +1833,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="E172" sqref="E172"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.57142857142857" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.2857142857143" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.42857142857143" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.1428571428571" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.4285714285714" style="4" customWidth="1"/>
-    <col min="6" max="6" width="87.7142857142857" style="4" customWidth="1"/>
-    <col min="7" max="7" width="33.2857142857143" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.7142857142857" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.85714285714286" style="4"/>
+    <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="87.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5231,7 +4606,7 @@
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
       <c r="E128" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
@@ -6194,49 +5569,66 @@
       <c r="H176" s="8"/>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
-      <formula1>[1]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B7 C9 C11 C15 C123 C125 C145 C147 B1:B5 B8:B96 B98:B99 B101:B148 B175:B176 C2:C7 C117:C121 C139:C143">
-      <formula1/>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10 C122 C124 C144 C146 C12:C14 C16:C26">
-      <formula1>[2]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45 C57 C80 C27:C33">
-      <formula1>[3]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C77">
-      <formula1>[4]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B149:B152 B153:B174">
-      <formula1>[5]DataList!#REF!</formula1>
-    </dataValidation>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B7 C9 C11 C15 C123 C125 C145 C147 B1:B5 B8:B96 B98:B99 B101:B148 B175:B176 C2:C7 C117:C121 C139:C143"/>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]DataList!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[2]DataList!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C8 C10 C122 C124 C144 C146 C12:C14 C16:C26</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[3]DataList!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C45 C57 C80 C27:C33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[4]DataList!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C77</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[5]DataList!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B149:B152 B153:B174</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="52.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="13.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -6244,7 +5636,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -6252,7 +5644,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>334</v>
       </c>
@@ -6260,7 +5652,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>336</v>
       </c>
@@ -6268,7 +5660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -6276,7 +5668,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>338</v>
       </c>
@@ -6284,7 +5676,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>340</v>
       </c>
@@ -6292,7 +5684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>341</v>
       </c>
@@ -6311,7 +5703,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>345</v>
       </c>
@@ -6319,7 +5711,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>227</v>
       </c>
@@ -6327,57 +5719,57 @@
         <v>347</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
+    <row r="12" spans="1:4">
       <c r="C12" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
+    <row r="13" spans="1:4">
       <c r="C13" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="1:4">
       <c r="C14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="1:4">
       <c r="C15" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
+    <row r="16" spans="1:4">
       <c r="C16" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:4">
       <c r="C17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:4">
       <c r="C18" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:4">
       <c r="C19" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:4">
       <c r="C20" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:4">
       <c r="C21" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="3:4">
       <c r="C22" t="s">
         <v>355</v>
       </c>
@@ -6390,47 +5782,47 @@
         <v>344</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="3:4">
       <c r="C24" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
+    <row r="25" spans="3:4">
       <c r="C25" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="3:4">
       <c r="C26" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="27" spans="3:3">
+    <row r="27" spans="3:4">
       <c r="C27" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="3:4">
       <c r="C28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="3:4">
       <c r="C29" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
+    <row r="30" spans="3:4">
       <c r="C30" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="31" spans="3:3">
+    <row r="31" spans="3:4">
       <c r="C31" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="32" spans="3:3">
+    <row r="32" spans="3:4">
       <c r="C32" t="s">
         <v>364</v>
       </c>
@@ -6595,32 +5987,32 @@
         <v>394</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
+    <row r="65" spans="3:4">
       <c r="C65" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="66" spans="3:3">
+    <row r="66" spans="3:4">
       <c r="C66" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="67" spans="3:3">
+    <row r="67" spans="3:4">
       <c r="C67" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="68" spans="3:3">
+    <row r="68" spans="3:4">
       <c r="C68" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="69" spans="3:3">
+    <row r="69" spans="3:4">
       <c r="C69" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="70" spans="3:3">
+    <row r="70" spans="3:4">
       <c r="C70" t="s">
         <v>399</v>
       </c>
@@ -6633,7 +6025,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="72" spans="3:3">
+    <row r="72" spans="3:4">
       <c r="C72" t="s">
         <v>401</v>
       </c>
@@ -6646,22 +6038,22 @@
         <v>344</v>
       </c>
     </row>
-    <row r="74" spans="3:3">
+    <row r="74" spans="3:4">
       <c r="C74" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="75" spans="3:3">
+    <row r="75" spans="3:4">
       <c r="C75" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="76" spans="3:3">
+    <row r="76" spans="3:4">
       <c r="C76" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="77" spans="3:3">
+    <row r="77" spans="3:4">
       <c r="C77" t="s">
         <v>406</v>
       </c>
@@ -6682,7 +6074,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="80" spans="3:3">
+    <row r="80" spans="3:4">
       <c r="C80" t="s">
         <v>409</v>
       </c>
@@ -6798,9 +6190,8 @@
       <formula1>$A$2:$A$12</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>

--- a/QA/testcases/Pharmacy/Phar_Patient_App_Create_PCase_Positive-OK.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_Create_PCase_Positive-OK.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27465" windowHeight="13650"/>
+    <workbookView windowWidth="27465" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="DataList" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -23,14 +23,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Rewards" type="5" refreshedVersion="2" background="1" saveData="1">
+  <connection id="1" name="Rewards" type="5" background="1" refreshedVersion="2" saveData="1">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;Password=&quot;&quot;;User ID=Admin;Data Source=C:\Framework\testcase\Crowd\Rewards.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Database Password=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False" command="DataList$" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428">
   <si>
     <t>Step No</t>
   </si>
@@ -659,7 +659,7 @@
     <t>MEDICATION_NAME</t>
   </si>
   <si>
-    <t>aconite</t>
+    <t>Con</t>
   </si>
   <si>
     <t>Type Medication name</t>
@@ -710,367 +710,367 @@
     <t>AGREE_CHECKBOX_STEP7</t>
   </si>
   <si>
+    <t>AGREE_SUBMIT_BUTTON</t>
+  </si>
+  <si>
+    <t>Click on AGREE and Submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Button clicked </t>
+  </si>
+  <si>
+    <t>Wait for popup</t>
+  </si>
+  <si>
+    <t>Popup loaded</t>
+  </si>
+  <si>
+    <t>PATIENT_AGREE_CHECKBOX</t>
+  </si>
+  <si>
+    <t>Check agree box</t>
+  </si>
+  <si>
+    <t>Agree box checked</t>
+  </si>
+  <si>
+    <t>AGREE_BUTTON</t>
+  </si>
+  <si>
+    <t>Click Agree button</t>
+  </si>
+  <si>
+    <t>Agree button clicked</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>Enter Signature</t>
+  </si>
+  <si>
+    <t>Signature entered</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE_NAME</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Enter Name</t>
+  </si>
+  <si>
+    <t>Name entered</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE_PHONE</t>
+  </si>
+  <si>
+    <t>SIGN_SUBMIT</t>
+  </si>
+  <si>
+    <t>Click Sign and submit button</t>
+  </si>
+  <si>
+    <t>Sign and submit button clicked</t>
+  </si>
+  <si>
+    <t>GetText</t>
+  </si>
+  <si>
+    <t>SUBMIT_PATIENT_NAME</t>
+  </si>
+  <si>
+    <t>Get Patient Name</t>
+  </si>
+  <si>
+    <t>Retrieved succussfully</t>
+  </si>
+  <si>
+    <t>SUBMIT_FUND_NAME</t>
+  </si>
+  <si>
+    <t>Get Fund Name</t>
+  </si>
+  <si>
+    <t>SUBMIT_AWARD_PERIOD_FROM</t>
+  </si>
+  <si>
+    <t>Get award period from</t>
+  </si>
+  <si>
+    <t>SUBMIT_AWARD_PERIOD_TO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get award period to </t>
+  </si>
+  <si>
+    <t>SUBMIT_CARDHOLDER</t>
+  </si>
+  <si>
+    <t>Get cardholder</t>
+  </si>
+  <si>
+    <t>SUBMIT_BIN</t>
+  </si>
+  <si>
+    <t>Get BIN</t>
+  </si>
+  <si>
+    <t>SUBMIT_PCN</t>
+  </si>
+  <si>
+    <t>Get PCN</t>
+  </si>
+  <si>
+    <t>SUBMIT_GROUP</t>
+  </si>
+  <si>
+    <t>Get group</t>
+  </si>
+  <si>
+    <t>RETURN_HOME</t>
+  </si>
+  <si>
+    <t>Click on return home</t>
+  </si>
+  <si>
+    <t>Return home clicked</t>
+  </si>
+  <si>
+    <t>HOME_ACTIONS</t>
+  </si>
+  <si>
+    <t>Click on Actions</t>
+  </si>
+  <si>
+    <t>Actions clicked</t>
+  </si>
+  <si>
+    <t>ACTION_PROVIDER_UPLOAD_DOCS</t>
+  </si>
+  <si>
+    <t>Click on View Correspondence/Upload Document</t>
+  </si>
+  <si>
+    <t>Clicked View Correspondence/Upload Document</t>
+  </si>
+  <si>
+    <t>UPLOAD_DOCUMENTS_BUTTON</t>
+  </si>
+  <si>
+    <t>Click on Upload button</t>
+  </si>
+  <si>
+    <t>Uplod document button clicked</t>
+  </si>
+  <si>
+    <t>UDPLOAD_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>_Desc</t>
+  </si>
+  <si>
+    <t>Type Description</t>
+  </si>
+  <si>
+    <t>Description entered</t>
+  </si>
+  <si>
+    <t>UPLOAD_SELECT_CATEGORY</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Select File</t>
+  </si>
+  <si>
+    <t>File selected</t>
+  </si>
+  <si>
+    <t>TypeUpload</t>
+  </si>
+  <si>
+    <t>UPLOAD_FILE</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>Upload a file</t>
+  </si>
+  <si>
+    <t>File uploaded</t>
+  </si>
+  <si>
+    <t>Click Submit button</t>
+  </si>
+  <si>
+    <t>Submit button clicked</t>
+  </si>
+  <si>
+    <t>AlertOk</t>
+  </si>
+  <si>
+    <t>BACK_BUTTON</t>
+  </si>
+  <si>
+    <t>Click back button</t>
+  </si>
+  <si>
+    <t>Back button clicked</t>
+  </si>
+  <si>
+    <t>PROVIDER_EXPENDITURE</t>
+  </si>
+  <si>
+    <t>Click on Expenditure</t>
+  </si>
+  <si>
+    <t>Clicked Expenditure</t>
+  </si>
+  <si>
+    <t>CREATE_EXPENDITURE</t>
+  </si>
+  <si>
+    <t>Click Create expenditure</t>
+  </si>
+  <si>
+    <t>Create Expenditure clicked</t>
+  </si>
+  <si>
+    <t>EXPE_TYPE_OF_SERVICE</t>
+  </si>
+  <si>
+    <t>con</t>
+  </si>
+  <si>
+    <t>Type search type of service</t>
+  </si>
+  <si>
+    <t>Type of service entered</t>
+  </si>
+  <si>
+    <t>Select type of service</t>
+  </si>
+  <si>
+    <t>Type of service selected</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_FROM</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_FROM_DATE</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_TO</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_TO_DATE</t>
+  </si>
+  <si>
+    <t>EXPE_AMOUNT_SUBMITTED</t>
+  </si>
+  <si>
+    <t>EXPE_NEXT_BUTTON</t>
+  </si>
+  <si>
+    <t>EXPE_SIGN_SUBMIT</t>
+  </si>
+  <si>
+    <t>EXPE_ELECTRONIC_SIGN</t>
+  </si>
+  <si>
+    <t>Click ok to Pcase alert</t>
+  </si>
+  <si>
+    <t>Pcase alert clicked</t>
+  </si>
+  <si>
+    <t>POE_ID</t>
+  </si>
+  <si>
+    <t>Get POE ID</t>
+  </si>
+  <si>
+    <t>POE id retrieved</t>
+  </si>
+  <si>
+    <t>VerifyElementIsPresent</t>
+  </si>
+  <si>
+    <t>SUBMITTED_EXPENDITURES</t>
+  </si>
+  <si>
+    <t>Verify Submitted expenditures</t>
+  </si>
+  <si>
+    <t>Verified</t>
+  </si>
+  <si>
+    <t>PATIENT_LOGOUT</t>
+  </si>
+  <si>
+    <t>Click on logout</t>
+  </si>
+  <si>
+    <t>Logout successfully</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>GetUrl</t>
+  </si>
+  <si>
+    <t>ByName</t>
+  </si>
+  <si>
+    <t>NavigateToURL</t>
+  </si>
+  <si>
+    <t>ByOrName</t>
+  </si>
+  <si>
+    <t>WaitTime</t>
+  </si>
+  <si>
+    <t>ByLinkText</t>
+  </si>
+  <si>
+    <t>Maximize</t>
+  </si>
+  <si>
+    <t>ByTagName</t>
+  </si>
+  <si>
+    <t>ByClassName</t>
+  </si>
+  <si>
+    <t>ActionClick</t>
+  </si>
+  <si>
+    <t>ByCssSelector</t>
+  </si>
+  <si>
     <t>JsClick</t>
   </si>
   <si>
+    <t>Normal Xpath</t>
+  </si>
+  <si>
+    <t>ByPartialLinkText</t>
+  </si>
+  <si>
+    <t>DoubleClick</t>
+  </si>
+  <si>
     <t>Xpath</t>
-  </si>
-  <si>
-    <t>AGREE_SUBMIT_BUTTON</t>
-  </si>
-  <si>
-    <t>Click on AGREE and Submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Button clicked </t>
-  </si>
-  <si>
-    <t>Wait for popup</t>
-  </si>
-  <si>
-    <t>Popup loaded</t>
-  </si>
-  <si>
-    <t>PATIENT_AGREE_CHECKBOX</t>
-  </si>
-  <si>
-    <t>Check agree box</t>
-  </si>
-  <si>
-    <t>Agree box checked</t>
-  </si>
-  <si>
-    <t>AGREE_BUTTON</t>
-  </si>
-  <si>
-    <t>Click Agree button</t>
-  </si>
-  <si>
-    <t>Agree button clicked</t>
-  </si>
-  <si>
-    <t>E_SIGNATURE</t>
-  </si>
-  <si>
-    <t>sign</t>
-  </si>
-  <si>
-    <t>Enter Signature</t>
-  </si>
-  <si>
-    <t>Signature entered</t>
-  </si>
-  <si>
-    <t>E_SIGNATURE_NAME</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Enter Name</t>
-  </si>
-  <si>
-    <t>Name entered</t>
-  </si>
-  <si>
-    <t>E_SIGNATURE_PHONE</t>
-  </si>
-  <si>
-    <t>SIGN_SUBMIT</t>
-  </si>
-  <si>
-    <t>Click Sign and submit button</t>
-  </si>
-  <si>
-    <t>Sign and submit button clicked</t>
-  </si>
-  <si>
-    <t>GetText</t>
-  </si>
-  <si>
-    <t>SUBMIT_PATIENT_NAME</t>
-  </si>
-  <si>
-    <t>Get Patient Name</t>
-  </si>
-  <si>
-    <t>Retrieved succussfully</t>
-  </si>
-  <si>
-    <t>SUBMIT_FUND_NAME</t>
-  </si>
-  <si>
-    <t>Get Fund Name</t>
-  </si>
-  <si>
-    <t>SUBMIT_AWARD_PERIOD_FROM</t>
-  </si>
-  <si>
-    <t>Get award period from</t>
-  </si>
-  <si>
-    <t>SUBMIT_AWARD_PERIOD_TO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get award period to </t>
-  </si>
-  <si>
-    <t>SUBMIT_CARDHOLDER</t>
-  </si>
-  <si>
-    <t>Get cardholder</t>
-  </si>
-  <si>
-    <t>SUBMIT_BIN</t>
-  </si>
-  <si>
-    <t>Get BIN</t>
-  </si>
-  <si>
-    <t>SUBMIT_PCN</t>
-  </si>
-  <si>
-    <t>Get PCN</t>
-  </si>
-  <si>
-    <t>SUBMIT_GROUP</t>
-  </si>
-  <si>
-    <t>Get group</t>
-  </si>
-  <si>
-    <t>RETURN_HOME</t>
-  </si>
-  <si>
-    <t>Click on return home</t>
-  </si>
-  <si>
-    <t>Return home clicked</t>
-  </si>
-  <si>
-    <t>HOME_ACTIONS</t>
-  </si>
-  <si>
-    <t>Click on Actions</t>
-  </si>
-  <si>
-    <t>Actions clicked</t>
-  </si>
-  <si>
-    <t>ACTION_PROVIDER_UPLOAD_DOCS</t>
-  </si>
-  <si>
-    <t>Click on View Correspondence/Upload Document</t>
-  </si>
-  <si>
-    <t>Clicked View Correspondence/Upload Document</t>
-  </si>
-  <si>
-    <t>UPLOAD_DOCUMENTS_BUTTON</t>
-  </si>
-  <si>
-    <t>Click on Upload button</t>
-  </si>
-  <si>
-    <t>Uplod document button clicked</t>
-  </si>
-  <si>
-    <t>UDPLOAD_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>_Desc</t>
-  </si>
-  <si>
-    <t>Type Description</t>
-  </si>
-  <si>
-    <t>Description entered</t>
-  </si>
-  <si>
-    <t>UPLOAD_SELECT_CATEGORY</t>
-  </si>
-  <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>Select File</t>
-  </si>
-  <si>
-    <t>File selected</t>
-  </si>
-  <si>
-    <t>TypeUpload</t>
-  </si>
-  <si>
-    <t>UPLOAD_FILE</t>
-  </si>
-  <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <t>Upload a file</t>
-  </si>
-  <si>
-    <t>File uploaded</t>
-  </si>
-  <si>
-    <t>Click Submit button</t>
-  </si>
-  <si>
-    <t>Submit button clicked</t>
-  </si>
-  <si>
-    <t>AlertOk</t>
-  </si>
-  <si>
-    <t>BACK_BUTTON</t>
-  </si>
-  <si>
-    <t>Click back button</t>
-  </si>
-  <si>
-    <t>Back button clicked</t>
-  </si>
-  <si>
-    <t>PROVIDER_EXPENDITURE</t>
-  </si>
-  <si>
-    <t>Click on Expenditure</t>
-  </si>
-  <si>
-    <t>Clicked Expenditure</t>
-  </si>
-  <si>
-    <t>CREATE_EXPENDITURE</t>
-  </si>
-  <si>
-    <t>Click Create expenditure</t>
-  </si>
-  <si>
-    <t>Create Expenditure clicked</t>
-  </si>
-  <si>
-    <t>EXPE_TYPE_OF_SERVICE</t>
-  </si>
-  <si>
-    <t>con</t>
-  </si>
-  <si>
-    <t>Type search type of service</t>
-  </si>
-  <si>
-    <t>Type of service entered</t>
-  </si>
-  <si>
-    <t>Select type of service</t>
-  </si>
-  <si>
-    <t>Type of service selected</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_FROM</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_FROM_DATE</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_TO</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_TO_DATE</t>
-  </si>
-  <si>
-    <t>EXPE_AMOUNT_SUBMITTED</t>
-  </si>
-  <si>
-    <t>EXPE_NEXT_BUTTON</t>
-  </si>
-  <si>
-    <t>EXPE_SIGN_SUBMIT</t>
-  </si>
-  <si>
-    <t>EXPE_ELECTRONIC_SIGN</t>
-  </si>
-  <si>
-    <t>Click ok to Pcase alert</t>
-  </si>
-  <si>
-    <t>Pcase alert clicked</t>
-  </si>
-  <si>
-    <t>POE_ID</t>
-  </si>
-  <si>
-    <t>Get POE ID</t>
-  </si>
-  <si>
-    <t>POE id retrieved</t>
-  </si>
-  <si>
-    <t>VerifyElementIsPresent</t>
-  </si>
-  <si>
-    <t>SUBMITTED_EXPENDITURES</t>
-  </si>
-  <si>
-    <t>Verify Submitted expenditures</t>
-  </si>
-  <si>
-    <t>Verified</t>
-  </si>
-  <si>
-    <t>PATIENT_LOGOUT</t>
-  </si>
-  <si>
-    <t>Click on logout</t>
-  </si>
-  <si>
-    <t>Logout successfully</t>
-  </si>
-  <si>
-    <t>Actions</t>
-  </si>
-  <si>
-    <t>GetUrl</t>
-  </si>
-  <si>
-    <t>ByName</t>
-  </si>
-  <si>
-    <t>NavigateToURL</t>
-  </si>
-  <si>
-    <t>ByOrName</t>
-  </si>
-  <si>
-    <t>WaitTime</t>
-  </si>
-  <si>
-    <t>ByLinkText</t>
-  </si>
-  <si>
-    <t>Maximize</t>
-  </si>
-  <si>
-    <t>ByTagName</t>
-  </si>
-  <si>
-    <t>ByClassName</t>
-  </si>
-  <si>
-    <t>ActionClick</t>
-  </si>
-  <si>
-    <t>ByCssSelector</t>
-  </si>
-  <si>
-    <t>Normal Xpath</t>
-  </si>
-  <si>
-    <t>ByPartialLinkText</t>
-  </si>
-  <si>
-    <t>DoubleClick</t>
   </si>
   <si>
     <t>ClickAt</t>
@@ -1319,8 +1319,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1366,8 +1372,152 @@
       <name val="Helvetica"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1382,12 +1532,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
-        <bgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor theme="4" tint="0.799951170384838"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1397,29 +1733,29 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39985351115451523"/>
+        <color theme="4" tint="0.399853511154515"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.39985351115451523"/>
+        <color theme="4" tint="0.399853511154515"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.39985351115451523"/>
+        <color theme="4" tint="0.399853511154515"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39985351115451523"/>
+        <color theme="4" tint="0.399853511154515"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1427,31 +1763,273 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1475,10 +2053,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1489,7 +2114,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Xpath"/>
@@ -1504,7 +2129,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1519,7 +2144,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1534,7 +2159,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1549,7 +2174,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1833,29 +2458,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H176"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="87.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="33.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="8.57142857142857" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.2857142857143" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.42857142857143" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.1428571428571" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.4285714285714" style="4" customWidth="1"/>
+    <col min="6" max="6" width="87.7142857142857" style="4" customWidth="1"/>
+    <col min="7" max="7" width="33.2857142857143" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.7142857142857" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.85714285714286" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3943,20 +4568,20 @@
         <v>96</v>
       </c>
       <c r="B97" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D97" s="19" t="s">
         <v>226</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="D97" s="19" t="s">
-        <v>228</v>
       </c>
       <c r="E97" s="10"/>
       <c r="F97" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H97" s="15"/>
     </row>
@@ -3973,550 +4598,552 @@
         <v>3</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H98" s="16"/>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" s="4" customFormat="1" spans="1:8">
       <c r="A99" s="9">
-        <v>98</v>
-      </c>
-      <c r="B99" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B99" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C99" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D99" s="10" t="s">
-        <v>233</v>
+      <c r="D99" s="19" t="s">
+        <v>226</v>
       </c>
       <c r="E99" s="10"/>
       <c r="F99" s="10" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="H99" s="15"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" s="4" customFormat="1" spans="1:8">
       <c r="A100" s="7">
-        <v>99</v>
-      </c>
-      <c r="B100" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="E100" s="8"/>
+        <v>97</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8">
+        <v>3</v>
+      </c>
       <c r="F100" s="8" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="H100" s="16"/>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="9">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10">
-        <v>2</v>
-      </c>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>233</v>
+      </c>
       <c r="H101" s="15"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="7">
-        <v>101</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>23</v>
+        <v>99</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>240</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="E102" s="8"/>
       <c r="F102" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H102" s="16"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="9">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="E103" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="F103" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="G103" s="10" t="s">
-        <v>246</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10">
+        <v>2</v>
+      </c>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
       <c r="H103" s="15"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="7">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="E104" s="8">
-        <v>9889656446</v>
+        <v>237</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>144</v>
+        <v>239</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>145</v>
+        <v>240</v>
       </c>
       <c r="H104" s="16"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="9">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C105" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="E105" s="10"/>
+        <v>241</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>242</v>
+      </c>
       <c r="F105" s="10" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H105" s="15"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="7">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="E106" s="8">
-        <v>4</v>
+        <v>9889656446</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="H106" s="16"/>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="9">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>251</v>
+        <v>19</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E107" s="10"/>
       <c r="F107" s="10" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H107" s="15"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="7">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="E108" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8">
+        <v>4</v>
+      </c>
       <c r="F108" s="8" t="s">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>254</v>
+        <v>91</v>
       </c>
       <c r="H108" s="16"/>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="9">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C109" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="10" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H109" s="15"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="7">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E110" s="8"/>
       <c r="F110" s="8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H110" s="16"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="9">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C111" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E111" s="10"/>
       <c r="F111" s="10" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H111" s="15"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="7">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E112" s="8"/>
       <c r="F112" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H112" s="16"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="9">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C113" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E113" s="10"/>
       <c r="F113" s="10" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H113" s="15"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="7">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E114" s="8"/>
       <c r="F114" s="8" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H114" s="16"/>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="9">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>19</v>
+        <v>249</v>
       </c>
       <c r="C115" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E115" s="10"/>
       <c r="F115" s="10" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="H115" s="15"/>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="7">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8">
-        <v>5</v>
-      </c>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
+        <v>249</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>252</v>
+      </c>
       <c r="H116" s="16"/>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="9">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D117" s="12" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>267</v>
       </c>
       <c r="E117" s="10"/>
-      <c r="F117" s="10"/>
-      <c r="G117" s="10"/>
-      <c r="H117" s="15">
-        <v>3</v>
-      </c>
+      <c r="F117" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="G117" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="H117" s="15"/>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="7">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G118" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8">
+        <v>5</v>
+      </c>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
       <c r="H118" s="16"/>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="9">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C119" s="10"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="10">
-        <v>1</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E119" s="10"/>
       <c r="F119" s="10"/>
       <c r="G119" s="10"/>
-      <c r="H119" s="15"/>
+      <c r="H119" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="7">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E120" s="8"/>
       <c r="F120" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H120" s="16">
-        <v>5</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H120" s="16"/>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="9">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D121" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G121" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H121" s="15">
-        <v>6</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C121" s="10"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="10">
+        <v>1</v>
+      </c>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="15"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="7">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E122" s="8"/>
       <c r="F122" s="8" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H122" s="16"/>
+        <v>27</v>
+      </c>
+      <c r="H122" s="16">
+        <v>5</v>
+      </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="9">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="15"/>
+      <c r="F123" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G123" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H123" s="15">
+        <v>6</v>
+      </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="7">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>19</v>
@@ -4525,36 +5152,38 @@
         <v>32</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E124" s="8"/>
       <c r="F124" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H124" s="16"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="9">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="10">
-        <v>5</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E125" s="10"/>
       <c r="F125" s="10"/>
       <c r="G125" s="10"/>
       <c r="H125" s="15"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="7">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>19</v>
@@ -4563,208 +5192,212 @@
         <v>32</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>272</v>
+        <v>37</v>
       </c>
       <c r="E126" s="8"/>
       <c r="F126" s="8" t="s">
-        <v>273</v>
+        <v>38</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="H126" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="H126" s="16"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="9">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D127" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="G127" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="H127" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10">
+        <v>5</v>
+      </c>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="15"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="7">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8">
-        <v>20</v>
-      </c>
-      <c r="F128" s="8"/>
-      <c r="G128" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>272</v>
+      </c>
       <c r="H128" s="8"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="9">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B129" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E129" s="10"/>
       <c r="F129" s="10" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H129" s="10"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="7">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D130" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="F130" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="G130" s="8" t="s">
-        <v>284</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8">
+        <v>20</v>
+      </c>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
       <c r="H130" s="8"/>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="9">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C131" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="E131" s="10" t="s">
-        <v>286</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="E131" s="10"/>
       <c r="F131" s="10" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="H131" s="10"/>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="7">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>289</v>
+        <v>23</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="H132" s="8"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="9">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C133" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E133" s="10"/>
+        <v>283</v>
+      </c>
+      <c r="E133" s="10" t="s">
+        <v>284</v>
+      </c>
       <c r="F133" s="10" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="H133" s="10"/>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="7">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8">
-        <v>10</v>
+        <v>287</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>13</v>
+        <v>291</v>
       </c>
       <c r="H134" s="8"/>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="9">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D135" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
+      <c r="F135" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="G135" s="10" t="s">
+        <v>293</v>
+      </c>
       <c r="H135" s="10"/>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="7">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>11</v>
@@ -4784,29 +5417,21 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="9">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C137" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D137" s="12" t="s">
-        <v>297</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
       <c r="E137" s="10"/>
-      <c r="F137" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="G137" s="10" t="s">
-        <v>299</v>
-      </c>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
       <c r="H137" s="10"/>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="7">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>11</v>
@@ -4814,161 +5439,163 @@
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
       <c r="E138" s="8">
-        <v>5</v>
-      </c>
-      <c r="F138" s="8"/>
-      <c r="G138" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="H138" s="8"/>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="9">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C139" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C139" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>16</v>
+        <v>295</v>
       </c>
       <c r="E139" s="10"/>
-      <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
-      <c r="H139" s="15">
-        <v>3</v>
-      </c>
+      <c r="F139" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="G139" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="H139" s="10"/>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="7">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D140" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G140" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H140" s="16"/>
+        <v>11</v>
+      </c>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8">
+        <v>5</v>
+      </c>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="9">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C141" s="10"/>
-      <c r="D141" s="12"/>
-      <c r="E141" s="10">
-        <v>1</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E141" s="10"/>
       <c r="F141" s="10"/>
       <c r="G141" s="10"/>
-      <c r="H141" s="15"/>
+      <c r="H141" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="7">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E142" s="8"/>
       <c r="F142" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H142" s="16">
-        <v>5</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H142" s="16"/>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="9">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D143" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E143" s="10"/>
-      <c r="F143" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G143" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H143" s="15">
-        <v>6</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C143" s="10"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="10">
+        <v>1</v>
+      </c>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="15"/>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="7">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E144" s="8"/>
       <c r="F144" s="8" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H144" s="16"/>
+        <v>27</v>
+      </c>
+      <c r="H144" s="16">
+        <v>5</v>
+      </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="9">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E145" s="10"/>
-      <c r="F145" s="10"/>
-      <c r="G145" s="10"/>
-      <c r="H145" s="15"/>
+      <c r="F145" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G145" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H145" s="15">
+        <v>6</v>
+      </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="7">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>19</v>
@@ -4977,36 +5604,38 @@
         <v>32</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E146" s="8"/>
       <c r="F146" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H146" s="16"/>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="9">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C147" s="10"/>
-      <c r="D147" s="10"/>
-      <c r="E147" s="10">
-        <v>5</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E147" s="10"/>
       <c r="F147" s="10"/>
       <c r="G147" s="10"/>
       <c r="H147" s="15"/>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="7">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>19</v>
@@ -5015,80 +5644,80 @@
         <v>32</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>272</v>
+        <v>37</v>
       </c>
       <c r="E148" s="8"/>
       <c r="F148" s="8" t="s">
-        <v>273</v>
+        <v>38</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="H148" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="H148" s="16"/>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="9">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D149" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="E149" s="10"/>
-      <c r="F149" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="G149" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="H149" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="10">
+        <v>5</v>
+      </c>
+      <c r="F149" s="10"/>
+      <c r="G149" s="10"/>
+      <c r="H149" s="15"/>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="7">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
-      <c r="E150" s="8">
-        <v>3</v>
-      </c>
-      <c r="F150" s="8"/>
-      <c r="G150" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G150" s="8" t="s">
+        <v>272</v>
+      </c>
       <c r="H150" s="8"/>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="9">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B151" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E151" s="10"/>
       <c r="F151" s="10" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G151" s="10" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H151" s="10"/>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="7">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>11</v>
@@ -5104,37 +5733,35 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="9">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C153" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="E153" s="10" t="s">
-        <v>307</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="E153" s="10"/>
       <c r="F153" s="10" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G153" s="10" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H153" s="10"/>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="7">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C154" s="8"/>
-      <c r="D154" s="11"/>
+      <c r="D154" s="8"/>
       <c r="E154" s="8">
         <v>3</v>
       </c>
@@ -5144,65 +5771,65 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="9">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C155" s="10"/>
-      <c r="D155" s="12"/>
-      <c r="E155" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D155" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="E155" s="10" t="s">
+        <v>305</v>
+      </c>
       <c r="F155" s="10" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G155" s="10" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H155" s="10"/>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="7">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D156" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="E156" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="C156" s="8"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="8">
+        <v>3</v>
+      </c>
       <c r="F156" s="8"/>
       <c r="G156" s="8"/>
       <c r="H156" s="8"/>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="9">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D157" s="12" t="s">
-        <v>313</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C157" s="10"/>
+      <c r="D157" s="12"/>
       <c r="E157" s="10"/>
       <c r="F157" s="10" t="s">
-        <v>176</v>
+        <v>308</v>
       </c>
       <c r="G157" s="10" t="s">
-        <v>177</v>
+        <v>309</v>
       </c>
       <c r="H157" s="10"/>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="7">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>19</v>
@@ -5211,7 +5838,7 @@
         <v>32</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E158" s="8"/>
       <c r="F158" s="8"/>
@@ -5220,7 +5847,7 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="9">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B159" s="10" t="s">
         <v>19</v>
@@ -5229,7 +5856,7 @@
         <v>32</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E159" s="10"/>
       <c r="F159" s="10" t="s">
@@ -5242,27 +5869,25 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="7">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C160" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="E160" s="8">
-        <v>200</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="E160" s="8"/>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="9">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B161" s="10" t="s">
         <v>19</v>
@@ -5271,28 +5896,32 @@
         <v>32</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E161" s="10"/>
       <c r="F161" s="10" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="G161" s="10" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="H161" s="10"/>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="7">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C162" s="8"/>
-      <c r="D162" s="11"/>
+        <v>47</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>314</v>
+      </c>
       <c r="E162" s="8">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="F162" s="8"/>
       <c r="G162" s="8"/>
@@ -5300,89 +5929,89 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="9">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="E163" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="F163" s="10"/>
-      <c r="G163" s="10"/>
+        <v>315</v>
+      </c>
+      <c r="E163" s="10"/>
+      <c r="F163" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G163" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="H163" s="10"/>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="7">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C164" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D164" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="E164" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="F164" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="G164" s="8" t="s">
-        <v>293</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C164" s="8"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="8">
+        <v>3</v>
+      </c>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8"/>
       <c r="H164" s="8"/>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="9">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="E165" s="10"/>
-      <c r="F165" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G165" s="10" t="s">
-        <v>91</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="E165" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="F165" s="10"/>
+      <c r="G165" s="10"/>
       <c r="H165" s="10"/>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="7">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C166" s="8"/>
-      <c r="D166" s="11"/>
-      <c r="E166" s="8">
-        <v>2</v>
-      </c>
-      <c r="F166" s="8"/>
-      <c r="G166" s="8"/>
+        <v>287</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="F166" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="G166" s="8" t="s">
+        <v>291</v>
+      </c>
       <c r="H166" s="8"/>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="9">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B167" s="10" t="s">
         <v>19</v>
@@ -5391,28 +6020,28 @@
         <v>32</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E167" s="10"/>
-      <c r="F167" s="10"/>
-      <c r="G167" s="10"/>
+      <c r="F167" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G167" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="H167" s="10"/>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="7">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C168" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D168" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="E168" s="8" t="s">
-        <v>97</v>
+        <v>11</v>
+      </c>
+      <c r="C168" s="8"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="8">
+        <v>2</v>
       </c>
       <c r="F168" s="8"/>
       <c r="G168" s="8"/>
@@ -5420,7 +6049,7 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="9">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B169" s="10" t="s">
         <v>19</v>
@@ -5429,7 +6058,7 @@
         <v>32</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E169" s="10"/>
       <c r="F169" s="10"/>
@@ -5438,15 +6067,19 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="7">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C170" s="8"/>
-      <c r="D170" s="11"/>
-      <c r="E170" s="8">
-        <v>10</v>
+        <v>23</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="F170" s="8"/>
       <c r="G170" s="8"/>
@@ -5454,25 +6087,25 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="9">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="C171" s="10"/>
-      <c r="D171" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D171" s="12" t="s">
+        <v>316</v>
+      </c>
       <c r="E171" s="10"/>
-      <c r="F171" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="G171" s="10" t="s">
-        <v>321</v>
-      </c>
+      <c r="F171" s="10"/>
+      <c r="G171" s="10"/>
       <c r="H171" s="10"/>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="7">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B172" s="8" t="s">
         <v>11</v>
@@ -5488,288 +6121,305 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="9">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D173" s="12" t="s">
-        <v>322</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="C173" s="10"/>
+      <c r="D173" s="12"/>
       <c r="E173" s="10"/>
       <c r="F173" s="10" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G173" s="10" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H173" s="10"/>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="7">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="C174" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D174" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="E174" s="8"/>
-      <c r="F174" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="G174" s="8" t="s">
-        <v>328</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C174" s="8"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="8">
+        <v>10</v>
+      </c>
+      <c r="F174" s="8"/>
+      <c r="G174" s="8"/>
       <c r="H174" s="8"/>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="9">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>19</v>
+        <v>249</v>
       </c>
       <c r="C175" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="E175" s="10"/>
       <c r="F175" s="10" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="G175" s="10" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H175" s="10"/>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="7">
+        <v>173</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D176" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E176" s="8"/>
+      <c r="F176" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="G176" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="H176" s="8"/>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="9">
+        <v>174</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D177" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="E177" s="10"/>
+      <c r="F177" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="G177" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="H177" s="10"/>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="7">
         <v>175</v>
       </c>
-      <c r="B176" s="8" t="s">
+      <c r="B178" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C176" s="8"/>
-      <c r="D176" s="8"/>
-      <c r="E176" s="8">
+      <c r="C178" s="8"/>
+      <c r="D178" s="8"/>
+      <c r="E178" s="8">
         <v>4</v>
       </c>
-      <c r="F176" s="8"/>
-      <c r="G176" s="8"/>
-      <c r="H176" s="8"/>
+      <c r="F178" s="8"/>
+      <c r="G178" s="8"/>
+      <c r="H178" s="8"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B7 C9 C11 C15 C123 C125 C145 C147 B1:B5 B8:B96 B98:B99 B101:B148 B175:B176 C2:C7 C117:C121 C139:C143"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>[1]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B7 C9 C11 C15 B98 B100 B101 C125 C127 C147 C149 B1:B5 B8:B96 B103:B150 B177:B178 C2:C7 C119:C123 C141:C145">
+      <formula1/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10 C124 C126 C146 C148 C12:C14 C16:C26">
+      <formula1>[2]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45 C57 C80 C27:C33">
+      <formula1>[3]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C77">
+      <formula1>[4]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B151:B154 B155:B176">
+      <formula1>[5]DataList!#REF!</formula1>
+    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]DataList!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C1</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[2]DataList!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C8 C10 C122 C124 C144 C146 C12:C14 C16:C26</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[3]DataList!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C45 C57 C80 C27:C33</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[4]DataList!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C77</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[5]DataList!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B149:B152 B153:B174</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="52.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="13.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>334</v>
-      </c>
-      <c r="C3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>336</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C6" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>338</v>
-      </c>
-      <c r="C6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>340</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
         <v>345</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>346</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>227</v>
       </c>
       <c r="C11" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="3:3">
       <c r="C12" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="3:3">
       <c r="C13" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="3:3">
       <c r="C14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="3:3">
       <c r="C15" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="3:3">
       <c r="C16" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="3:3">
       <c r="C17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="19" spans="3:4">
+    <row r="19" spans="3:3">
       <c r="C19" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" spans="3:3">
       <c r="C20" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
       <c r="C22" t="s">
         <v>355</v>
       </c>
@@ -5779,50 +6429,50 @@
         <v>356</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
       <c r="C24" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="25" spans="3:4">
+    <row r="25" spans="3:3">
       <c r="C25" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="26" spans="3:4">
+    <row r="26" spans="3:3">
       <c r="C26" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="27" spans="3:4">
+    <row r="27" spans="3:3">
       <c r="C27" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="28" spans="3:4">
+    <row r="28" spans="3:3">
       <c r="C28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="3:4">
+    <row r="29" spans="3:3">
       <c r="C29" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="30" spans="3:4">
+    <row r="30" spans="3:3">
       <c r="C30" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="31" spans="3:4">
+    <row r="31" spans="3:3">
       <c r="C31" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="32" spans="3:4">
+    <row r="32" spans="3:3">
       <c r="C32" t="s">
         <v>364</v>
       </c>
@@ -5869,7 +6519,7 @@
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="3:3">
@@ -5987,32 +6637,32 @@
         <v>394</v>
       </c>
     </row>
-    <row r="65" spans="3:4">
+    <row r="65" spans="3:3">
       <c r="C65" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="66" spans="3:4">
+    <row r="66" spans="3:3">
       <c r="C66" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="67" spans="3:4">
+    <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
       <c r="C68" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="69" spans="3:4">
+    <row r="69" spans="3:3">
       <c r="C69" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="70" spans="3:4">
+    <row r="70" spans="3:3">
       <c r="C70" t="s">
         <v>399</v>
       </c>
@@ -6022,10 +6672,10 @@
         <v>400</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="72" spans="3:4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
       <c r="C72" t="s">
         <v>401</v>
       </c>
@@ -6035,25 +6685,25 @@
         <v>402</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="74" spans="3:4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
       <c r="C74" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="75" spans="3:4">
+    <row r="75" spans="3:3">
       <c r="C75" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="76" spans="3:4">
+    <row r="76" spans="3:3">
       <c r="C76" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="77" spans="3:4">
+    <row r="77" spans="3:3">
       <c r="C77" t="s">
         <v>406</v>
       </c>
@@ -6063,7 +6713,7 @@
         <v>407</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="79" spans="3:4">
@@ -6071,10 +6721,10 @@
         <v>408</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="80" spans="3:4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
       <c r="C80" t="s">
         <v>409</v>
       </c>
@@ -6161,7 +6811,7 @@
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -6190,8 +6840,9 @@
       <formula1>$A$2:$A$12</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>

--- a/QA/testcases/Pharmacy/Phar_Patient_App_Create_PCase_Positive-OK.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_Create_PCase_Positive-OK.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429">
   <si>
     <t>Step No</t>
   </si>
@@ -80,766 +80,769 @@
     <t>ByID</t>
   </si>
   <si>
+    <t>SSN_FIELD</t>
+  </si>
+  <si>
+    <t>Enter SSN</t>
+  </si>
+  <si>
+    <t>SSN entered</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>NAME_DOB_LINK</t>
+  </si>
+  <si>
+    <t>Click on DOB link</t>
+  </si>
+  <si>
+    <t>DOB link clicked</t>
+  </si>
+  <si>
+    <t>TypeDynamicValue</t>
+  </si>
+  <si>
+    <t>FIRST_NAME_FIELD</t>
+  </si>
+  <si>
+    <t>_Fname</t>
+  </si>
+  <si>
+    <t>Enter First name</t>
+  </si>
+  <si>
+    <t>First name entered</t>
+  </si>
+  <si>
+    <t>LAST_NAME_FIELD</t>
+  </si>
+  <si>
+    <t>_Lname</t>
+  </si>
+  <si>
+    <t>Enter last name</t>
+  </si>
+  <si>
+    <t>Last name entered</t>
+  </si>
+  <si>
+    <t>ByXPath</t>
+  </si>
+  <si>
+    <t>DOB_FIELD</t>
+  </si>
+  <si>
+    <t>Click on DOB field</t>
+  </si>
+  <si>
+    <t>Clicked</t>
+  </si>
+  <si>
+    <t>DOB_DATEPICKER</t>
+  </si>
+  <si>
+    <t>SEARCH_BUTTON_LINK</t>
+  </si>
+  <si>
+    <t>Click on search button</t>
+  </si>
+  <si>
+    <t>Search button clicked</t>
+  </si>
+  <si>
+    <t>SEARCH_PATIENT_NEW</t>
+  </si>
+  <si>
+    <t>CREATE_APP_LINK</t>
+  </si>
+  <si>
+    <t>SelectByVisibleText</t>
+  </si>
+  <si>
+    <t>PATIENT_FUND_NAME</t>
+  </si>
+  <si>
+    <t>Breast Cancer Silo*</t>
+  </si>
+  <si>
+    <t>Enter fund name</t>
+  </si>
+  <si>
+    <t>Fund name entered</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>NUM_OF_PEOPLE</t>
+  </si>
+  <si>
+    <t>Enter no of peoples</t>
+  </si>
+  <si>
+    <t>No of Peoples entered</t>
+  </si>
+  <si>
+    <t>HOUSEHOLD_INCOME</t>
+  </si>
+  <si>
+    <t>Enter household income</t>
+  </si>
+  <si>
+    <t>House income entered</t>
+  </si>
+  <si>
+    <t>DIAGNOSIS_LABEL1_YES</t>
+  </si>
+  <si>
+    <t>Click Yes</t>
+  </si>
+  <si>
+    <t>Clicked Yes</t>
+  </si>
+  <si>
+    <t>TREATMENT_LEBEL_YES</t>
+  </si>
+  <si>
+    <t>TERRITORY_LEBEL_YES</t>
+  </si>
+  <si>
+    <t>REG_ZIP_CODE</t>
+  </si>
+  <si>
+    <t>Enter Zipcode</t>
+  </si>
+  <si>
+    <t>Zipcode entered</t>
+  </si>
+  <si>
+    <t>SUBMIT_BUTTON</t>
+  </si>
+  <si>
+    <t>Click Submit</t>
+  </si>
+  <si>
+    <t>Submitted button clicked</t>
+  </si>
+  <si>
+    <t>Wait for page to load</t>
+  </si>
+  <si>
+    <t>PATIENT_MIDDLE_NAME</t>
+  </si>
+  <si>
+    <t>_Mname</t>
+  </si>
+  <si>
+    <t>APP_GENDER</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Select Gender</t>
+  </si>
+  <si>
+    <t>Gender selected</t>
+  </si>
+  <si>
+    <t>APP_ETHNICITY</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Select Ethnicity</t>
+  </si>
+  <si>
+    <t>Ethnicity selected</t>
+  </si>
+  <si>
+    <t>APP_VETERAN</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Select Veteran</t>
+  </si>
+  <si>
+    <t>Veteran selected</t>
+  </si>
+  <si>
+    <t>APP_EMP_STATUS</t>
+  </si>
+  <si>
+    <t>Employed</t>
+  </si>
+  <si>
+    <t>Select Employment status</t>
+  </si>
+  <si>
+    <t>Employment status selected</t>
+  </si>
+  <si>
+    <t>APP_MARITAL_STATUS</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Select Marital Status</t>
+  </si>
+  <si>
+    <t>Marital Status selected</t>
+  </si>
+  <si>
+    <t>Are you residing in the United States or a United States territory?</t>
+  </si>
+  <si>
+    <t>NEXT_BUTTON</t>
+  </si>
+  <si>
+    <t>Click on next button</t>
+  </si>
+  <si>
+    <t>Next page navigated successfully</t>
+  </si>
+  <si>
+    <t>APP_ADDRESS_TYPE</t>
+  </si>
+  <si>
+    <t>Mailing</t>
+  </si>
+  <si>
+    <t>Select Address Type</t>
+  </si>
+  <si>
+    <t>Address Type seleceted</t>
+  </si>
+  <si>
+    <t>CONTACT_ADDRESS_LINE1</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Enter Add1</t>
+  </si>
+  <si>
+    <t>add 1 entered</t>
+  </si>
+  <si>
+    <t>CONTACT_ADDRESS_LINE2</t>
+  </si>
+  <si>
+    <t>Enter Add2</t>
+  </si>
+  <si>
+    <t>add 2 entered</t>
+  </si>
+  <si>
+    <t>CONTACT_STATE</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Select state</t>
+  </si>
+  <si>
+    <t>State selected</t>
+  </si>
+  <si>
+    <t>CONTACT_CITY</t>
+  </si>
+  <si>
+    <t>Sacramento</t>
+  </si>
+  <si>
+    <t>Enter CIty</t>
+  </si>
+  <si>
+    <t>City entered</t>
+  </si>
+  <si>
+    <t>CONTACT_ZIPCODE</t>
+  </si>
+  <si>
+    <t>APP_COUNTRY</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Enter Country</t>
+  </si>
+  <si>
+    <t>Coutry entered</t>
+  </si>
+  <si>
+    <t>CONTACT_PHONE_TYPE</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>CONTACT_PNONE_NUMBER</t>
+  </si>
+  <si>
+    <t>CONTACT_SEQUENCE</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>APP_AUTHORIZE_PERSON</t>
+  </si>
+  <si>
+    <t>APP_AUTHORIZE_FNAME</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Enter First  name</t>
+  </si>
+  <si>
+    <t>APP_AUTHORIZE_LNAME</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Enter Last name</t>
+  </si>
+  <si>
+    <t>APP_AUTHO_RELATIONSHIP</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Select Relationship</t>
+  </si>
+  <si>
+    <t>Relationship selected</t>
+  </si>
+  <si>
+    <t>APP_AUTHO_ADDRESS1</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Address </t>
+  </si>
+  <si>
+    <t>Address entered</t>
+  </si>
+  <si>
+    <t>APP_AUTHO_STATE</t>
+  </si>
+  <si>
+    <t>Select State</t>
+  </si>
+  <si>
+    <t>APP_AUTHO_CITY</t>
+  </si>
+  <si>
+    <t>Enter City</t>
+  </si>
+  <si>
+    <t>APP_AUTHO_ZIP</t>
+  </si>
+  <si>
+    <t>Enter Zip</t>
+  </si>
+  <si>
+    <t>Zip entered</t>
+  </si>
+  <si>
+    <t>APP_AUTHO_PHONE</t>
+  </si>
+  <si>
+    <t>Enter Phone number</t>
+  </si>
+  <si>
+    <t>Phone number entered</t>
+  </si>
+  <si>
+    <t>APP_AUTHO_EMAIL</t>
+  </si>
+  <si>
+    <t>@mail.in</t>
+  </si>
+  <si>
+    <t>Enter email</t>
+  </si>
+  <si>
+    <t>Email entered</t>
+  </si>
+  <si>
+    <t>APP_PRI_INSURANCE</t>
+  </si>
+  <si>
+    <t>Conseco</t>
+  </si>
+  <si>
+    <t>Enter Insurance name</t>
+  </si>
+  <si>
+    <t>Insurance entered</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>Select Insurance type</t>
+  </si>
+  <si>
+    <t>Insurance selected</t>
+  </si>
+  <si>
+    <t>APP_PLANTYPE</t>
+  </si>
+  <si>
+    <t>EPO</t>
+  </si>
+  <si>
+    <t>Select Plan type</t>
+  </si>
+  <si>
+    <t>Plan type selected</t>
+  </si>
+  <si>
+    <t>APP_INS_NUMBER</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Enter Policy number</t>
+  </si>
+  <si>
+    <t>Policy number entered</t>
+  </si>
+  <si>
+    <t>APP_INS_TYPE</t>
+  </si>
+  <si>
+    <t>Medicare</t>
+  </si>
+  <si>
+    <t>Insurance type selected</t>
+  </si>
+  <si>
+    <t>APP_SUBS_NAME</t>
+  </si>
+  <si>
+    <t>Enter Subscriber name</t>
+  </si>
+  <si>
+    <t>Subscriber name entered</t>
+  </si>
+  <si>
+    <t>APP_GROUP_NAME</t>
+  </si>
+  <si>
+    <t>Enter Group name</t>
+  </si>
+  <si>
+    <t>Group name entered</t>
+  </si>
+  <si>
+    <t>APP_SUBS_DOB</t>
+  </si>
+  <si>
+    <t>APP_SUBS_DOB_DATE</t>
+  </si>
+  <si>
+    <t>Select Date</t>
+  </si>
+  <si>
+    <t>Date selected</t>
+  </si>
+  <si>
+    <t>APP_PRIM_TEL</t>
+  </si>
+  <si>
+    <t>Enter Primary Phone number</t>
+  </si>
+  <si>
+    <t>Primary phone number entered</t>
+  </si>
+  <si>
+    <t>APP_PRESCRI_DRUG</t>
+  </si>
+  <si>
+    <t>Click No for Does this plan cover prescription drugs at the pharmacy and provider office?</t>
+  </si>
+  <si>
+    <t>Yes clicked</t>
+  </si>
+  <si>
+    <t>APP_MEDI_SERVICE</t>
+  </si>
+  <si>
+    <t>Co-Pay or Coinsurance for medical services:</t>
+  </si>
+  <si>
+    <t>Entered</t>
+  </si>
+  <si>
+    <t>APP_PHARMACY_BENEFITS</t>
+  </si>
+  <si>
+    <t>Co-Pay or Coinsurance for pharmacy benefits:</t>
+  </si>
+  <si>
+    <t>APP_MEDICARE_PART_NO</t>
+  </si>
+  <si>
+    <t>Do you have Medicare Part D?</t>
+  </si>
+  <si>
+    <t>APP_MEDICARE_SUPP_NO</t>
+  </si>
+  <si>
+    <t>Does the patient have a Medicare Supplement?</t>
+  </si>
+  <si>
+    <t>No clicked</t>
+  </si>
+  <si>
+    <t>APP_SEC_INSURANCE_NO</t>
+  </si>
+  <si>
+    <t>Do you have Secondary Insurance?</t>
+  </si>
+  <si>
+    <t>APP_COBRA _EFFECT_NO</t>
+  </si>
+  <si>
+    <t>Is insurance coverage continuation under COBRA in effect?</t>
+  </si>
+  <si>
+    <t>PHYSICIAN_CHECKBOX</t>
+  </si>
+  <si>
+    <t>PRIMAY_DIAGNOSIS</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Type Primary Diagnosis</t>
+  </si>
+  <si>
+    <t>Primary Diagnosis entered</t>
+  </si>
+  <si>
+    <t>Select Primary Diagnosis</t>
+  </si>
+  <si>
+    <t>Primary Diagnosis selected</t>
+  </si>
+  <si>
+    <t>DATE_OF_DIAGNOSIS</t>
+  </si>
+  <si>
+    <t>Select Diagnosis date</t>
+  </si>
+  <si>
+    <t>Diagnosis date selected</t>
+  </si>
+  <si>
+    <t>MEDICATION_NAME</t>
+  </si>
+  <si>
+    <t>Con</t>
+  </si>
+  <si>
+    <t>Type Medication name</t>
+  </si>
+  <si>
+    <t>Medication name entered</t>
+  </si>
+  <si>
+    <t>Select Medication name</t>
+  </si>
+  <si>
+    <t>Medication name selected</t>
+  </si>
+  <si>
+    <t>DOSAGE</t>
+  </si>
+  <si>
+    <t>TestDosage</t>
+  </si>
+  <si>
+    <t>Enter Dosage</t>
+  </si>
+  <si>
+    <t>Dosage entered</t>
+  </si>
+  <si>
+    <t>FREQUENCY</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Enter frequency</t>
+  </si>
+  <si>
+    <t>Frequency entered</t>
+  </si>
+  <si>
+    <t>SELF_LASTPAGE</t>
+  </si>
+  <si>
+    <t>Check Self</t>
+  </si>
+  <si>
+    <t>Self checked</t>
+  </si>
+  <si>
+    <t>AGREE_CHECKBOX_STEP7</t>
+  </si>
+  <si>
+    <t>AGREE_SUBMIT_BUTTON</t>
+  </si>
+  <si>
+    <t>Click on AGREE and Submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Button clicked </t>
+  </si>
+  <si>
+    <t>Wait for popup</t>
+  </si>
+  <si>
+    <t>Popup loaded</t>
+  </si>
+  <si>
+    <t>PATIENT_AGREE_CHECKBOX</t>
+  </si>
+  <si>
+    <t>Check agree box</t>
+  </si>
+  <si>
+    <t>Agree box checked</t>
+  </si>
+  <si>
+    <t>AGREE_BUTTON</t>
+  </si>
+  <si>
+    <t>Click Agree button</t>
+  </si>
+  <si>
+    <t>Agree button clicked</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>Enter Signature</t>
+  </si>
+  <si>
+    <t>Signature entered</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE_NAME</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Enter Name</t>
+  </si>
+  <si>
+    <t>Name entered</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE_PHONE</t>
+  </si>
+  <si>
+    <t>SIGN_SUBMIT</t>
+  </si>
+  <si>
+    <t>Click Sign and submit button</t>
+  </si>
+  <si>
+    <t>Sign and submit button clicked</t>
+  </si>
+  <si>
+    <t>GetText</t>
+  </si>
+  <si>
+    <t>SUBMIT_PATIENT_NAME</t>
+  </si>
+  <si>
+    <t>Get Patient Name</t>
+  </si>
+  <si>
+    <t>Retrieved succussfully</t>
+  </si>
+  <si>
+    <t>SUBMIT_FUND_NAME</t>
+  </si>
+  <si>
+    <t>Get Fund Name</t>
+  </si>
+  <si>
+    <t>SUBMIT_AWARD_PERIOD_FROM</t>
+  </si>
+  <si>
+    <t>Get award period from</t>
+  </si>
+  <si>
+    <t>SUBMIT_AWARD_PERIOD_TO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get award period to </t>
+  </si>
+  <si>
+    <t>SUBMIT_CARDHOLDER</t>
+  </si>
+  <si>
+    <t>Get cardholder</t>
+  </si>
+  <si>
+    <t>SUBMIT_BIN</t>
+  </si>
+  <si>
+    <t>Get BIN</t>
+  </si>
+  <si>
+    <t>SUBMIT_PCN</t>
+  </si>
+  <si>
+    <t>Get PCN</t>
+  </si>
+  <si>
+    <t>SUBMIT_GROUP</t>
+  </si>
+  <si>
+    <t>Get group</t>
+  </si>
+  <si>
+    <t>RETURN_HOME</t>
+  </si>
+  <si>
+    <t>Click on return home</t>
+  </si>
+  <si>
+    <t>Return home clicked</t>
+  </si>
+  <si>
     <t>SSN_TEXT_FIELD</t>
-  </si>
-  <si>
-    <t>Enter SSN</t>
-  </si>
-  <si>
-    <t>SSN entered</t>
-  </si>
-  <si>
-    <t>Click</t>
-  </si>
-  <si>
-    <t>NAME_DOB_LINK</t>
-  </si>
-  <si>
-    <t>Click on DOB link</t>
-  </si>
-  <si>
-    <t>DOB link clicked</t>
-  </si>
-  <si>
-    <t>TypeDynamicValue</t>
-  </si>
-  <si>
-    <t>FIRST_NAME_FIELD</t>
-  </si>
-  <si>
-    <t>_Fname</t>
-  </si>
-  <si>
-    <t>Enter First name</t>
-  </si>
-  <si>
-    <t>First name entered</t>
-  </si>
-  <si>
-    <t>LAST_NAME_FIELD</t>
-  </si>
-  <si>
-    <t>_Lname</t>
-  </si>
-  <si>
-    <t>Enter last name</t>
-  </si>
-  <si>
-    <t>Last name entered</t>
-  </si>
-  <si>
-    <t>ByXPath</t>
-  </si>
-  <si>
-    <t>DOB_FIELD</t>
-  </si>
-  <si>
-    <t>Click on DOB field</t>
-  </si>
-  <si>
-    <t>Clicked</t>
-  </si>
-  <si>
-    <t>DOB_DATEPICKER</t>
-  </si>
-  <si>
-    <t>SEARCH_BUTTON_LINK</t>
-  </si>
-  <si>
-    <t>Click on search button</t>
-  </si>
-  <si>
-    <t>Search button clicked</t>
-  </si>
-  <si>
-    <t>SEARCH_PATIENT_NEW</t>
-  </si>
-  <si>
-    <t>CREATE_APP_LINK</t>
-  </si>
-  <si>
-    <t>SelectByVisibleText</t>
-  </si>
-  <si>
-    <t>PATIENT_FUND_NAME</t>
-  </si>
-  <si>
-    <t>Breast Cancer Silo*</t>
-  </si>
-  <si>
-    <t>Enter fund name</t>
-  </si>
-  <si>
-    <t>Fund name entered</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>NUM_OF_PEOPLE</t>
-  </si>
-  <si>
-    <t>Enter no of peoples</t>
-  </si>
-  <si>
-    <t>No of Peoples entered</t>
-  </si>
-  <si>
-    <t>HOUSEHOLD_INCOME</t>
-  </si>
-  <si>
-    <t>Enter household income</t>
-  </si>
-  <si>
-    <t>House income entered</t>
-  </si>
-  <si>
-    <t>DIAGNOSIS_LABEL1_YES</t>
-  </si>
-  <si>
-    <t>Click Yes</t>
-  </si>
-  <si>
-    <t>Clicked Yes</t>
-  </si>
-  <si>
-    <t>TREATMENT_LEBEL_YES</t>
-  </si>
-  <si>
-    <t>TERRITORY_LEBEL_YES</t>
-  </si>
-  <si>
-    <t>REG_ZIP_CODE</t>
-  </si>
-  <si>
-    <t>Enter Zipcode</t>
-  </si>
-  <si>
-    <t>Zipcode entered</t>
-  </si>
-  <si>
-    <t>SUBMIT_BUTTON</t>
-  </si>
-  <si>
-    <t>Click Submit</t>
-  </si>
-  <si>
-    <t>Submitted button clicked</t>
-  </si>
-  <si>
-    <t>Wait for page to load</t>
-  </si>
-  <si>
-    <t>PATIENT_MIDDLE_NAME</t>
-  </si>
-  <si>
-    <t>_Mname</t>
-  </si>
-  <si>
-    <t>APP_GENDER</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Select Gender</t>
-  </si>
-  <si>
-    <t>Gender selected</t>
-  </si>
-  <si>
-    <t>APP_ETHNICITY</t>
-  </si>
-  <si>
-    <t>Asian</t>
-  </si>
-  <si>
-    <t>Select Ethnicity</t>
-  </si>
-  <si>
-    <t>Ethnicity selected</t>
-  </si>
-  <si>
-    <t>APP_VETERAN</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Select Veteran</t>
-  </si>
-  <si>
-    <t>Veteran selected</t>
-  </si>
-  <si>
-    <t>APP_EMP_STATUS</t>
-  </si>
-  <si>
-    <t>Employed</t>
-  </si>
-  <si>
-    <t>Select Employment status</t>
-  </si>
-  <si>
-    <t>Employment status selected</t>
-  </si>
-  <si>
-    <t>APP_MARITAL_STATUS</t>
-  </si>
-  <si>
-    <t>Married</t>
-  </si>
-  <si>
-    <t>Select Marital Status</t>
-  </si>
-  <si>
-    <t>Marital Status selected</t>
-  </si>
-  <si>
-    <t>Are you residing in the United States or a United States territory?</t>
-  </si>
-  <si>
-    <t>NEXT_BUTTON</t>
-  </si>
-  <si>
-    <t>Click on next button</t>
-  </si>
-  <si>
-    <t>Next page navigated successfully</t>
-  </si>
-  <si>
-    <t>APP_ADDRESS_TYPE</t>
-  </si>
-  <si>
-    <t>Mailing</t>
-  </si>
-  <si>
-    <t>Select Address Type</t>
-  </si>
-  <si>
-    <t>Address Type seleceted</t>
-  </si>
-  <si>
-    <t>CONTACT_ADDRESS_LINE1</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Enter Add1</t>
-  </si>
-  <si>
-    <t>add 1 entered</t>
-  </si>
-  <si>
-    <t>CONTACT_ADDRESS_LINE2</t>
-  </si>
-  <si>
-    <t>Enter Add2</t>
-  </si>
-  <si>
-    <t>add 2 entered</t>
-  </si>
-  <si>
-    <t>CONTACT_STATE</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Select state</t>
-  </si>
-  <si>
-    <t>State selected</t>
-  </si>
-  <si>
-    <t>CONTACT_CITY</t>
-  </si>
-  <si>
-    <t>Sacramento</t>
-  </si>
-  <si>
-    <t>Enter CIty</t>
-  </si>
-  <si>
-    <t>City entered</t>
-  </si>
-  <si>
-    <t>CONTACT_ZIPCODE</t>
-  </si>
-  <si>
-    <t>APP_COUNTRY</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Enter Country</t>
-  </si>
-  <si>
-    <t>Coutry entered</t>
-  </si>
-  <si>
-    <t>CONTACT_PHONE_TYPE</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>CONTACT_PNONE_NUMBER</t>
-  </si>
-  <si>
-    <t>CONTACT_SEQUENCE</t>
-  </si>
-  <si>
-    <t>primary</t>
-  </si>
-  <si>
-    <t>APP_AUTHORIZE_PERSON</t>
-  </si>
-  <si>
-    <t>APP_AUTHORIZE_FNAME</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Enter First  name</t>
-  </si>
-  <si>
-    <t>APP_AUTHORIZE_LNAME</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>Enter Last name</t>
-  </si>
-  <si>
-    <t>APP_AUTHO_RELATIONSHIP</t>
-  </si>
-  <si>
-    <t>Family</t>
-  </si>
-  <si>
-    <t>Select Relationship</t>
-  </si>
-  <si>
-    <t>Relationship selected</t>
-  </si>
-  <si>
-    <t>APP_AUTHO_ADDRESS1</t>
-  </si>
-  <si>
-    <t>Street</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter Address </t>
-  </si>
-  <si>
-    <t>Address entered</t>
-  </si>
-  <si>
-    <t>APP_AUTHO_STATE</t>
-  </si>
-  <si>
-    <t>Select State</t>
-  </si>
-  <si>
-    <t>APP_AUTHO_CITY</t>
-  </si>
-  <si>
-    <t>Enter City</t>
-  </si>
-  <si>
-    <t>APP_AUTHO_ZIP</t>
-  </si>
-  <si>
-    <t>Enter Zip</t>
-  </si>
-  <si>
-    <t>Zip entered</t>
-  </si>
-  <si>
-    <t>APP_AUTHO_PHONE</t>
-  </si>
-  <si>
-    <t>Enter Phone number</t>
-  </si>
-  <si>
-    <t>Phone number entered</t>
-  </si>
-  <si>
-    <t>APP_AUTHO_EMAIL</t>
-  </si>
-  <si>
-    <t>@mail.in</t>
-  </si>
-  <si>
-    <t>Enter email</t>
-  </si>
-  <si>
-    <t>Email entered</t>
-  </si>
-  <si>
-    <t>APP_PRI_INSURANCE</t>
-  </si>
-  <si>
-    <t>Conseco</t>
-  </si>
-  <si>
-    <t>Enter Insurance name</t>
-  </si>
-  <si>
-    <t>Insurance entered</t>
-  </si>
-  <si>
-    <t>Enter</t>
-  </si>
-  <si>
-    <t>Select Insurance type</t>
-  </si>
-  <si>
-    <t>Insurance selected</t>
-  </si>
-  <si>
-    <t>APP_PLANTYPE</t>
-  </si>
-  <si>
-    <t>EPO</t>
-  </si>
-  <si>
-    <t>Select Plan type</t>
-  </si>
-  <si>
-    <t>Plan type selected</t>
-  </si>
-  <si>
-    <t>APP_INS_NUMBER</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Enter Policy number</t>
-  </si>
-  <si>
-    <t>Policy number entered</t>
-  </si>
-  <si>
-    <t>APP_INS_TYPE</t>
-  </si>
-  <si>
-    <t>Medicare</t>
-  </si>
-  <si>
-    <t>Insurance type selected</t>
-  </si>
-  <si>
-    <t>APP_SUBS_NAME</t>
-  </si>
-  <si>
-    <t>Enter Subscriber name</t>
-  </si>
-  <si>
-    <t>Subscriber name entered</t>
-  </si>
-  <si>
-    <t>APP_GROUP_NAME</t>
-  </si>
-  <si>
-    <t>Enter Group name</t>
-  </si>
-  <si>
-    <t>Group name entered</t>
-  </si>
-  <si>
-    <t>APP_SUBS_DOB</t>
-  </si>
-  <si>
-    <t>APP_SUBS_DOB_DATE</t>
-  </si>
-  <si>
-    <t>Select Date</t>
-  </si>
-  <si>
-    <t>Date selected</t>
-  </si>
-  <si>
-    <t>APP_PRIM_TEL</t>
-  </si>
-  <si>
-    <t>Enter Primary Phone number</t>
-  </si>
-  <si>
-    <t>Primary phone number entered</t>
-  </si>
-  <si>
-    <t>APP_PRESCRI_DRUG</t>
-  </si>
-  <si>
-    <t>Click No for Does this plan cover prescription drugs at the pharmacy and provider office?</t>
-  </si>
-  <si>
-    <t>Yes clicked</t>
-  </si>
-  <si>
-    <t>APP_MEDI_SERVICE</t>
-  </si>
-  <si>
-    <t>Co-Pay or Coinsurance for medical services:</t>
-  </si>
-  <si>
-    <t>Entered</t>
-  </si>
-  <si>
-    <t>APP_PHARMACY_BENEFITS</t>
-  </si>
-  <si>
-    <t>Co-Pay or Coinsurance for pharmacy benefits:</t>
-  </si>
-  <si>
-    <t>APP_MEDICARE_PART_NO</t>
-  </si>
-  <si>
-    <t>Do you have Medicare Part D?</t>
-  </si>
-  <si>
-    <t>APP_MEDICARE_SUPP_NO</t>
-  </si>
-  <si>
-    <t>Does the patient have a Medicare Supplement?</t>
-  </si>
-  <si>
-    <t>No clicked</t>
-  </si>
-  <si>
-    <t>APP_SEC_INSURANCE_NO</t>
-  </si>
-  <si>
-    <t>Do you have Secondary Insurance?</t>
-  </si>
-  <si>
-    <t>APP_COBRA _EFFECT_NO</t>
-  </si>
-  <si>
-    <t>Is insurance coverage continuation under COBRA in effect?</t>
-  </si>
-  <si>
-    <t>PHYSICIAN_CHECKBOX</t>
-  </si>
-  <si>
-    <t>PRIMAY_DIAGNOSIS</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Type Primary Diagnosis</t>
-  </si>
-  <si>
-    <t>Primary Diagnosis entered</t>
-  </si>
-  <si>
-    <t>Select Primary Diagnosis</t>
-  </si>
-  <si>
-    <t>Primary Diagnosis selected</t>
-  </si>
-  <si>
-    <t>DATE_OF_DIAGNOSIS</t>
-  </si>
-  <si>
-    <t>Select Diagnosis date</t>
-  </si>
-  <si>
-    <t>Diagnosis date selected</t>
-  </si>
-  <si>
-    <t>MEDICATION_NAME</t>
-  </si>
-  <si>
-    <t>Con</t>
-  </si>
-  <si>
-    <t>Type Medication name</t>
-  </si>
-  <si>
-    <t>Medication name entered</t>
-  </si>
-  <si>
-    <t>Select Medication name</t>
-  </si>
-  <si>
-    <t>Medication name selected</t>
-  </si>
-  <si>
-    <t>DOSAGE</t>
-  </si>
-  <si>
-    <t>TestDosage</t>
-  </si>
-  <si>
-    <t>Enter Dosage</t>
-  </si>
-  <si>
-    <t>Dosage entered</t>
-  </si>
-  <si>
-    <t>FREQUENCY</t>
-  </si>
-  <si>
-    <t>Daily</t>
-  </si>
-  <si>
-    <t>Enter frequency</t>
-  </si>
-  <si>
-    <t>Frequency entered</t>
-  </si>
-  <si>
-    <t>SELF_LASTPAGE</t>
-  </si>
-  <si>
-    <t>Check Self</t>
-  </si>
-  <si>
-    <t>Self checked</t>
-  </si>
-  <si>
-    <t>AGREE_CHECKBOX_STEP7</t>
-  </si>
-  <si>
-    <t>AGREE_SUBMIT_BUTTON</t>
-  </si>
-  <si>
-    <t>Click on AGREE and Submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Button clicked </t>
-  </si>
-  <si>
-    <t>Wait for popup</t>
-  </si>
-  <si>
-    <t>Popup loaded</t>
-  </si>
-  <si>
-    <t>PATIENT_AGREE_CHECKBOX</t>
-  </si>
-  <si>
-    <t>Check agree box</t>
-  </si>
-  <si>
-    <t>Agree box checked</t>
-  </si>
-  <si>
-    <t>AGREE_BUTTON</t>
-  </si>
-  <si>
-    <t>Click Agree button</t>
-  </si>
-  <si>
-    <t>Agree button clicked</t>
-  </si>
-  <si>
-    <t>E_SIGNATURE</t>
-  </si>
-  <si>
-    <t>sign</t>
-  </si>
-  <si>
-    <t>Enter Signature</t>
-  </si>
-  <si>
-    <t>Signature entered</t>
-  </si>
-  <si>
-    <t>E_SIGNATURE_NAME</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Enter Name</t>
-  </si>
-  <si>
-    <t>Name entered</t>
-  </si>
-  <si>
-    <t>E_SIGNATURE_PHONE</t>
-  </si>
-  <si>
-    <t>SIGN_SUBMIT</t>
-  </si>
-  <si>
-    <t>Click Sign and submit button</t>
-  </si>
-  <si>
-    <t>Sign and submit button clicked</t>
-  </si>
-  <si>
-    <t>GetText</t>
-  </si>
-  <si>
-    <t>SUBMIT_PATIENT_NAME</t>
-  </si>
-  <si>
-    <t>Get Patient Name</t>
-  </si>
-  <si>
-    <t>Retrieved succussfully</t>
-  </si>
-  <si>
-    <t>SUBMIT_FUND_NAME</t>
-  </si>
-  <si>
-    <t>Get Fund Name</t>
-  </si>
-  <si>
-    <t>SUBMIT_AWARD_PERIOD_FROM</t>
-  </si>
-  <si>
-    <t>Get award period from</t>
-  </si>
-  <si>
-    <t>SUBMIT_AWARD_PERIOD_TO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get award period to </t>
-  </si>
-  <si>
-    <t>SUBMIT_CARDHOLDER</t>
-  </si>
-  <si>
-    <t>Get cardholder</t>
-  </si>
-  <si>
-    <t>SUBMIT_BIN</t>
-  </si>
-  <si>
-    <t>Get BIN</t>
-  </si>
-  <si>
-    <t>SUBMIT_PCN</t>
-  </si>
-  <si>
-    <t>Get PCN</t>
-  </si>
-  <si>
-    <t>SUBMIT_GROUP</t>
-  </si>
-  <si>
-    <t>Get group</t>
-  </si>
-  <si>
-    <t>RETURN_HOME</t>
-  </si>
-  <si>
-    <t>Click on return home</t>
-  </si>
-  <si>
-    <t>Return home clicked</t>
   </si>
   <si>
     <t>HOME_ACTIONS</t>
@@ -1322,9 +1325,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1373,55 +1376,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1436,31 +1399,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1473,8 +1422,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1490,7 +1463,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1504,14 +1507,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1538,7 +1541,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1550,43 +1613,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1598,31 +1655,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1634,7 +1697,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1646,79 +1721,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1795,15 +1798,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1820,16 +1814,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1859,34 +1864,32 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1904,130 +1907,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2043,8 +2046,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2466,8 +2469,8 @@
   <sheetPr/>
   <dimension ref="A1:H178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2557,7 +2560,7 @@
       <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="8"/>
@@ -2579,7 +2582,7 @@
       <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="10"/>
@@ -2601,7 +2604,7 @@
       <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -2625,7 +2628,7 @@
       <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -2649,7 +2652,7 @@
       <c r="C8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="8"/>
@@ -2671,7 +2674,7 @@
       <c r="C9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="10"/>
@@ -2689,7 +2692,7 @@
       <c r="C10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E10" s="8"/>
@@ -2727,7 +2730,7 @@
       <c r="C12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="8"/>
@@ -2743,7 +2746,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="10">
         <v>4</v>
       </c>
@@ -2761,7 +2764,7 @@
       <c r="C14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="8"/>
@@ -2795,7 +2798,7 @@
       <c r="C16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E16" s="13" t="s">
@@ -2817,7 +2820,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="12"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="14">
         <v>2</v>
       </c>
@@ -2835,7 +2838,7 @@
       <c r="C18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E18" s="8">
@@ -2859,7 +2862,7 @@
       <c r="C19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="11" t="s">
         <v>51</v>
       </c>
       <c r="E19" s="10">
@@ -2883,7 +2886,7 @@
       <c r="C20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E20" s="8"/>
@@ -2905,7 +2908,7 @@
       <c r="C21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E21" s="10"/>
@@ -2927,7 +2930,7 @@
       <c r="C22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="12" t="s">
         <v>58</v>
       </c>
       <c r="E22" s="8"/>
@@ -2949,7 +2952,7 @@
       <c r="C23" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>59</v>
       </c>
       <c r="E23" s="10">
@@ -3015,7 +3018,7 @@
       <c r="C26" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="12" t="s">
         <v>66</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -3765,7 +3768,7 @@
       <c r="C59" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="11" t="s">
         <v>150</v>
       </c>
       <c r="E59" s="10" t="s">
@@ -3787,7 +3790,7 @@
         <v>11</v>
       </c>
       <c r="C60" s="8"/>
-      <c r="D60" s="11"/>
+      <c r="D60" s="12"/>
       <c r="E60" s="8">
         <v>2</v>
       </c>
@@ -3803,7 +3806,7 @@
         <v>154</v>
       </c>
       <c r="C61" s="10"/>
-      <c r="D61" s="12"/>
+      <c r="D61" s="11"/>
       <c r="E61" s="10"/>
       <c r="F61" s="10" t="s">
         <v>155</v>
@@ -3823,7 +3826,7 @@
       <c r="C62" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="12" t="s">
         <v>157</v>
       </c>
       <c r="E62" s="8" t="s">
@@ -3847,7 +3850,7 @@
       <c r="C63" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" s="11" t="s">
         <v>161</v>
       </c>
       <c r="E63" s="10" t="s">
@@ -3871,7 +3874,7 @@
       <c r="C64" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="12" t="s">
         <v>165</v>
       </c>
       <c r="E64" s="8" t="s">
@@ -3895,7 +3898,7 @@
       <c r="C65" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="D65" s="11" t="s">
         <v>168</v>
       </c>
       <c r="E65" s="10" t="s">
@@ -3919,7 +3922,7 @@
       <c r="C66" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="D66" s="12" t="s">
         <v>171</v>
       </c>
       <c r="E66" s="8">
@@ -3943,7 +3946,7 @@
       <c r="C67" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" s="11" t="s">
         <v>174</v>
       </c>
       <c r="E67" s="10"/>
@@ -3961,7 +3964,7 @@
       <c r="C68" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="12" t="s">
         <v>175</v>
       </c>
       <c r="E68" s="8"/>
@@ -3983,7 +3986,7 @@
       <c r="C69" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D69" s="11" t="s">
         <v>178</v>
       </c>
       <c r="E69" s="10">
@@ -4007,7 +4010,7 @@
       <c r="C70" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="12" t="s">
         <v>181</v>
       </c>
       <c r="E70" s="8"/>
@@ -4029,7 +4032,7 @@
       <c r="C71" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="12" t="s">
+      <c r="D71" s="11" t="s">
         <v>184</v>
       </c>
       <c r="E71" s="10">
@@ -4053,7 +4056,7 @@
       <c r="C72" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="D72" s="12" t="s">
         <v>187</v>
       </c>
       <c r="E72" s="8">
@@ -4077,7 +4080,7 @@
       <c r="C73" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D73" s="12" t="s">
+      <c r="D73" s="11" t="s">
         <v>189</v>
       </c>
       <c r="E73" s="10"/>
@@ -4099,7 +4102,7 @@
       <c r="C74" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="12" t="s">
         <v>191</v>
       </c>
       <c r="E74" s="8"/>
@@ -4121,7 +4124,7 @@
       <c r="C75" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="12" t="s">
+      <c r="D75" s="11" t="s">
         <v>194</v>
       </c>
       <c r="E75" s="10"/>
@@ -4143,7 +4146,7 @@
       <c r="C76" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="D76" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E76" s="8"/>
@@ -4165,7 +4168,7 @@
       <c r="C77" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D77" s="12" t="s">
+      <c r="D77" s="11" t="s">
         <v>89</v>
       </c>
       <c r="E77" s="10"/>
@@ -4521,7 +4524,7 @@
         <v>11</v>
       </c>
       <c r="C94" s="8"/>
-      <c r="D94" s="11"/>
+      <c r="D94" s="12"/>
       <c r="E94" s="8">
         <v>1</v>
       </c>
@@ -4539,7 +4542,7 @@
       <c r="C95" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D95" s="12" t="s">
+      <c r="D95" s="11" t="s">
         <v>225</v>
       </c>
       <c r="E95" s="10"/>
@@ -4555,7 +4558,7 @@
         <v>11</v>
       </c>
       <c r="C96" s="8"/>
-      <c r="D96" s="11"/>
+      <c r="D96" s="12"/>
       <c r="E96" s="8">
         <v>1</v>
       </c>
@@ -5045,8 +5048,8 @@
       <c r="C119" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D119" s="12" t="s">
-        <v>16</v>
+      <c r="D119" s="11" t="s">
+        <v>270</v>
       </c>
       <c r="E119" s="10"/>
       <c r="F119" s="10"/>
@@ -5065,7 +5068,7 @@
       <c r="C120" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D120" s="11" t="s">
+      <c r="D120" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E120" s="8"/>
@@ -5085,7 +5088,7 @@
         <v>11</v>
       </c>
       <c r="C121" s="10"/>
-      <c r="D121" s="12"/>
+      <c r="D121" s="11"/>
       <c r="E121" s="10">
         <v>1</v>
       </c>
@@ -5103,7 +5106,7 @@
       <c r="C122" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D122" s="11" t="s">
+      <c r="D122" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E122" s="8"/>
@@ -5127,7 +5130,7 @@
       <c r="C123" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D123" s="12" t="s">
+      <c r="D123" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E123" s="10"/>
@@ -5151,7 +5154,7 @@
       <c r="C124" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D124" s="11" t="s">
+      <c r="D124" s="12" t="s">
         <v>33</v>
       </c>
       <c r="E124" s="8"/>
@@ -5173,7 +5176,7 @@
       <c r="C125" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D125" s="12" t="s">
+      <c r="D125" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E125" s="10"/>
@@ -5191,7 +5194,7 @@
       <c r="C126" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D126" s="11" t="s">
+      <c r="D126" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E126" s="8"/>
@@ -5229,15 +5232,15 @@
       <c r="C128" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D128" s="11" t="s">
-        <v>270</v>
+      <c r="D128" s="12" t="s">
+        <v>271</v>
       </c>
       <c r="E128" s="8"/>
       <c r="F128" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H128" s="8"/>
     </row>
@@ -5251,15 +5254,15 @@
       <c r="C129" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D129" s="12" t="s">
-        <v>273</v>
+      <c r="D129" s="11" t="s">
+        <v>274</v>
       </c>
       <c r="E129" s="10"/>
       <c r="F129" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H129" s="10"/>
     </row>
@@ -5289,15 +5292,15 @@
       <c r="C131" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D131" s="12" t="s">
-        <v>276</v>
+      <c r="D131" s="11" t="s">
+        <v>277</v>
       </c>
       <c r="E131" s="10"/>
       <c r="F131" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H131" s="10"/>
     </row>
@@ -5311,17 +5314,17 @@
       <c r="C132" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D132" s="11" t="s">
-        <v>279</v>
+      <c r="D132" s="12" t="s">
+        <v>280</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H132" s="8"/>
     </row>
@@ -5335,17 +5338,17 @@
       <c r="C133" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D133" s="12" t="s">
-        <v>283</v>
+      <c r="D133" s="11" t="s">
+        <v>284</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H133" s="10"/>
     </row>
@@ -5354,22 +5357,22 @@
         <v>131</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D134" s="11" t="s">
-        <v>288</v>
+      <c r="D134" s="12" t="s">
+        <v>289</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H134" s="8"/>
     </row>
@@ -5383,15 +5386,15 @@
       <c r="C135" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D135" s="12" t="s">
+      <c r="D135" s="11" t="s">
         <v>62</v>
       </c>
       <c r="E135" s="10"/>
       <c r="F135" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H135" s="10"/>
     </row>
@@ -5420,7 +5423,7 @@
         <v>134</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C137" s="10"/>
       <c r="D137" s="10"/>
@@ -5456,18 +5459,18 @@
       <c r="B139" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C139" s="12" t="s">
+      <c r="C139" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D139" s="12" t="s">
-        <v>295</v>
+      <c r="D139" s="11" t="s">
+        <v>296</v>
       </c>
       <c r="E139" s="10"/>
       <c r="F139" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H139" s="10"/>
     </row>
@@ -5497,8 +5500,8 @@
       <c r="C141" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D141" s="12" t="s">
-        <v>16</v>
+      <c r="D141" s="11" t="s">
+        <v>270</v>
       </c>
       <c r="E141" s="10"/>
       <c r="F141" s="10"/>
@@ -5517,7 +5520,7 @@
       <c r="C142" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D142" s="11" t="s">
+      <c r="D142" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E142" s="8"/>
@@ -5537,7 +5540,7 @@
         <v>11</v>
       </c>
       <c r="C143" s="10"/>
-      <c r="D143" s="12"/>
+      <c r="D143" s="11"/>
       <c r="E143" s="10">
         <v>1</v>
       </c>
@@ -5555,7 +5558,7 @@
       <c r="C144" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D144" s="11" t="s">
+      <c r="D144" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E144" s="8"/>
@@ -5579,7 +5582,7 @@
       <c r="C145" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D145" s="12" t="s">
+      <c r="D145" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E145" s="10"/>
@@ -5603,7 +5606,7 @@
       <c r="C146" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D146" s="11" t="s">
+      <c r="D146" s="12" t="s">
         <v>33</v>
       </c>
       <c r="E146" s="8"/>
@@ -5625,7 +5628,7 @@
       <c r="C147" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D147" s="12" t="s">
+      <c r="D147" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E147" s="10"/>
@@ -5643,7 +5646,7 @@
       <c r="C148" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D148" s="11" t="s">
+      <c r="D148" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E148" s="8"/>
@@ -5681,15 +5684,15 @@
       <c r="C150" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D150" s="11" t="s">
-        <v>270</v>
+      <c r="D150" s="12" t="s">
+        <v>271</v>
       </c>
       <c r="E150" s="8"/>
       <c r="F150" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H150" s="8"/>
     </row>
@@ -5703,15 +5706,15 @@
       <c r="C151" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D151" s="12" t="s">
-        <v>298</v>
+      <c r="D151" s="11" t="s">
+        <v>299</v>
       </c>
       <c r="E151" s="10"/>
       <c r="F151" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G151" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H151" s="10"/>
     </row>
@@ -5741,15 +5744,15 @@
       <c r="C153" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D153" s="12" t="s">
-        <v>301</v>
+      <c r="D153" s="11" t="s">
+        <v>302</v>
       </c>
       <c r="E153" s="10"/>
       <c r="F153" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G153" s="10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H153" s="10"/>
     </row>
@@ -5779,17 +5782,17 @@
       <c r="C155" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D155" s="12" t="s">
-        <v>304</v>
+      <c r="D155" s="11" t="s">
+        <v>305</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F155" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G155" s="10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H155" s="10"/>
     </row>
@@ -5801,7 +5804,7 @@
         <v>11</v>
       </c>
       <c r="C156" s="8"/>
-      <c r="D156" s="11"/>
+      <c r="D156" s="12"/>
       <c r="E156" s="8">
         <v>3</v>
       </c>
@@ -5817,13 +5820,13 @@
         <v>154</v>
       </c>
       <c r="C157" s="10"/>
-      <c r="D157" s="12"/>
+      <c r="D157" s="11"/>
       <c r="E157" s="10"/>
       <c r="F157" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G157" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H157" s="10"/>
     </row>
@@ -5837,8 +5840,8 @@
       <c r="C158" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D158" s="11" t="s">
-        <v>310</v>
+      <c r="D158" s="12" t="s">
+        <v>311</v>
       </c>
       <c r="E158" s="8"/>
       <c r="F158" s="8"/>
@@ -5855,8 +5858,8 @@
       <c r="C159" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D159" s="12" t="s">
-        <v>311</v>
+      <c r="D159" s="11" t="s">
+        <v>312</v>
       </c>
       <c r="E159" s="10"/>
       <c r="F159" s="10" t="s">
@@ -5877,8 +5880,8 @@
       <c r="C160" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D160" s="11" t="s">
-        <v>312</v>
+      <c r="D160" s="12" t="s">
+        <v>313</v>
       </c>
       <c r="E160" s="8"/>
       <c r="F160" s="8"/>
@@ -5895,8 +5898,8 @@
       <c r="C161" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D161" s="12" t="s">
-        <v>313</v>
+      <c r="D161" s="11" t="s">
+        <v>314</v>
       </c>
       <c r="E161" s="10"/>
       <c r="F161" s="10" t="s">
@@ -5917,8 +5920,8 @@
       <c r="C162" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D162" s="11" t="s">
-        <v>314</v>
+      <c r="D162" s="12" t="s">
+        <v>315</v>
       </c>
       <c r="E162" s="8">
         <v>200</v>
@@ -5937,8 +5940,8 @@
       <c r="C163" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D163" s="12" t="s">
-        <v>315</v>
+      <c r="D163" s="11" t="s">
+        <v>316</v>
       </c>
       <c r="E163" s="10"/>
       <c r="F163" s="10" t="s">
@@ -5957,7 +5960,7 @@
         <v>11</v>
       </c>
       <c r="C164" s="8"/>
-      <c r="D164" s="11"/>
+      <c r="D164" s="12"/>
       <c r="E164" s="8">
         <v>3</v>
       </c>
@@ -5975,11 +5978,11 @@
       <c r="C165" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D165" s="12" t="s">
-        <v>279</v>
+      <c r="D165" s="11" t="s">
+        <v>280</v>
       </c>
       <c r="E165" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F165" s="10"/>
       <c r="G165" s="10"/>
@@ -5990,22 +5993,22 @@
         <v>163</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D166" s="11" t="s">
-        <v>288</v>
+      <c r="D166" s="12" t="s">
+        <v>289</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H166" s="8"/>
     </row>
@@ -6019,8 +6022,8 @@
       <c r="C167" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D167" s="12" t="s">
-        <v>315</v>
+      <c r="D167" s="11" t="s">
+        <v>316</v>
       </c>
       <c r="E167" s="10"/>
       <c r="F167" s="10" t="s">
@@ -6039,7 +6042,7 @@
         <v>11</v>
       </c>
       <c r="C168" s="8"/>
-      <c r="D168" s="11"/>
+      <c r="D168" s="12"/>
       <c r="E168" s="8">
         <v>2</v>
       </c>
@@ -6057,8 +6060,8 @@
       <c r="C169" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D169" s="12" t="s">
-        <v>316</v>
+      <c r="D169" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="E169" s="10"/>
       <c r="F169" s="10"/>
@@ -6075,8 +6078,8 @@
       <c r="C170" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D170" s="11" t="s">
-        <v>317</v>
+      <c r="D170" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="E170" s="8" t="s">
         <v>97</v>
@@ -6095,8 +6098,8 @@
       <c r="C171" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D171" s="12" t="s">
-        <v>316</v>
+      <c r="D171" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
@@ -6111,7 +6114,7 @@
         <v>11</v>
       </c>
       <c r="C172" s="8"/>
-      <c r="D172" s="11"/>
+      <c r="D172" s="12"/>
       <c r="E172" s="8">
         <v>10</v>
       </c>
@@ -6124,16 +6127,16 @@
         <v>170</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C173" s="10"/>
-      <c r="D173" s="12"/>
+      <c r="D173" s="11"/>
       <c r="E173" s="10"/>
       <c r="F173" s="10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G173" s="10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H173" s="10"/>
     </row>
@@ -6145,7 +6148,7 @@
         <v>11</v>
       </c>
       <c r="C174" s="8"/>
-      <c r="D174" s="11"/>
+      <c r="D174" s="12"/>
       <c r="E174" s="8">
         <v>10</v>
       </c>
@@ -6163,15 +6166,15 @@
       <c r="C175" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D175" s="12" t="s">
-        <v>320</v>
+      <c r="D175" s="11" t="s">
+        <v>321</v>
       </c>
       <c r="E175" s="10"/>
       <c r="F175" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G175" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H175" s="10"/>
     </row>
@@ -6180,20 +6183,20 @@
         <v>173</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C176" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D176" s="11" t="s">
-        <v>324</v>
+      <c r="D176" s="12" t="s">
+        <v>325</v>
       </c>
       <c r="E176" s="8"/>
       <c r="F176" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G176" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H176" s="8"/>
     </row>
@@ -6207,15 +6210,15 @@
       <c r="C177" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D177" s="12" t="s">
-        <v>327</v>
+      <c r="D177" s="11" t="s">
+        <v>328</v>
       </c>
       <c r="E177" s="10"/>
       <c r="F177" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G177" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H177" s="10"/>
     </row>
@@ -6283,7 +6286,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6291,20 +6294,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -6315,20 +6318,20 @@
         <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -6336,47 +6339,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -6386,12 +6389,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -6401,17 +6404,17 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="3:3">
@@ -6421,35 +6424,35 @@
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -6459,152 +6462,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -6614,204 +6617,204 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -6826,12 +6829,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/Pharmacy/Phar_Patient_App_Create_PCase_Positive-OK.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_Create_PCase_Positive-OK.xlsx
@@ -16,6 +16,7 @@
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -92,144 +93,144 @@
     <t>Click</t>
   </si>
   <si>
-    <t>NAME_DOB_LINK</t>
-  </si>
-  <si>
-    <t>Click on DOB link</t>
-  </si>
-  <si>
-    <t>DOB link clicked</t>
+    <t>ByXPath</t>
+  </si>
+  <si>
+    <t>SEARCH_BUTTON_LINK</t>
+  </si>
+  <si>
+    <t>Click Search</t>
+  </si>
+  <si>
+    <t>Search button clicked</t>
+  </si>
+  <si>
+    <t>TypeDynamicAlpha</t>
+  </si>
+  <si>
+    <t>FIRST_NAME_FIELD</t>
+  </si>
+  <si>
+    <t>_Fname</t>
+  </si>
+  <si>
+    <t>Enter First name</t>
+  </si>
+  <si>
+    <t>First name entered</t>
+  </si>
+  <si>
+    <t>LAST_NAME_FIELD</t>
+  </si>
+  <si>
+    <t>_Lname</t>
+  </si>
+  <si>
+    <t>Enter last name</t>
+  </si>
+  <si>
+    <t>Last name entered</t>
+  </si>
+  <si>
+    <t>DOB_FIELD</t>
+  </si>
+  <si>
+    <t>Click on DOB field</t>
+  </si>
+  <si>
+    <t>Clicked</t>
+  </si>
+  <si>
+    <t>DOB_DATEPICKER</t>
+  </si>
+  <si>
+    <t>SEARCH_PATIENT_NEW</t>
+  </si>
+  <si>
+    <t>Click on search button</t>
+  </si>
+  <si>
+    <t>Wait for page to load</t>
+  </si>
+  <si>
+    <t>CREATE_APP_LINK</t>
+  </si>
+  <si>
+    <t>Click on create application</t>
+  </si>
+  <si>
+    <t>SelectByVisibleText</t>
+  </si>
+  <si>
+    <t>PATIENT_FUND_NAME</t>
+  </si>
+  <si>
+    <t>Breast Cancer Silo*</t>
+  </si>
+  <si>
+    <t>Enter fund name</t>
+  </si>
+  <si>
+    <t>Fund name entered</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>NUM_OF_PEOPLE</t>
+  </si>
+  <si>
+    <t>Enter no of peoples</t>
+  </si>
+  <si>
+    <t>No of Peoples entered</t>
+  </si>
+  <si>
+    <t>HOUSEHOLD_INCOME</t>
+  </si>
+  <si>
+    <t>Enter household income</t>
+  </si>
+  <si>
+    <t>House income entered</t>
+  </si>
+  <si>
+    <t>DIAGNOSIS_LABEL1_YES</t>
+  </si>
+  <si>
+    <t>Click Yes</t>
+  </si>
+  <si>
+    <t>Clicked Yes</t>
+  </si>
+  <si>
+    <t>TREATMENT_LEBEL_YES</t>
+  </si>
+  <si>
+    <t>TERRITORY_LEBEL_YES</t>
+  </si>
+  <si>
+    <t>REG_ZIP_CODE</t>
+  </si>
+  <si>
+    <t>Enter Zipcode</t>
+  </si>
+  <si>
+    <t>Zipcode entered</t>
+  </si>
+  <si>
+    <t>SUBMIT_BUTTON</t>
+  </si>
+  <si>
+    <t>Click Submit</t>
+  </si>
+  <si>
+    <t>Submitted button clicked</t>
   </si>
   <si>
     <t>TypeDynamicValue</t>
   </si>
   <si>
-    <t>FIRST_NAME_FIELD</t>
-  </si>
-  <si>
-    <t>_Fname</t>
-  </si>
-  <si>
-    <t>Enter First name</t>
-  </si>
-  <si>
-    <t>First name entered</t>
-  </si>
-  <si>
-    <t>LAST_NAME_FIELD</t>
-  </si>
-  <si>
-    <t>_Lname</t>
-  </si>
-  <si>
-    <t>Enter last name</t>
-  </si>
-  <si>
-    <t>Last name entered</t>
-  </si>
-  <si>
-    <t>ByXPath</t>
-  </si>
-  <si>
-    <t>DOB_FIELD</t>
-  </si>
-  <si>
-    <t>Click on DOB field</t>
-  </si>
-  <si>
-    <t>Clicked</t>
-  </si>
-  <si>
-    <t>DOB_DATEPICKER</t>
-  </si>
-  <si>
-    <t>SEARCH_BUTTON_LINK</t>
-  </si>
-  <si>
-    <t>Click on search button</t>
-  </si>
-  <si>
-    <t>Search button clicked</t>
-  </si>
-  <si>
-    <t>SEARCH_PATIENT_NEW</t>
-  </si>
-  <si>
-    <t>CREATE_APP_LINK</t>
-  </si>
-  <si>
-    <t>SelectByVisibleText</t>
-  </si>
-  <si>
-    <t>PATIENT_FUND_NAME</t>
-  </si>
-  <si>
-    <t>Breast Cancer Silo*</t>
-  </si>
-  <si>
-    <t>Enter fund name</t>
-  </si>
-  <si>
-    <t>Fund name entered</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>NUM_OF_PEOPLE</t>
-  </si>
-  <si>
-    <t>Enter no of peoples</t>
-  </si>
-  <si>
-    <t>No of Peoples entered</t>
-  </si>
-  <si>
-    <t>HOUSEHOLD_INCOME</t>
-  </si>
-  <si>
-    <t>Enter household income</t>
-  </si>
-  <si>
-    <t>House income entered</t>
-  </si>
-  <si>
-    <t>DIAGNOSIS_LABEL1_YES</t>
-  </si>
-  <si>
-    <t>Click Yes</t>
-  </si>
-  <si>
-    <t>Clicked Yes</t>
-  </si>
-  <si>
-    <t>TREATMENT_LEBEL_YES</t>
-  </si>
-  <si>
-    <t>TERRITORY_LEBEL_YES</t>
-  </si>
-  <si>
-    <t>REG_ZIP_CODE</t>
-  </si>
-  <si>
-    <t>Enter Zipcode</t>
-  </si>
-  <si>
-    <t>Zipcode entered</t>
-  </si>
-  <si>
-    <t>SUBMIT_BUTTON</t>
-  </si>
-  <si>
-    <t>Click Submit</t>
-  </si>
-  <si>
-    <t>Submitted button clicked</t>
-  </si>
-  <si>
-    <t>Wait for page to load</t>
-  </si>
-  <si>
     <t>PATIENT_MIDDLE_NAME</t>
   </si>
   <si>
@@ -842,91 +843,91 @@
     <t>Return home clicked</t>
   </si>
   <si>
+    <t>HOME_ACTIONS</t>
+  </si>
+  <si>
+    <t>Click on Actions</t>
+  </si>
+  <si>
+    <t>Actions clicked</t>
+  </si>
+  <si>
+    <t>ACTION_PROVIDER_UPLOAD_DOCS</t>
+  </si>
+  <si>
+    <t>Click on View Correspondence/Upload Document</t>
+  </si>
+  <si>
+    <t>Clicked View Correspondence/Upload Document</t>
+  </si>
+  <si>
+    <t>UPLOAD_DOCUMENTS_BUTTON</t>
+  </si>
+  <si>
+    <t>Click on Upload button</t>
+  </si>
+  <si>
+    <t>Uplod document button clicked</t>
+  </si>
+  <si>
+    <t>UDPLOAD_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>_Desc</t>
+  </si>
+  <si>
+    <t>Type Description</t>
+  </si>
+  <si>
+    <t>Description entered</t>
+  </si>
+  <si>
+    <t>UPLOAD_SELECT_CATEGORY</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Select File</t>
+  </si>
+  <si>
+    <t>File selected</t>
+  </si>
+  <si>
+    <t>TypeUpload</t>
+  </si>
+  <si>
+    <t>UPLOAD_FILE</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>Upload a file</t>
+  </si>
+  <si>
+    <t>File uploaded</t>
+  </si>
+  <si>
+    <t>Click Submit button</t>
+  </si>
+  <si>
+    <t>Submit button clicked</t>
+  </si>
+  <si>
+    <t>AlertOk</t>
+  </si>
+  <si>
+    <t>BACK_BUTTON</t>
+  </si>
+  <si>
+    <t>Click back button</t>
+  </si>
+  <si>
+    <t>Back button clicked</t>
+  </si>
+  <si>
     <t>SSN_TEXT_FIELD</t>
-  </si>
-  <si>
-    <t>HOME_ACTIONS</t>
-  </si>
-  <si>
-    <t>Click on Actions</t>
-  </si>
-  <si>
-    <t>Actions clicked</t>
-  </si>
-  <si>
-    <t>ACTION_PROVIDER_UPLOAD_DOCS</t>
-  </si>
-  <si>
-    <t>Click on View Correspondence/Upload Document</t>
-  </si>
-  <si>
-    <t>Clicked View Correspondence/Upload Document</t>
-  </si>
-  <si>
-    <t>UPLOAD_DOCUMENTS_BUTTON</t>
-  </si>
-  <si>
-    <t>Click on Upload button</t>
-  </si>
-  <si>
-    <t>Uplod document button clicked</t>
-  </si>
-  <si>
-    <t>UDPLOAD_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>_Desc</t>
-  </si>
-  <si>
-    <t>Type Description</t>
-  </si>
-  <si>
-    <t>Description entered</t>
-  </si>
-  <si>
-    <t>UPLOAD_SELECT_CATEGORY</t>
-  </si>
-  <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>Select File</t>
-  </si>
-  <si>
-    <t>File selected</t>
-  </si>
-  <si>
-    <t>TypeUpload</t>
-  </si>
-  <si>
-    <t>UPLOAD_FILE</t>
-  </si>
-  <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <t>Upload a file</t>
-  </si>
-  <si>
-    <t>File uploaded</t>
-  </si>
-  <si>
-    <t>Click Submit button</t>
-  </si>
-  <si>
-    <t>Submit button clicked</t>
-  </si>
-  <si>
-    <t>AlertOk</t>
-  </si>
-  <si>
-    <t>BACK_BUTTON</t>
-  </si>
-  <si>
-    <t>Click back button</t>
-  </si>
-  <si>
-    <t>Back button clicked</t>
   </si>
   <si>
     <t>PROVIDER_EXPENDITURE</t>
@@ -1324,10 +1325,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1377,7 +1378,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1407,6 +1415,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1430,48 +1498,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1484,43 +1520,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1541,13 +1542,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1559,127 +1566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1697,7 +1584,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1709,7 +1626,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1721,12 +1686,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1774,6 +1781,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="4" tint="0.399945066682943"/>
       </left>
@@ -1785,6 +1803,21 @@
       </top>
       <bottom style="thin">
         <color theme="4" tint="0.399945066682943"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1809,6 +1842,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1839,30 +1890,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1877,25 +1904,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1907,134 +1925,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2046,14 +2064,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2177,6 +2197,21 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="DataList"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2467,10 +2502,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H178"/>
+  <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2551,387 +2586,391 @@
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="7">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="9">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11">
+        <v>3</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="D7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12">
+        <v>4</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12">
+        <v>5</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="7">
+      <c r="G14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12">
+        <v>4</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="9">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="8" t="s">
+      <c r="F17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10">
-        <v>5</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="9">
-        <v>12</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="10">
-        <v>4</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="7">
+      <c r="G17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="9">
-        <v>14</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10">
-        <v>5</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="9">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="14">
-        <v>2</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="7">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16">
+        <v>2</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="12">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E20" s="8">
         <v>2</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="9">
-        <v>18</v>
-      </c>
-      <c r="B19" s="10" t="s">
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="C21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E21" s="10">
         <v>1000</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G21" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="7">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="9">
-        <v>20</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>56</v>
-      </c>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="7">
+      <c r="A22" s="12">
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>58</v>
+        <v>20</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8" t="s">
@@ -2943,421 +2982,417 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="9">
+      <c r="A23" s="11">
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="10">
-        <v>10001</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="10"/>
       <c r="F23" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="7">
+      <c r="A24" s="11">
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>62</v>
+        <v>20</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="12">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="10">
+        <v>10001</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G26" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="9">
-        <v>24</v>
-      </c>
-      <c r="B25" s="10" t="s">
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="12">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10">
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10">
         <v>5</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G25" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="7">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D28" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E28" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="9">
-        <v>26</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="7">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>75</v>
-      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="9">
+      <c r="A29" s="11">
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="7">
+      <c r="A30" s="12">
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="9">
+      <c r="A31" s="11">
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="12">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="B33" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E33" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F33" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G33" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="7">
-        <v>31</v>
-      </c>
-      <c r="B32" s="8" t="s">
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="8" t="s">
+      <c r="C34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8" t="s">
+      <c r="E34" s="8"/>
+      <c r="F34" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G34" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="9">
-        <v>32</v>
-      </c>
-      <c r="B33" s="10" t="s">
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="12">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D35" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10" t="s">
+      <c r="E35" s="10"/>
+      <c r="F35" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G35" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="7">
-        <v>33</v>
-      </c>
-      <c r="B34" s="8" t="s">
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="11">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8">
         <v>5</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F36" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="9">
-        <v>34</v>
-      </c>
-      <c r="B35" s="10" t="s">
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="12">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="10" t="s">
+      <c r="C37" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E37" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F37" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G37" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H35" s="15"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="7">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="8" t="s">
+      <c r="H37" s="17"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="11">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D38" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E38" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F38" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G38" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="H36" s="16"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="9">
-        <v>36</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H37" s="15"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="7">
-        <v>37</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H38" s="16"/>
+      <c r="H38" s="18"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="9">
+      <c r="A39" s="11">
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H39" s="15"/>
+        <v>102</v>
+      </c>
+      <c r="H39" s="17"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="7">
+      <c r="A40" s="12">
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E40" s="8">
-        <v>10001</v>
+        <v>103</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H40" s="16"/>
+        <v>106</v>
+      </c>
+      <c r="H40" s="18"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="9">
+      <c r="A41" s="11">
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
@@ -3367,41 +3402,45 @@
         <v>15</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H41" s="15"/>
+        <v>110</v>
+      </c>
+      <c r="H41" s="17"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="7">
+      <c r="A42" s="12">
         <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="16"/>
+        <v>111</v>
+      </c>
+      <c r="E42" s="8">
+        <v>10001</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H42" s="18"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="9">
+      <c r="A43" s="11">
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
@@ -3411,265 +3450,261 @@
         <v>15</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E43" s="10">
-        <v>9876543210</v>
-      </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="15"/>
+        <v>112</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H43" s="17"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="7">
+      <c r="A44" s="11">
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
-      <c r="H44" s="16"/>
+      <c r="H44" s="18"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="9">
+      <c r="A45" s="12">
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H45" s="15"/>
+        <v>118</v>
+      </c>
+      <c r="E45" s="10">
+        <v>9876543210</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="17"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="7">
+      <c r="A46" s="11">
         <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8">
-        <v>4</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="16"/>
+        <v>42</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="18"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="9">
+      <c r="A47" s="12">
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D47" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" s="17"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="11">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8">
+        <v>4</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="18"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="11">
+        <v>48</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="15"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="7">
-        <v>47</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" s="8" t="s">
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="17"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="12">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D50" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E50" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F50" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="G48" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48" s="16"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="9">
-        <v>48</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="15"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="7">
-        <v>49</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>130</v>
-      </c>
       <c r="G50" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="H50" s="16"/>
+        <v>28</v>
+      </c>
+      <c r="H50" s="18"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="9">
+      <c r="A51" s="11">
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="H51" s="15"/>
+        <v>32</v>
+      </c>
+      <c r="H51" s="17"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="7">
+      <c r="A52" s="12">
         <v>51</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H52" s="16"/>
+        <v>131</v>
+      </c>
+      <c r="H52" s="18"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="9">
+      <c r="A53" s="11">
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H53" s="15"/>
+        <v>135</v>
+      </c>
+      <c r="H53" s="17"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="7">
+      <c r="A54" s="11">
         <v>53</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E54" s="8">
-        <v>10001</v>
+        <v>136</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="H54" s="16"/>
+        <v>106</v>
+      </c>
+      <c r="H54" s="18"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="9">
+      <c r="A55" s="12">
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
@@ -3679,613 +3714,617 @@
         <v>15</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E55" s="10">
-        <v>9789123456</v>
+        <v>138</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="H55" s="15"/>
+        <v>110</v>
+      </c>
+      <c r="H55" s="17"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="7">
+      <c r="A56" s="11">
         <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>147</v>
+        <v>140</v>
+      </c>
+      <c r="E56" s="8">
+        <v>10001</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="H56" s="16"/>
+        <v>142</v>
+      </c>
+      <c r="H56" s="18"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="9">
+      <c r="A57" s="12">
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57" s="10">
+        <v>9789123456</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H57" s="17"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="11">
+        <v>57</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H58" s="18"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="11">
+        <v>58</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10" t="s">
+      <c r="E59" s="10"/>
+      <c r="F59" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G57" s="10" t="s">
+      <c r="G59" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="H57" s="15"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="7">
-        <v>57</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8">
-        <v>4</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="16"/>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="9">
-        <v>58</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="H59" s="15"/>
+      <c r="H59" s="17"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="7">
+      <c r="A60" s="12">
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C60" s="8"/>
-      <c r="D60" s="12"/>
+      <c r="D60" s="8"/>
       <c r="E60" s="8">
+        <v>4</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="18"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="11">
+        <v>60</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H61" s="17"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="12">
+        <v>61</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="8">
         <v>2</v>
       </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="16"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="9">
-        <v>60</v>
-      </c>
-      <c r="B61" s="10" t="s">
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="18"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="11">
+        <v>62</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10" t="s">
+      <c r="C63" s="10"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="G61" s="10" t="s">
+      <c r="G63" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="H61" s="15"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="7">
-        <v>61</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="H62" s="16"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="9">
-        <v>62</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="H63" s="15"/>
+      <c r="H63" s="17"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="7">
+      <c r="A64" s="11">
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>165</v>
+        <v>20</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>157</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="H64" s="16"/>
+        <v>160</v>
+      </c>
+      <c r="H64" s="18"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="9">
+      <c r="A65" s="12">
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H65" s="17"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="11">
+        <v>65</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H66" s="18"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="12">
+        <v>66</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="E65" s="10" t="s">
+      <c r="E67" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F65" s="10" t="s">
+      <c r="F67" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="G65" s="10" t="s">
+      <c r="G67" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="H65" s="15"/>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="7">
-        <v>65</v>
-      </c>
-      <c r="B66" s="8" t="s">
+      <c r="H67" s="17"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="11">
+        <v>67</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C68" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D68" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="E66" s="8">
+      <c r="E68" s="8">
         <v>1235647899</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F68" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G66" s="8" t="s">
+      <c r="G68" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="H66" s="16"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="9">
-        <v>66</v>
-      </c>
-      <c r="B67" s="10" t="s">
+      <c r="H68" s="18"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="11">
+        <v>68</v>
+      </c>
+      <c r="B69" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C67" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D67" s="11" t="s">
+      <c r="C69" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="15"/>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="7">
-        <v>67</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="H68" s="16"/>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="9">
-        <v>68</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="E69" s="10">
-        <v>97890456789</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="H69" s="15"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="17"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="7">
+      <c r="A70" s="12">
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>181</v>
+        <v>20</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>175</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="8" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="H70" s="16"/>
+        <v>177</v>
+      </c>
+      <c r="H70" s="18"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="9">
+      <c r="A71" s="11">
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D71" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E71" s="10">
+        <v>97890456789</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="H71" s="17"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="12">
+        <v>71</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H72" s="18"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="11">
+        <v>72</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E73" s="10">
         <v>1230</v>
       </c>
-      <c r="F71" s="15" t="s">
+      <c r="F73" s="17" t="s">
         <v>185</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="H71" s="15"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="7">
-        <v>71</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="E72" s="8">
-        <v>1550</v>
-      </c>
-      <c r="F72" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="H72" s="16"/>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="9">
-        <v>72</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10" t="s">
-        <v>190</v>
       </c>
       <c r="G73" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="H73" s="15"/>
+      <c r="H73" s="17"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="7">
+      <c r="A74" s="11">
         <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="E74" s="8"/>
-      <c r="F74" s="17" t="s">
-        <v>192</v>
+        <v>20</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E74" s="8">
+        <v>1550</v>
+      </c>
+      <c r="F74" s="19" t="s">
+        <v>188</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="H74" s="16"/>
+        <v>186</v>
+      </c>
+      <c r="H74" s="18"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="9">
+      <c r="A75" s="12">
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>194</v>
+        <v>20</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>189</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="10" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="H75" s="15"/>
+        <v>186</v>
+      </c>
+      <c r="H75" s="17"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="7">
+      <c r="A76" s="11">
         <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>196</v>
+        <v>20</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>191</v>
       </c>
       <c r="E76" s="8"/>
-      <c r="F76" s="17" t="s">
-        <v>197</v>
+      <c r="F76" s="19" t="s">
+        <v>192</v>
       </c>
       <c r="G76" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="H76" s="16"/>
+      <c r="H76" s="18"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="9">
+      <c r="A77" s="12">
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>89</v>
+        <v>20</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>194</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="10" t="s">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H77" s="15"/>
+        <v>193</v>
+      </c>
+      <c r="H77" s="17"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="7">
+      <c r="A78" s="11">
         <v>77</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8">
-        <v>4</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E78" s="8"/>
+      <c r="F78" s="19" t="s">
+        <v>197</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78" s="16"/>
+        <v>193</v>
+      </c>
+      <c r="H78" s="18"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="9">
+      <c r="A79" s="11">
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D79" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H79" s="17"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="12">
+        <v>79</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8">
+        <v>4</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" s="18"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="11">
+        <v>80</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="15"/>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="7">
-        <v>79</v>
-      </c>
-      <c r="B80" s="8" t="s">
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="17"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="12">
+        <v>81</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C82" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D82" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8" t="s">
+      <c r="E82" s="8"/>
+      <c r="F82" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G80" s="8" t="s">
+      <c r="G82" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H80" s="16"/>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="9">
-        <v>80</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10">
-        <v>4</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H81" s="15"/>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="7">
-        <v>81</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="H82" s="16"/>
+      <c r="H82" s="18"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="9">
+      <c r="A83" s="11">
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
@@ -4294,331 +4333,333 @@
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
       <c r="E83" s="10">
+        <v>4</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" s="17"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="11">
+        <v>83</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="H84" s="18"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="12">
+        <v>84</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10">
         <v>2</v>
       </c>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="15"/>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="7">
-        <v>83</v>
-      </c>
-      <c r="B84" s="8" t="s">
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="17"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="11">
+        <v>85</v>
+      </c>
+      <c r="B86" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="H84" s="16"/>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="9">
-        <v>84</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="H85" s="15"/>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="7">
-        <v>85</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>175</v>
-      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="H86" s="18"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="12">
+        <v>86</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="G86" s="8" t="s">
+      <c r="G87" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="H86" s="16"/>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="9">
-        <v>86</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="F87" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="H87" s="15"/>
+      <c r="H87" s="17"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="7">
+      <c r="A88" s="11">
         <v>87</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="E88" s="8"/>
       <c r="F88" s="8" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="H88" s="16"/>
+        <v>207</v>
+      </c>
+      <c r="H88" s="18"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="9">
+      <c r="A89" s="11">
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="H89" s="15"/>
+        <v>211</v>
+      </c>
+      <c r="H89" s="17"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="7">
+      <c r="A90" s="12">
         <v>89</v>
       </c>
       <c r="B90" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="H90" s="18"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="11">
+        <v>90</v>
+      </c>
+      <c r="B91" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="G90" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="H90" s="16"/>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="9">
-        <v>90</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="C91" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E91" s="10"/>
+        <v>214</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>215</v>
+      </c>
       <c r="F91" s="10" t="s">
-        <v>90</v>
+        <v>216</v>
       </c>
       <c r="G91" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="H91" s="17"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="12">
         <v>91</v>
       </c>
-      <c r="H91" s="15"/>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="7">
-        <v>91</v>
-      </c>
       <c r="B92" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8">
-        <v>4</v>
+        <v>47</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H92" s="16"/>
+        <v>221</v>
+      </c>
+      <c r="H92" s="18"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="9">
+      <c r="A93" s="11">
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>222</v>
+        <v>89</v>
       </c>
       <c r="E93" s="10"/>
       <c r="F93" s="10" t="s">
-        <v>223</v>
+        <v>90</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="H93" s="15"/>
+        <v>91</v>
+      </c>
+      <c r="H93" s="17"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="7">
+      <c r="A94" s="11">
         <v>93</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C94" s="8"/>
-      <c r="D94" s="12"/>
+      <c r="D94" s="8"/>
       <c r="E94" s="8">
-        <v>1</v>
-      </c>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="16"/>
+        <v>4</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" s="18"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="9">
+      <c r="A95" s="12">
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>225</v>
+        <v>20</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>222</v>
       </c>
       <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="15"/>
+      <c r="F95" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H95" s="17"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="7">
+      <c r="A96" s="11">
         <v>95</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C96" s="8"/>
-      <c r="D96" s="12"/>
+      <c r="D96" s="13"/>
       <c r="E96" s="8">
         <v>1</v>
       </c>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
-      <c r="H96" s="16"/>
+      <c r="H96" s="18"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="9">
+      <c r="A97" s="12">
         <v>96</v>
       </c>
-      <c r="B97" s="18" t="s">
+      <c r="B97" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D97" s="19" t="s">
-        <v>226</v>
+        <v>20</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>225</v>
       </c>
       <c r="E97" s="10"/>
-      <c r="F97" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="G97" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="H97" s="15"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="17"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="7">
+      <c r="A98" s="11">
         <v>97</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
+      <c r="D98" s="13"/>
       <c r="E98" s="8">
-        <v>3</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="H98" s="16"/>
-    </row>
-    <row r="99" s="4" customFormat="1" spans="1:8">
-      <c r="A99" s="9">
-        <v>96</v>
-      </c>
-      <c r="B99" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="18"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="11">
+        <v>98</v>
+      </c>
+      <c r="B99" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D99" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99" s="21" t="s">
         <v>226</v>
       </c>
       <c r="E99" s="10"/>
@@ -4628,11 +4669,11 @@
       <c r="G99" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="H99" s="15"/>
-    </row>
-    <row r="100" s="4" customFormat="1" spans="1:8">
-      <c r="A100" s="7">
-        <v>97</v>
+      <c r="H99" s="17"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="12">
+        <v>99</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>11</v>
@@ -4648,759 +4689,755 @@
       <c r="G100" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="H100" s="16"/>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="9">
-        <v>98</v>
-      </c>
-      <c r="B101" s="10" t="s">
+      <c r="H100" s="18"/>
+    </row>
+    <row r="101" s="4" customFormat="1" spans="1:8">
+      <c r="A101" s="11">
+        <v>100</v>
+      </c>
+      <c r="B101" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>231</v>
+        <v>20</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>226</v>
       </c>
       <c r="E101" s="10"/>
       <c r="F101" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H101" s="17"/>
+    </row>
+    <row r="102" s="4" customFormat="1" spans="1:8">
+      <c r="A102" s="12">
+        <v>101</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8">
+        <v>3</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="H102" s="18"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="11">
+        <v>102</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="G101" s="10" t="s">
+      <c r="G103" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="H101" s="15"/>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="7">
-        <v>99</v>
-      </c>
-      <c r="B102" s="16" t="s">
+      <c r="H103" s="17"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="11">
+        <v>103</v>
+      </c>
+      <c r="B104" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C102" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D102" s="8" t="s">
+      <c r="C104" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D104" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8" t="s">
+      <c r="E104" s="8"/>
+      <c r="F104" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="G102" s="8" t="s">
+      <c r="G104" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="H102" s="16"/>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="9">
-        <v>100</v>
-      </c>
-      <c r="B103" s="10" t="s">
+      <c r="H104" s="18"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="12">
+        <v>104</v>
+      </c>
+      <c r="B105" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10">
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10">
         <v>2</v>
       </c>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="15"/>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" s="7">
-        <v>101</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="F104" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="G104" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="H104" s="16"/>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="9">
-        <v>102</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="E105" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="F105" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="G105" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="H105" s="15"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="17"/>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="7">
-        <v>103</v>
+      <c r="A106" s="11">
+        <v>105</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E106" s="8">
-        <v>9889656446</v>
+        <v>237</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>144</v>
+        <v>239</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="H106" s="16"/>
+        <v>240</v>
+      </c>
+      <c r="H106" s="18"/>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="9">
-        <v>104</v>
+      <c r="A107" s="12">
+        <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C107" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="G107" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="H107" s="17"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="11">
+        <v>107</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E108" s="8">
+        <v>9889656446</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H108" s="18"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="11">
+        <v>108</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" s="10" t="s">
         <v>246</v>
-      </c>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="G107" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="H107" s="15"/>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="7">
-        <v>105</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8">
-        <v>4</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H108" s="16"/>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="9">
-        <v>106</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D109" s="10" t="s">
-        <v>250</v>
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="10" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="H109" s="15"/>
+        <v>248</v>
+      </c>
+      <c r="H109" s="17"/>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="7">
-        <v>107</v>
+      <c r="A110" s="12">
+        <v>109</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E110" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8">
+        <v>4</v>
+      </c>
       <c r="F110" s="8" t="s">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="H110" s="16"/>
+        <v>91</v>
+      </c>
+      <c r="H110" s="18"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="9">
-        <v>108</v>
+      <c r="A111" s="11">
+        <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
         <v>249</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E111" s="10"/>
       <c r="F111" s="10" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G111" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="H111" s="15"/>
+      <c r="H111" s="17"/>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="7">
-        <v>109</v>
+      <c r="A112" s="12">
+        <v>111</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>249</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E112" s="8"/>
       <c r="F112" s="8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G112" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="H112" s="16"/>
+      <c r="H112" s="18"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="9">
-        <v>110</v>
+      <c r="A113" s="11">
+        <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
         <v>249</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E113" s="10"/>
       <c r="F113" s="10" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G113" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="H113" s="15"/>
+      <c r="H113" s="17"/>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="7">
-        <v>111</v>
+      <c r="A114" s="11">
+        <v>113</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>249</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E114" s="8"/>
       <c r="F114" s="8" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G114" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="H114" s="16"/>
+      <c r="H114" s="18"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="9">
-        <v>112</v>
+      <c r="A115" s="12">
+        <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
         <v>249</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E115" s="10"/>
       <c r="F115" s="10" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G115" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="H115" s="15"/>
+      <c r="H115" s="17"/>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="7">
-        <v>113</v>
+      <c r="A116" s="11">
+        <v>115</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>249</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E116" s="8"/>
       <c r="F116" s="8" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G116" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="H116" s="16"/>
+      <c r="H116" s="18"/>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="9">
-        <v>114</v>
+      <c r="A117" s="12">
+        <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>19</v>
+        <v>249</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E117" s="10"/>
       <c r="F117" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="G117" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="H117" s="17"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="11">
+        <v>117</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="H118" s="18"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="11">
+        <v>118</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="G117" s="10" t="s">
+      <c r="G119" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="H117" s="15"/>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="7">
-        <v>115</v>
-      </c>
-      <c r="B118" s="8" t="s">
+      <c r="H119" s="17"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="12">
+        <v>119</v>
+      </c>
+      <c r="B120" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8">
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8">
         <v>5</v>
       </c>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="16"/>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="9">
-        <v>116</v>
-      </c>
-      <c r="B119" s="10" t="s">
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="18"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="11">
+        <v>120</v>
+      </c>
+      <c r="B121" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="C121" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D119" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="E119" s="10"/>
-      <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
-      <c r="H119" s="15">
+      <c r="D121" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G121" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H121" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="7">
-        <v>117</v>
-      </c>
-      <c r="B120" s="8" t="s">
+    <row r="122" spans="1:8">
+      <c r="A122" s="12">
+        <v>121</v>
+      </c>
+      <c r="B122" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C120" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D120" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8" t="s">
+      <c r="C122" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D122" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G120" s="8" t="s">
+      <c r="E122" s="12"/>
+      <c r="F122" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H120" s="16"/>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="9">
-        <v>118</v>
-      </c>
-      <c r="B121" s="10" t="s">
+      <c r="G122" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H122" s="18"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="11">
+        <v>122</v>
+      </c>
+      <c r="B123" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C121" s="10"/>
-      <c r="D121" s="11"/>
-      <c r="E121" s="10">
-        <v>1</v>
-      </c>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="15"/>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="7">
-        <v>119</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D122" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G122" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H122" s="16">
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="9">
-        <v>120</v>
-      </c>
-      <c r="B123" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G123" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H123" s="15">
-        <v>6</v>
-      </c>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="18"/>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="7">
-        <v>121</v>
+      <c r="A124" s="11">
+        <v>123</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D124" s="12" t="s">
-        <v>33</v>
+        <v>20</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>270</v>
       </c>
       <c r="E124" s="8"/>
       <c r="F124" s="8" t="s">
-        <v>34</v>
+        <v>271</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H124" s="16"/>
+        <v>272</v>
+      </c>
+      <c r="H124" s="8"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="9">
-        <v>122</v>
+      <c r="A125" s="12">
+        <v>124</v>
       </c>
       <c r="B125" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="D125" s="15" t="s">
+        <v>273</v>
       </c>
       <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="15"/>
+      <c r="F125" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G125" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="H125" s="10"/>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="7">
-        <v>123</v>
+      <c r="A126" s="11">
+        <v>125</v>
       </c>
       <c r="B126" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8">
+        <v>20</v>
+      </c>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="12">
+        <v>126</v>
+      </c>
+      <c r="B127" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C126" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D126" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G126" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H126" s="16"/>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="9">
-        <v>124</v>
-      </c>
-      <c r="B127" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C127" s="10"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="10">
-        <v>5</v>
-      </c>
-      <c r="F127" s="10"/>
-      <c r="G127" s="10"/>
-      <c r="H127" s="15"/>
+      <c r="C127" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D127" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="G127" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="H127" s="10"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="7">
-        <v>125</v>
+      <c r="A128" s="11">
+        <v>127</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D128" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="E128" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="D128" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>280</v>
+      </c>
       <c r="F128" s="8" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="H128" s="8"/>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="9">
-        <v>126</v>
+      <c r="A129" s="11">
+        <v>128</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="E129" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="D129" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>284</v>
+      </c>
       <c r="F129" s="10" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="H129" s="10"/>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="7">
-        <v>127</v>
+      <c r="A130" s="12">
+        <v>129</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8">
-        <v>20</v>
-      </c>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
+        <v>287</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D130" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>291</v>
+      </c>
       <c r="H130" s="8"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="9">
-        <v>128</v>
+      <c r="A131" s="11">
+        <v>130</v>
       </c>
       <c r="B131" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D131" s="11" t="s">
-        <v>277</v>
+        <v>20</v>
+      </c>
+      <c r="D131" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="E131" s="10"/>
       <c r="F131" s="10" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="H131" s="10"/>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="7">
-        <v>129</v>
+      <c r="A132" s="12">
+        <v>131</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D132" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>281</v>
+        <v>11</v>
+      </c>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8">
+        <v>10</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>282</v>
+        <v>12</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>283</v>
+        <v>13</v>
       </c>
       <c r="H132" s="8"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="9">
-        <v>130</v>
+      <c r="A133" s="11">
+        <v>132</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D133" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="E133" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="F133" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="G133" s="10" t="s">
-        <v>287</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
       <c r="H133" s="10"/>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="7">
-        <v>131</v>
+      <c r="A134" s="11">
+        <v>133</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D134" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>290</v>
+        <v>11</v>
+      </c>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8">
+        <v>10</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>292</v>
+        <v>13</v>
       </c>
       <c r="H134" s="8"/>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="9">
-        <v>132</v>
+      <c r="A135" s="12">
+        <v>134</v>
       </c>
       <c r="B135" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C135" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D135" s="11" t="s">
-        <v>62</v>
+      <c r="C135" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="15" t="s">
+        <v>295</v>
       </c>
       <c r="E135" s="10"/>
       <c r="F135" s="10" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H135" s="10"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="7">
-        <v>133</v>
+      <c r="A136" s="11">
+        <v>135</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>11</v>
@@ -5408,854 +5445,671 @@
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
       <c r="E136" s="8">
-        <v>10</v>
-      </c>
-      <c r="F136" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G136" s="8" t="s">
-        <v>13</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
       <c r="H136" s="8"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="9">
-        <v>134</v>
+      <c r="A137" s="12">
+        <v>136</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="C137" s="10"/>
-      <c r="D137" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" s="15" t="s">
+        <v>298</v>
+      </c>
       <c r="E137" s="10"/>
       <c r="F137" s="10"/>
       <c r="G137" s="10"/>
-      <c r="H137" s="10"/>
+      <c r="H137" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="7">
-        <v>135</v>
-      </c>
-      <c r="B138" s="8" t="s">
+      <c r="A138" s="11">
+        <v>137</v>
+      </c>
+      <c r="B138" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C138" s="8"/>
-      <c r="D138" s="8"/>
-      <c r="E138" s="8">
+      <c r="C138" s="10"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="10">
+        <v>1</v>
+      </c>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="17"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="11">
+        <v>138</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H139" s="18"/>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="12">
+        <v>139</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10">
+        <v>5</v>
+      </c>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="17"/>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="11">
+        <v>140</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D141" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="H141" s="8"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="12">
+        <v>141</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="E142" s="10"/>
+      <c r="F142" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="G142" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="H142" s="10"/>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="11">
+        <v>142</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8">
+        <v>3</v>
+      </c>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="11">
+        <v>143</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="G144" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="H144" s="10"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="12">
+        <v>144</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8">
+        <v>3</v>
+      </c>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c r="H145" s="8"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="11">
+        <v>145</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="E146" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="F146" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="G146" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="H146" s="10"/>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="12">
+        <v>146</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" s="8"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="8">
+        <v>3</v>
+      </c>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c r="H147" s="8"/>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="11">
+        <v>147</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C148" s="10"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="G148" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="H148" s="10"/>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="11">
+        <v>148</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D149" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="12">
+        <v>149</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D150" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="G150" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H150" s="10"/>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="11">
+        <v>150</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D151" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="8"/>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="12">
+        <v>151</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D152" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="G152" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H152" s="10"/>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="11">
+        <v>152</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D153" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="E153" s="8">
+        <v>200</v>
+      </c>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8"/>
+      <c r="H153" s="8"/>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="11">
+        <v>153</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D154" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="E154" s="10"/>
+      <c r="F154" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G154" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H154" s="10"/>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="12">
+        <v>154</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" s="8"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="8">
+        <v>3</v>
+      </c>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
+      <c r="H155" s="8"/>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="11">
+        <v>155</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="E156" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
+      <c r="H156" s="10"/>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="12">
+        <v>156</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D157" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="G157" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H157" s="8"/>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="11">
+        <v>157</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D158" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="E158" s="10"/>
+      <c r="F158" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G158" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H158" s="10"/>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="11">
+        <v>158</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" s="8"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="8">
+        <v>2</v>
+      </c>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
+      <c r="H159" s="8"/>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="12">
+        <v>159</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D160" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E160" s="10"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10"/>
+      <c r="H160" s="10"/>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="11">
+        <v>160</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D161" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+      <c r="H161" s="8"/>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="12">
+        <v>161</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D162" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E162" s="10"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="10"/>
+      <c r="H162" s="10"/>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="11">
+        <v>162</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" s="8"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="8">
         <v>10</v>
       </c>
-      <c r="F138" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G138" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H138" s="8"/>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="A139" s="9">
-        <v>136</v>
-      </c>
-      <c r="B139" s="10" t="s">
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
+      <c r="H163" s="8"/>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="11">
+        <v>163</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C164" s="10"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="G164" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="H164" s="10"/>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="12">
+        <v>164</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" s="8"/>
+      <c r="D165" s="13"/>
+      <c r="E165" s="8">
+        <v>10</v>
+      </c>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8"/>
+      <c r="H165" s="8"/>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="11">
+        <v>165</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D166" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="E166" s="10"/>
+      <c r="F166" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="G166" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="H166" s="10"/>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="12">
+        <v>166</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D167" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="E167" s="8"/>
+      <c r="F167" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="G167" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="H167" s="8"/>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="11">
+        <v>167</v>
+      </c>
+      <c r="B168" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C139" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D139" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="E139" s="10"/>
-      <c r="F139" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="G139" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="H139" s="10"/>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" s="7">
-        <v>137</v>
-      </c>
-      <c r="B140" s="8" t="s">
+      <c r="C168" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D168" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="E168" s="10"/>
+      <c r="F168" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="G168" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="H168" s="10"/>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="11">
+        <v>168</v>
+      </c>
+      <c r="B169" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8">
-        <v>5</v>
-      </c>
-      <c r="F140" s="8"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" s="9">
-        <v>138</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D141" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="E141" s="10"/>
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" s="7">
-        <v>139</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D142" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G142" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H142" s="16"/>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="A143" s="9">
-        <v>140</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C143" s="10"/>
-      <c r="D143" s="11"/>
-      <c r="E143" s="10">
-        <v>1</v>
-      </c>
-      <c r="F143" s="10"/>
-      <c r="G143" s="10"/>
-      <c r="H143" s="15"/>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" s="7">
-        <v>141</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D144" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G144" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H144" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" s="9">
-        <v>142</v>
-      </c>
-      <c r="B145" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D145" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G145" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H145" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" s="7">
-        <v>143</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D146" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E146" s="8"/>
-      <c r="F146" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G146" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H146" s="16"/>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147" s="9">
-        <v>144</v>
-      </c>
-      <c r="B147" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D147" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E147" s="10"/>
-      <c r="F147" s="10"/>
-      <c r="G147" s="10"/>
-      <c r="H147" s="15"/>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" s="7">
-        <v>145</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D148" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E148" s="8"/>
-      <c r="F148" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G148" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H148" s="16"/>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149" s="9">
-        <v>146</v>
-      </c>
-      <c r="B149" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C149" s="10"/>
-      <c r="D149" s="10"/>
-      <c r="E149" s="10">
-        <v>5</v>
-      </c>
-      <c r="F149" s="10"/>
-      <c r="G149" s="10"/>
-      <c r="H149" s="15"/>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150" s="7">
-        <v>147</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D150" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="E150" s="8"/>
-      <c r="F150" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G150" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="H150" s="8"/>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="A151" s="9">
-        <v>148</v>
-      </c>
-      <c r="B151" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D151" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="E151" s="10"/>
-      <c r="F151" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="G151" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="H151" s="10"/>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="A152" s="7">
-        <v>149</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C152" s="8"/>
-      <c r="D152" s="8"/>
-      <c r="E152" s="8">
-        <v>3</v>
-      </c>
-      <c r="F152" s="8"/>
-      <c r="G152" s="8"/>
-      <c r="H152" s="8"/>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="A153" s="9">
-        <v>150</v>
-      </c>
-      <c r="B153" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D153" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="E153" s="10"/>
-      <c r="F153" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="G153" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="H153" s="10"/>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="A154" s="7">
-        <v>151</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
-      <c r="E154" s="8">
-        <v>3</v>
-      </c>
-      <c r="F154" s="8"/>
-      <c r="G154" s="8"/>
-      <c r="H154" s="8"/>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="A155" s="9">
-        <v>152</v>
-      </c>
-      <c r="B155" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D155" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="E155" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="F155" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="G155" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="H155" s="10"/>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="A156" s="7">
-        <v>153</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C156" s="8"/>
-      <c r="D156" s="12"/>
-      <c r="E156" s="8">
-        <v>3</v>
-      </c>
-      <c r="F156" s="8"/>
-      <c r="G156" s="8"/>
-      <c r="H156" s="8"/>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="A157" s="9">
-        <v>154</v>
-      </c>
-      <c r="B157" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C157" s="10"/>
-      <c r="D157" s="11"/>
-      <c r="E157" s="10"/>
-      <c r="F157" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="G157" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="H157" s="10"/>
-    </row>
-    <row r="158" spans="1:8">
-      <c r="A158" s="7">
-        <v>155</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D158" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="E158" s="8"/>
-      <c r="F158" s="8"/>
-      <c r="G158" s="8"/>
-      <c r="H158" s="8"/>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="A159" s="9">
-        <v>156</v>
-      </c>
-      <c r="B159" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C159" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D159" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="E159" s="10"/>
-      <c r="F159" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="G159" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="H159" s="10"/>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="A160" s="7">
-        <v>157</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D160" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="E160" s="8"/>
-      <c r="F160" s="8"/>
-      <c r="G160" s="8"/>
-      <c r="H160" s="8"/>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="A161" s="9">
-        <v>158</v>
-      </c>
-      <c r="B161" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D161" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="E161" s="10"/>
-      <c r="F161" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="G161" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="H161" s="10"/>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="A162" s="7">
-        <v>159</v>
-      </c>
-      <c r="B162" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D162" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="E162" s="8">
-        <v>200</v>
-      </c>
-      <c r="F162" s="8"/>
-      <c r="G162" s="8"/>
-      <c r="H162" s="8"/>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="A163" s="9">
-        <v>160</v>
-      </c>
-      <c r="B163" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D163" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="E163" s="10"/>
-      <c r="F163" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G163" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H163" s="10"/>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="A164" s="7">
-        <v>161</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C164" s="8"/>
-      <c r="D164" s="12"/>
-      <c r="E164" s="8">
-        <v>3</v>
-      </c>
-      <c r="F164" s="8"/>
-      <c r="G164" s="8"/>
-      <c r="H164" s="8"/>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="A165" s="9">
-        <v>162</v>
-      </c>
-      <c r="B165" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D165" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="E165" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="F165" s="10"/>
-      <c r="G165" s="10"/>
-      <c r="H165" s="10"/>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166" s="7">
-        <v>163</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="C166" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D166" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="E166" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="F166" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="G166" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="H166" s="8"/>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="A167" s="9">
-        <v>164</v>
-      </c>
-      <c r="B167" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D167" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="E167" s="10"/>
-      <c r="F167" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G167" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H167" s="10"/>
-    </row>
-    <row r="168" spans="1:8">
-      <c r="A168" s="7">
-        <v>165</v>
-      </c>
-      <c r="B168" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C168" s="8"/>
-      <c r="D168" s="12"/>
-      <c r="E168" s="8">
-        <v>2</v>
-      </c>
-      <c r="F168" s="8"/>
-      <c r="G168" s="8"/>
-      <c r="H168" s="8"/>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="A169" s="9">
-        <v>166</v>
-      </c>
-      <c r="B169" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D169" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="E169" s="10"/>
-      <c r="F169" s="10"/>
-      <c r="G169" s="10"/>
-      <c r="H169" s="10"/>
-    </row>
-    <row r="170" spans="1:8">
-      <c r="A170" s="7">
-        <v>167</v>
-      </c>
-      <c r="B170" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C170" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D170" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="E170" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F170" s="8"/>
-      <c r="G170" s="8"/>
-      <c r="H170" s="8"/>
-    </row>
-    <row r="171" spans="1:8">
-      <c r="A171" s="9">
-        <v>168</v>
-      </c>
-      <c r="B171" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D171" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="E171" s="10"/>
-      <c r="F171" s="10"/>
-      <c r="G171" s="10"/>
-      <c r="H171" s="10"/>
-    </row>
-    <row r="172" spans="1:8">
-      <c r="A172" s="7">
-        <v>169</v>
-      </c>
-      <c r="B172" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C172" s="8"/>
-      <c r="D172" s="12"/>
-      <c r="E172" s="8">
-        <v>10</v>
-      </c>
-      <c r="F172" s="8"/>
-      <c r="G172" s="8"/>
-      <c r="H172" s="8"/>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="A173" s="9">
-        <v>170</v>
-      </c>
-      <c r="B173" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="C173" s="10"/>
-      <c r="D173" s="11"/>
-      <c r="E173" s="10"/>
-      <c r="F173" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="G173" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="H173" s="10"/>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="A174" s="7">
-        <v>171</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C174" s="8"/>
-      <c r="D174" s="12"/>
-      <c r="E174" s="8">
-        <v>10</v>
-      </c>
-      <c r="F174" s="8"/>
-      <c r="G174" s="8"/>
-      <c r="H174" s="8"/>
-    </row>
-    <row r="175" spans="1:8">
-      <c r="A175" s="9">
-        <v>172</v>
-      </c>
-      <c r="B175" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D175" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="E175" s="10"/>
-      <c r="F175" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="G175" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="H175" s="10"/>
-    </row>
-    <row r="176" spans="1:8">
-      <c r="A176" s="7">
-        <v>173</v>
-      </c>
-      <c r="B176" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="C176" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D176" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="E176" s="8"/>
-      <c r="F176" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="G176" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="H176" s="8"/>
-    </row>
-    <row r="177" spans="1:8">
-      <c r="A177" s="9">
-        <v>174</v>
-      </c>
-      <c r="B177" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D177" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="E177" s="10"/>
-      <c r="F177" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="G177" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="H177" s="10"/>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="A178" s="7">
-        <v>175</v>
-      </c>
-      <c r="B178" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C178" s="8"/>
-      <c r="D178" s="8"/>
-      <c r="E178" s="8">
+      <c r="C169" s="8"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="8">
         <v>4</v>
       </c>
-      <c r="F178" s="8"/>
-      <c r="G178" s="8"/>
-      <c r="H178" s="8"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="8"/>
+      <c r="H169" s="8"/>
     </row>
   </sheetData>
-  <dataValidations count="6">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B7 C9 C11 C15 B98 B100 B101 C125 C127 C147 C149 B1:B5 B8:B96 B103:B150 B177:B178 C2:C7 C119:C123 C141:C145">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 C121 B122 C122 B123 C123 B4:B17 C7:C9 C14:C17">
+      <formula1>[6]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C47 C59 C82 C29:C35">
+      <formula1>[3]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C79">
+      <formula1>[4]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B100 B102 B103 B121 C137 B138 C138 C140 B1:B3 B18:B98 B105:B120 B124:B137 B139:B141 B168:B169 C2:C3">
       <formula1/>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10 C124 C126 C146 C148 C12:C14 C16:C26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C139 C18:C28">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45 C57 C80 C27:C33">
-      <formula1>[3]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C77">
-      <formula1>[4]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B151:B154 B155:B176">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B142:B145 B146:B167">
       <formula1>[5]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -6315,7 +6169,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>336</v>
@@ -6399,7 +6253,7 @@
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="3:3">
@@ -6522,7 +6376,7 @@
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="3:3">
@@ -6814,7 +6668,7 @@
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="98" spans="3:3">

--- a/QA/testcases/Pharmacy/Phar_Patient_App_Create_PCase_Positive-OK.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_Create_PCase_Positive-OK.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425">
   <si>
     <t>Step No</t>
   </si>
@@ -333,15 +333,6 @@
     <t>add 1 entered</t>
   </si>
   <si>
-    <t>CONTACT_ADDRESS_LINE2</t>
-  </si>
-  <si>
-    <t>Enter Add2</t>
-  </si>
-  <si>
-    <t>add 2 entered</t>
-  </si>
-  <si>
     <t>CONTACT_STATE</t>
   </si>
   <si>
@@ -486,7 +477,7 @@
     <t>APP_PRI_INSURANCE</t>
   </si>
   <si>
-    <t>Conseco</t>
+    <t>Con</t>
   </si>
   <si>
     <t>Enter Insurance name</t>
@@ -658,9 +649,6 @@
   </si>
   <si>
     <t>MEDICATION_NAME</t>
-  </si>
-  <si>
-    <t>Con</t>
   </si>
   <si>
     <t>Type Medication name</t>
@@ -1327,8 +1315,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1377,15 +1365,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1399,11 +1381,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1423,55 +1419,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1492,15 +1444,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1515,7 +1459,51 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1548,13 +1536,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1566,7 +1560,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1578,43 +1638,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1626,31 +1656,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1662,7 +1668,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1674,19 +1686,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1698,31 +1704,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1807,6 +1795,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1822,15 +1819,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1842,24 +1830,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1881,11 +1851,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1904,10 +1872,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1925,130 +1913,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2502,10 +2490,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H169"/>
+  <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3347,1778 +3335,1774 @@
       <c r="A39" s="11">
         <v>38</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="10" t="s">
+      <c r="B39" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E39" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F39" s="10" t="s">
+      <c r="E39" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="F39" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H39" s="17"/>
+      <c r="G39" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H39" s="18"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="12">
         <v>39</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E40" s="8" t="s">
+      <c r="B40" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="E40" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="F40" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="H40" s="18"/>
+      <c r="G40" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H40" s="17"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="11">
         <v>40</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" s="10" t="s">
+      <c r="D41" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H41" s="17"/>
+      <c r="E41" s="8">
+        <v>10001</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H41" s="18"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="12">
         <v>41</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E42" s="8">
-        <v>10001</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H42" s="18"/>
+      <c r="G42" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H42" s="17"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="11">
         <v>42</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E43" s="10" t="s">
+      <c r="B43" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="E43" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="G43" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H43" s="17"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="18"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="11">
         <v>43</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="18"/>
+      <c r="B44" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" s="10">
+        <v>9876543210</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="17"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="12">
         <v>44</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E45" s="10">
-        <v>9876543210</v>
-      </c>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="17"/>
+      <c r="B45" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="18"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="11">
         <v>45</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="18"/>
+      <c r="B46" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H46" s="17"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="12">
         <v>46</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H47" s="17"/>
+      <c r="B47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8">
+        <v>4</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="18"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="11">
         <v>47</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8">
-        <v>4</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="18"/>
+      <c r="B48" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="11">
         <v>48</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="10" t="s">
+      <c r="B49" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F49" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="17"/>
+      <c r="G49" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" s="18"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="12">
         <v>49</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="G50" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H50" s="18"/>
+      <c r="G50" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" s="17"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="11">
         <v>50</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="10" t="s">
+      <c r="B51" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="F51" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G51" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H51" s="17"/>
+      <c r="G51" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H51" s="18"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="12">
         <v>51</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E52" s="8" t="s">
+      <c r="B52" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="E52" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="F52" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="H52" s="18"/>
+      <c r="G52" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H52" s="17"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="11">
         <v>52</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E53" s="10" t="s">
+      <c r="B53" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="E53" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F53" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="G53" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="H53" s="17"/>
+      <c r="G53" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H53" s="18"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="11">
         <v>53</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="8" t="s">
+      <c r="B54" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="E54" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H54" s="18"/>
+      <c r="G54" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H54" s="17"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="12">
         <v>54</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E55" s="8">
+        <v>10001</v>
+      </c>
+      <c r="F55" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E55" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F55" s="10" t="s">
+      <c r="G55" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="G55" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H55" s="17"/>
+      <c r="H55" s="18"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="11">
         <v>55</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="E56" s="8">
-        <v>10001</v>
-      </c>
-      <c r="F56" s="8" t="s">
+      <c r="E56" s="10">
+        <v>9789123456</v>
+      </c>
+      <c r="F56" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="G56" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="H56" s="18"/>
+      <c r="H56" s="17"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="12">
         <v>56</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C57" s="10" t="s">
+      <c r="B57" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E57" s="10">
-        <v>9789123456</v>
-      </c>
-      <c r="F57" s="10" t="s">
+      <c r="E57" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G57" s="10" t="s">
+      <c r="F57" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="H57" s="17"/>
+      <c r="G57" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H57" s="18"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="11">
         <v>57</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" s="8" t="s">
+      <c r="B58" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="H58" s="18"/>
+      <c r="D58" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H58" s="17"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="11">
         <v>58</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H59" s="17"/>
+      <c r="B59" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8">
+        <v>4</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="18"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="12">
         <v>59</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8">
-        <v>4</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" s="18"/>
+      <c r="B60" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H60" s="17"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="11">
         <v>60</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="H61" s="17"/>
+      <c r="B61" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="8">
+        <v>2</v>
+      </c>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="18"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="12">
         <v>61</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="8">
-        <v>2</v>
-      </c>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="18"/>
+      <c r="B62" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H62" s="17"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="11">
         <v>62</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10" t="s">
+      <c r="E63" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="G63" s="10" t="s">
+      <c r="F63" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="H63" s="17"/>
+      <c r="G63" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="H63" s="18"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="11">
         <v>63</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="E64" s="8" t="s">
+      <c r="B64" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="E64" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G64" s="8" t="s">
+      <c r="F64" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="H64" s="18"/>
+      <c r="G64" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H64" s="17"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="12">
         <v>64</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="E65" s="10" t="s">
+      <c r="B65" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="F65" s="10" t="s">
+      <c r="E65" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G65" s="10" t="s">
+      <c r="F65" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G65" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="H65" s="17"/>
+      <c r="H65" s="18"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="11">
         <v>65</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D66" s="13" t="s">
+      <c r="B66" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F66" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="F66" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G66" s="8" t="s">
+      <c r="G66" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="H66" s="18"/>
+      <c r="H66" s="17"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="12">
         <v>66</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67" s="10" t="s">
+      <c r="B67" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="15" t="s">
+      <c r="D67" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="E67" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F67" s="10" t="s">
+      <c r="E67" s="8">
+        <v>1235647899</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="G67" s="10" t="s">
+      <c r="G67" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="H67" s="17"/>
+      <c r="H67" s="18"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="11">
         <v>67</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" s="13" t="s">
+      <c r="B68" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="E68" s="8">
-        <v>1235647899</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="H68" s="18"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="17"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="11">
         <v>68</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C69" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D69" s="15" t="s">
+      <c r="C69" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G69" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="17"/>
+      <c r="H69" s="18"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="12">
         <v>69</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D70" s="13" t="s">
+      <c r="B70" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8" t="s">
+      <c r="E70" s="10">
+        <v>97890456789</v>
+      </c>
+      <c r="F70" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="G70" s="8" t="s">
+      <c r="G70" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="H70" s="18"/>
+      <c r="H70" s="17"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="11">
         <v>70</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" s="15" t="s">
+      <c r="B71" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="E71" s="10">
-        <v>97890456789</v>
-      </c>
-      <c r="F71" s="10" t="s">
+      <c r="E71" s="8"/>
+      <c r="F71" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="G71" s="10" t="s">
+      <c r="G71" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="H71" s="17"/>
+      <c r="H71" s="18"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="12">
         <v>71</v>
       </c>
-      <c r="B72" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D72" s="13" t="s">
+      <c r="B72" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8" t="s">
+      <c r="E72" s="10">
+        <v>1230</v>
+      </c>
+      <c r="F72" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="G72" s="8" t="s">
+      <c r="G72" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="H72" s="18"/>
+      <c r="H72" s="17"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="11">
         <v>72</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C73" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D73" s="15" t="s">
+      <c r="C73" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="E73" s="10">
-        <v>1230</v>
-      </c>
-      <c r="F73" s="17" t="s">
+      <c r="E73" s="8">
+        <v>1550</v>
+      </c>
+      <c r="F73" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="G73" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="H73" s="17"/>
+      <c r="G73" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H73" s="18"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="11">
         <v>73</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D74" s="13" t="s">
+      <c r="B74" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="E74" s="8">
-        <v>1550</v>
-      </c>
-      <c r="F74" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="H74" s="18"/>
+      <c r="G74" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H74" s="17"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="12">
         <v>74</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D75" s="15" t="s">
+      <c r="C75" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E75" s="8"/>
+      <c r="F75" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10" t="s">
+      <c r="G75" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="G75" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="H75" s="17"/>
+      <c r="H75" s="18"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="11">
         <v>75</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C76" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D76" s="13" t="s">
+      <c r="C76" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="E76" s="8"/>
-      <c r="F76" s="19" t="s">
+      <c r="E76" s="10"/>
+      <c r="F76" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="G76" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="H76" s="18"/>
+      <c r="G76" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="H76" s="17"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="12">
         <v>76</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D77" s="15" t="s">
+      <c r="C77" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E77" s="8"/>
+      <c r="F77" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="H77" s="17"/>
+      <c r="G77" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="H77" s="18"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="11">
         <v>77</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="E78" s="8"/>
-      <c r="F78" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="G78" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="H78" s="18"/>
+      <c r="C78" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H78" s="17"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="11">
         <v>78</v>
       </c>
-      <c r="B79" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H79" s="17"/>
+      <c r="B79" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8">
+        <v>4</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" s="18"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="12">
         <v>79</v>
       </c>
-      <c r="B80" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8">
-        <v>4</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H80" s="18"/>
+      <c r="B80" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="17"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="11">
         <v>80</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C81" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="17"/>
+      <c r="C81" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H81" s="18"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="12">
         <v>81</v>
       </c>
-      <c r="B82" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H82" s="18"/>
+      <c r="B82" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10">
+        <v>4</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" s="17"/>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="11">
         <v>82</v>
       </c>
-      <c r="B83" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10">
-        <v>4</v>
-      </c>
-      <c r="F83" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H83" s="17"/>
+      <c r="B83" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="H83" s="18"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="11">
         <v>83</v>
       </c>
-      <c r="B84" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="H84" s="18"/>
+      <c r="B84" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10">
+        <v>2</v>
+      </c>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="17"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="12">
         <v>84</v>
       </c>
-      <c r="B85" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10">
-        <v>2</v>
-      </c>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="17"/>
+      <c r="B85" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="H85" s="18"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="11">
         <v>85</v>
       </c>
-      <c r="B86" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8" t="s">
+      <c r="B86" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="G86" s="8" t="s">
+      <c r="G86" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="H86" s="18"/>
+      <c r="H86" s="17"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="12">
         <v>86</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C87" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="H87" s="17"/>
+      <c r="C87" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="H87" s="18"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="11">
         <v>87</v>
       </c>
-      <c r="B88" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8" t="s">
+      <c r="B88" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F88" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="G88" s="8" t="s">
+      <c r="G88" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="H88" s="18"/>
+      <c r="H88" s="17"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="11">
         <v>88</v>
       </c>
-      <c r="B89" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D89" s="10" t="s">
+      <c r="B89" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E89" s="10" t="s">
+      <c r="G89" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F89" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="G89" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="H89" s="17"/>
+      <c r="H89" s="18"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="12">
         <v>89</v>
       </c>
-      <c r="B90" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8" t="s">
+      <c r="B90" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="F90" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="G90" s="8" t="s">
+      <c r="G90" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="H90" s="18"/>
+      <c r="H90" s="17"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="11">
         <v>90</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C91" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D91" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="E91" s="10" t="s">
+      <c r="E91" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="F91" s="10" t="s">
+      <c r="F91" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="G91" s="10" t="s">
+      <c r="G91" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="H91" s="17"/>
+      <c r="H91" s="18"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="12">
         <v>91</v>
       </c>
-      <c r="B92" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C92" s="8" t="s">
+      <c r="B92" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D92" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="G92" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="H92" s="18"/>
+      <c r="D92" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H92" s="17"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="11">
         <v>92</v>
       </c>
-      <c r="B93" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G93" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H93" s="17"/>
+      <c r="B93" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8">
+        <v>4</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="18"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="11">
         <v>93</v>
       </c>
-      <c r="B94" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8">
-        <v>4</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94" s="18"/>
+      <c r="B94" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="H94" s="17"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="12">
         <v>94</v>
       </c>
-      <c r="B95" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="G95" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="H95" s="17"/>
+      <c r="B95" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="8">
+        <v>1</v>
+      </c>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="18"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="11">
         <v>95</v>
       </c>
-      <c r="B96" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C96" s="8"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="8">
-        <v>1</v>
-      </c>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="18"/>
+      <c r="B96" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="17"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="12">
         <v>96</v>
       </c>
-      <c r="B97" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D97" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="17"/>
+      <c r="B97" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="8"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="8">
+        <v>1</v>
+      </c>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="18"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="11">
         <v>97</v>
       </c>
-      <c r="B98" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C98" s="8"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="8">
-        <v>1</v>
-      </c>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="18"/>
+      <c r="B98" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H98" s="17"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="11">
         <v>98</v>
       </c>
-      <c r="B99" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D99" s="21" t="s">
+      <c r="B99" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8">
+        <v>3</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G99" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="G99" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="H99" s="17"/>
+      <c r="H99" s="18"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="12">
         <v>99</v>
       </c>
-      <c r="B100" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8">
-        <v>3</v>
-      </c>
-      <c r="F100" s="8" t="s">
+      <c r="B100" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="G100" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="G100" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="H100" s="18"/>
-    </row>
-    <row r="101" s="4" customFormat="1" spans="1:8">
+      <c r="H100" s="17"/>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="11">
         <v>100</v>
       </c>
-      <c r="B101" s="20" t="s">
+      <c r="B101" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C101" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D101" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="G101" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="H101" s="17"/>
-    </row>
-    <row r="102" s="4" customFormat="1" spans="1:8">
+      <c r="C101" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="H101" s="18"/>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="12">
         <v>101</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8">
-        <v>3</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="H102" s="18"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10">
+        <v>2</v>
+      </c>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="17"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="11">
         <v>102</v>
       </c>
-      <c r="B103" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="G103" s="10" t="s">
+      <c r="B103" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="H103" s="17"/>
+      <c r="E103" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="H103" s="18"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="11">
         <v>103</v>
       </c>
-      <c r="B104" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="G104" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="H104" s="18"/>
+      <c r="B104" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G104" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="H104" s="17"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="12">
         <v>104</v>
       </c>
-      <c r="B105" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10">
-        <v>2</v>
-      </c>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="17"/>
+      <c r="B105" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E105" s="8">
+        <v>9889656446</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H105" s="18"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="11">
         <v>105</v>
       </c>
-      <c r="B106" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C106" s="8" t="s">
+      <c r="B106" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D106" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="G106" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="H106" s="18"/>
+      <c r="D106" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="G106" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="H106" s="17"/>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="12">
         <v>106</v>
       </c>
-      <c r="B107" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="E107" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="F107" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="G107" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="H107" s="17"/>
+      <c r="B107" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8">
+        <v>4</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H107" s="18"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="11">
         <v>107</v>
       </c>
-      <c r="B108" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D108" s="8" t="s">
+      <c r="B108" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="E108" s="8">
-        <v>9889656446</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="G108" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="H108" s="18"/>
+      <c r="C108" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="G108" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="H108" s="17"/>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="11">
         <v>108</v>
       </c>
-      <c r="B109" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D109" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="G109" s="10" t="s">
+      <c r="B109" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G109" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="H109" s="17"/>
+      <c r="H109" s="18"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="12">
         <v>109</v>
       </c>
-      <c r="B110" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8">
-        <v>4</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H110" s="18"/>
+      <c r="B110" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="G110" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="H110" s="17"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="11">
         <v>110</v>
       </c>
-      <c r="B111" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="G111" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="H111" s="17"/>
+      <c r="B111" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="H111" s="18"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="12">
         <v>111</v>
       </c>
-      <c r="B112" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="G112" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="H112" s="18"/>
+      <c r="B112" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="G112" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="H112" s="17"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="11">
         <v>112</v>
       </c>
-      <c r="B113" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="G113" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="H113" s="17"/>
+      <c r="B113" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="H113" s="18"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="11">
         <v>113</v>
       </c>
-      <c r="B114" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="G114" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="H114" s="18"/>
+      <c r="B114" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="G114" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="H114" s="17"/>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="12">
         <v>114</v>
       </c>
-      <c r="B115" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="G115" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="H115" s="17"/>
+      <c r="B115" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="H115" s="18"/>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="11">
         <v>115</v>
       </c>
-      <c r="B116" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="G116" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="H116" s="18"/>
+      <c r="B116" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="G116" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H116" s="17"/>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="12">
         <v>116</v>
       </c>
-      <c r="B117" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="E117" s="10"/>
-      <c r="F117" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="G117" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="H117" s="17"/>
+      <c r="B117" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8">
+        <v>5</v>
+      </c>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="18"/>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="11">
         <v>117</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="G118" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="H118" s="18"/>
+        <v>47</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G118" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H118" s="18">
+        <v>3</v>
+      </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="11">
         <v>118</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C119" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="E119" s="10"/>
-      <c r="F119" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="G119" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="H119" s="17"/>
+      <c r="C119" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G119" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H119" s="18"/>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="12">
         <v>119</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8">
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12">
         <v>5</v>
       </c>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
       <c r="H120" s="18"/>
     </row>
     <row r="121" spans="1:8">
@@ -5126,990 +5110,928 @@
         <v>120</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C121" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E121" s="11"/>
-      <c r="F121" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G121" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H121" s="18">
-        <v>3</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="H121" s="8"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="12">
         <v>121</v>
       </c>
-      <c r="B122" s="12" t="s">
+      <c r="B122" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C122" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D122" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E122" s="12"/>
-      <c r="F122" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G122" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H122" s="18"/>
+      <c r="C122" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="G122" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="H122" s="10"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="11">
         <v>122</v>
       </c>
-      <c r="B123" s="12" t="s">
+      <c r="B123" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C123" s="12"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="12">
-        <v>5</v>
-      </c>
-      <c r="F123" s="12"/>
-      <c r="G123" s="12"/>
-      <c r="H123" s="18"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8">
+        <v>20</v>
+      </c>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="11">
         <v>123</v>
       </c>
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C124" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D124" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="G124" s="8" t="s">
+      <c r="C124" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H124" s="8"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G124" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="H124" s="10"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="12">
         <v>124</v>
       </c>
-      <c r="B125" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C125" s="10" t="s">
+      <c r="B125" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C125" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D125" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G125" s="10" t="s">
+      <c r="D125" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="H125" s="10"/>
+      <c r="E125" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="H125" s="8"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="11">
         <v>125</v>
       </c>
-      <c r="B126" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8">
-        <v>20</v>
-      </c>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="8"/>
+      <c r="B126" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D126" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="F126" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="G126" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="H126" s="10"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="12">
         <v>126</v>
       </c>
-      <c r="B127" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D127" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="G127" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="H127" s="10"/>
+      <c r="B127" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D127" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H127" s="8"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="11">
         <v>127</v>
       </c>
-      <c r="B128" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D128" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="F128" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="G128" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="H128" s="8"/>
+      <c r="B128" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D128" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="G128" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="H128" s="10"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="11">
         <v>128</v>
       </c>
-      <c r="B129" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D129" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="E129" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="F129" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="G129" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="H129" s="10"/>
+      <c r="B129" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8">
+        <v>20</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H129" s="8"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="12">
         <v>129</v>
       </c>
-      <c r="B130" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D130" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="F130" s="8" t="s">
+      <c r="B130" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="G130" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="H130" s="8"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="10"/>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="11">
         <v>130</v>
       </c>
-      <c r="B131" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D131" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E131" s="10"/>
-      <c r="F131" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="G131" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="H131" s="10"/>
+      <c r="B131" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8">
+        <v>10</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H131" s="8"/>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="12">
         <v>131</v>
       </c>
-      <c r="B132" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8">
-        <v>10</v>
-      </c>
-      <c r="F132" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G132" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H132" s="8"/>
+      <c r="B132" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C132" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="G132" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="H132" s="10"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="11">
         <v>132</v>
       </c>
-      <c r="B133" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="C133" s="10"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="10"/>
-      <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="10"/>
+      <c r="B133" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8">
+        <v>5</v>
+      </c>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="8"/>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="11">
         <v>133</v>
       </c>
-      <c r="B134" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8">
-        <v>10</v>
-      </c>
-      <c r="F134" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G134" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H134" s="8"/>
+      <c r="B134" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="12">
         <v>134</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C135" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D135" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="G135" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="H135" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="C135" s="10"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="10">
+        <v>1</v>
+      </c>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="17"/>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="11">
         <v>135</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8">
-        <v>5</v>
-      </c>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
-      <c r="H136" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G136" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H136" s="18"/>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="12">
         <v>136</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D137" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="E137" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10">
+        <v>5</v>
+      </c>
       <c r="F137" s="10"/>
       <c r="G137" s="10"/>
-      <c r="H137" s="17">
-        <v>3</v>
-      </c>
+      <c r="H137" s="17"/>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="11">
         <v>137</v>
       </c>
-      <c r="B138" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C138" s="10"/>
-      <c r="D138" s="15"/>
-      <c r="E138" s="10">
-        <v>1</v>
-      </c>
-      <c r="F138" s="10"/>
-      <c r="G138" s="10"/>
-      <c r="H138" s="17"/>
+      <c r="B138" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D138" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="H138" s="8"/>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="11">
         <v>138</v>
       </c>
-      <c r="B139" s="8" t="s">
+      <c r="B139" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C139" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D139" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G139" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H139" s="18"/>
+      <c r="C139" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="G139" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="H139" s="10"/>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="12">
         <v>139</v>
       </c>
-      <c r="B140" s="10" t="s">
+      <c r="B140" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="10">
-        <v>5</v>
-      </c>
-      <c r="F140" s="10"/>
-      <c r="G140" s="10"/>
-      <c r="H140" s="17"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8">
+        <v>3</v>
+      </c>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="11">
         <v>140</v>
       </c>
-      <c r="B141" s="8" t="s">
+      <c r="B141" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C141" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D141" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="G141" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H141" s="8"/>
+      <c r="C141" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D141" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="G141" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="H141" s="10"/>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="12">
         <v>141</v>
       </c>
-      <c r="B142" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D142" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="G142" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="H142" s="10"/>
+      <c r="B142" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8">
+        <v>3</v>
+      </c>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c r="H142" s="8"/>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="11">
         <v>142</v>
       </c>
-      <c r="B143" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C143" s="8"/>
-      <c r="D143" s="8"/>
-      <c r="E143" s="8">
-        <v>3</v>
-      </c>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
+      <c r="B143" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="F143" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="G143" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="H143" s="10"/>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="11">
         <v>143</v>
       </c>
-      <c r="B144" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D144" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="G144" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="H144" s="10"/>
+      <c r="B144" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" s="8"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="8">
+        <v>3</v>
+      </c>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c r="H144" s="8"/>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="12">
         <v>144</v>
       </c>
-      <c r="B145" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C145" s="8"/>
-      <c r="D145" s="8"/>
-      <c r="E145" s="8">
-        <v>3</v>
-      </c>
-      <c r="F145" s="8"/>
-      <c r="G145" s="8"/>
-      <c r="H145" s="8"/>
+      <c r="B145" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C145" s="10"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="G145" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="H145" s="10"/>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="11">
         <v>145</v>
       </c>
-      <c r="B146" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D146" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="E146" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="F146" s="10" t="s">
+      <c r="B146" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="G146" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="H146" s="10"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="8"/>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="12">
         <v>146</v>
       </c>
-      <c r="B147" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C147" s="8"/>
-      <c r="D147" s="13"/>
-      <c r="E147" s="8">
-        <v>3</v>
-      </c>
-      <c r="F147" s="8"/>
-      <c r="G147" s="8"/>
-      <c r="H147" s="8"/>
+      <c r="B147" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D147" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G147" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H147" s="10"/>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="11">
         <v>147</v>
       </c>
-      <c r="B148" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C148" s="10"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="10"/>
-      <c r="F148" s="10" t="s">
+      <c r="B148" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D148" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="G148" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="H148" s="10"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="11">
         <v>148</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="B149" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C149" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D149" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="E149" s="8"/>
-      <c r="F149" s="8"/>
-      <c r="G149" s="8"/>
-      <c r="H149" s="8"/>
+      <c r="C149" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D149" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G149" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H149" s="10"/>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="12">
         <v>149</v>
       </c>
-      <c r="B150" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D150" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="E150" s="10"/>
-      <c r="F150" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="G150" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="H150" s="10"/>
+      <c r="B150" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D150" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="E150" s="8">
+        <v>200</v>
+      </c>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+      <c r="H150" s="8"/>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="11">
         <v>150</v>
       </c>
-      <c r="B151" s="8" t="s">
+      <c r="B151" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C151" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D151" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="E151" s="8"/>
-      <c r="F151" s="8"/>
-      <c r="G151" s="8"/>
-      <c r="H151" s="8"/>
+      <c r="C151" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D151" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="E151" s="10"/>
+      <c r="F151" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G151" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H151" s="10"/>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="12">
         <v>151</v>
       </c>
-      <c r="B152" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C152" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D152" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="E152" s="10"/>
-      <c r="F152" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="G152" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="H152" s="10"/>
+      <c r="B152" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" s="8"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="8">
+        <v>3</v>
+      </c>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="11">
         <v>152</v>
       </c>
-      <c r="B153" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D153" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="E153" s="8">
-        <v>200</v>
-      </c>
-      <c r="F153" s="8"/>
-      <c r="G153" s="8"/>
-      <c r="H153" s="8"/>
+      <c r="B153" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="E153" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="F153" s="10"/>
+      <c r="G153" s="10"/>
+      <c r="H153" s="10"/>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="11">
         <v>153</v>
       </c>
-      <c r="B154" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D154" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="E154" s="10"/>
-      <c r="F154" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G154" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H154" s="10"/>
+      <c r="B154" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D154" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="F154" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="G154" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H154" s="8"/>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="12">
         <v>154</v>
       </c>
-      <c r="B155" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C155" s="8"/>
-      <c r="D155" s="13"/>
-      <c r="E155" s="8">
-        <v>3</v>
-      </c>
-      <c r="F155" s="8"/>
-      <c r="G155" s="8"/>
-      <c r="H155" s="8"/>
+      <c r="B155" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D155" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G155" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H155" s="10"/>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="11">
         <v>155</v>
       </c>
-      <c r="B156" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C156" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D156" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="E156" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="F156" s="10"/>
-      <c r="G156" s="10"/>
-      <c r="H156" s="10"/>
+      <c r="B156" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" s="8"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="8">
+        <v>2</v>
+      </c>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
+      <c r="H156" s="8"/>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="12">
         <v>156</v>
       </c>
-      <c r="B157" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="C157" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D157" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="E157" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="F157" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="G157" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="H157" s="8"/>
+      <c r="B157" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D157" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="E157" s="10"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="10"/>
+      <c r="H157" s="10"/>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="11">
         <v>157</v>
       </c>
-      <c r="B158" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D158" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="E158" s="10"/>
-      <c r="F158" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G158" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H158" s="10"/>
+      <c r="B158" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D158" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
+      <c r="H158" s="8"/>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="11">
         <v>158</v>
       </c>
-      <c r="B159" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C159" s="8"/>
-      <c r="D159" s="13"/>
-      <c r="E159" s="8">
-        <v>2</v>
-      </c>
-      <c r="F159" s="8"/>
-      <c r="G159" s="8"/>
-      <c r="H159" s="8"/>
+      <c r="B159" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D159" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="E159" s="10"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="10"/>
+      <c r="H159" s="10"/>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="12">
         <v>159</v>
       </c>
-      <c r="B160" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C160" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D160" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="E160" s="10"/>
-      <c r="F160" s="10"/>
-      <c r="G160" s="10"/>
-      <c r="H160" s="10"/>
+      <c r="B160" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" s="8"/>
+      <c r="D160" s="13"/>
+      <c r="E160" s="8">
+        <v>10</v>
+      </c>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
+      <c r="H160" s="8"/>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="11">
         <v>160</v>
       </c>
-      <c r="B161" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D161" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="E161" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F161" s="8"/>
-      <c r="G161" s="8"/>
-      <c r="H161" s="8"/>
+      <c r="B161" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C161" s="10"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="G161" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="H161" s="10"/>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="12">
         <v>161</v>
       </c>
-      <c r="B162" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C162" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D162" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="E162" s="10"/>
-      <c r="F162" s="10"/>
-      <c r="G162" s="10"/>
-      <c r="H162" s="10"/>
+      <c r="B162" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" s="8"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="8">
+        <v>10</v>
+      </c>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
+      <c r="H162" s="8"/>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="11">
         <v>162</v>
       </c>
-      <c r="B163" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C163" s="8"/>
-      <c r="D163" s="13"/>
-      <c r="E163" s="8">
-        <v>10</v>
-      </c>
-      <c r="F163" s="8"/>
-      <c r="G163" s="8"/>
-      <c r="H163" s="8"/>
+      <c r="B163" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D163" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E163" s="10"/>
+      <c r="F163" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="G163" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="H163" s="10"/>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="11">
         <v>163</v>
       </c>
-      <c r="B164" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="C164" s="10"/>
-      <c r="D164" s="15"/>
-      <c r="E164" s="10"/>
-      <c r="F164" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="G164" s="10" t="s">
+      <c r="B164" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="H164" s="10"/>
+      <c r="C164" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D164" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="E164" s="8"/>
+      <c r="F164" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="G164" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="H164" s="8"/>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="12">
         <v>164</v>
       </c>
-      <c r="B165" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C165" s="8"/>
-      <c r="D165" s="13"/>
-      <c r="E165" s="8">
-        <v>10</v>
-      </c>
-      <c r="F165" s="8"/>
-      <c r="G165" s="8"/>
-      <c r="H165" s="8"/>
+      <c r="B165" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D165" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="E165" s="10"/>
+      <c r="F165" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="G165" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="H165" s="10"/>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="11">
         <v>165</v>
       </c>
-      <c r="B166" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D166" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="E166" s="10"/>
-      <c r="F166" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="G166" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="H166" s="10"/>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="A167" s="12">
-        <v>166</v>
-      </c>
-      <c r="B167" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D167" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="E167" s="8"/>
-      <c r="F167" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="G167" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="H167" s="8"/>
-    </row>
-    <row r="168" spans="1:8">
-      <c r="A168" s="11">
-        <v>167</v>
-      </c>
-      <c r="B168" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D168" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="E168" s="10"/>
-      <c r="F168" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="G168" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="H168" s="10"/>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="A169" s="11">
-        <v>168</v>
-      </c>
-      <c r="B169" s="8" t="s">
+      <c r="B166" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C169" s="8"/>
-      <c r="D169" s="8"/>
-      <c r="E169" s="8">
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8">
         <v>4</v>
       </c>
-      <c r="F169" s="8"/>
-      <c r="G169" s="8"/>
-      <c r="H169" s="8"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
+      <c r="H166" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 C121 B122 C122 B123 C123 B4:B17 C7:C9 C14:C17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 C118 B119 C119 B120 C120 B4:B17 C7:C9 C14:C17">
       <formula1>[6]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C47 C59 C82 C29:C35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C58 C81 C29:C35">
       <formula1>[3]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C79">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C78">
       <formula1>[4]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B100 B102 B103 B121 C137 B138 C138 C140 B1:B3 B18:B98 B105:B120 B124:B137 B139:B141 B168:B169 C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B99 B100 B118 C134 B135 C135 C137 B1:B3 B18:B38 B39:B97 B102:B117 B121:B134 B136:B138 B165:B166 C2:C3">
       <formula1/>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C139 C18:C28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C136 C18:C28">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B142:B145 B146:B167">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B139:B142 B143:B164">
       <formula1>[5]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -6140,7 +6062,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6148,20 +6070,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -6172,20 +6094,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C6" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -6193,47 +6115,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C10" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C11" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -6243,12 +6165,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -6258,55 +6180,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -6316,359 +6238,359 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -6683,12 +6605,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/Pharmacy/Phar_Patient_App_Create_PCase_Positive-OK.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_Create_PCase_Positive-OK.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27465" windowHeight="13230"/>
+    <workbookView windowWidth="27435" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1313,10 +1313,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1365,9 +1365,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1382,22 +1388,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1419,6 +1426,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1427,16 +1456,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1444,14 +1480,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1465,14 +1494,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -1480,32 +1501,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1536,7 +1536,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1548,13 +1596,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1566,7 +1608,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1578,13 +1632,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1596,49 +1698,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1650,73 +1710,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1805,16 +1805,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1834,6 +1834,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1849,35 +1858,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1892,16 +1883,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1913,130 +1913,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2492,8 +2492,8 @@
   <sheetPr/>
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="E162" sqref="E162"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A166" sqref="A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
